--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/olb-tool/nymbus-banks/banks/inspire/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C888CE54-E4A9-5340-A5C2-13161C424C6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90990B99-2C96-C642-AA3E-0FA96A75471F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="820" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="820" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="DisclaimerTypes" sheetId="16" r:id="rId19"/>
     <sheet name="Disclaimers" sheetId="17" r:id="rId20"/>
     <sheet name="FeatureToggle" sheetId="24" r:id="rId21"/>
+    <sheet name="DateIntervalLimits" sheetId="25" r:id="rId22"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="806">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2382,6 +2383,87 @@
   </si>
   <si>
     <t>Inspire</t>
+  </si>
+  <si>
+    <t>allpoint-atm-locator</t>
+  </si>
+  <si>
+    <t>AllPoint ATM Locator</t>
+  </si>
+  <si>
+    <t>Date Interval Limits - limits for entering date values</t>
+  </si>
+  <si>
+    <t>DateIntervalLimits</t>
+  </si>
+  <si>
+    <t>DATETYPE,LIMITTYPE,OPERID</t>
+  </si>
+  <si>
+    <t>DATETYPE</t>
+  </si>
+  <si>
+    <t>LIMITTYPE</t>
+  </si>
+  <si>
+    <t>OPERID</t>
+  </si>
+  <si>
+    <t>PRIORITYID</t>
+  </si>
+  <si>
+    <t>PARAMVALUE</t>
+  </si>
+  <si>
+    <t>CURRENCYID</t>
+  </si>
+  <si>
+    <t>DAYTYPE</t>
+  </si>
+  <si>
+    <t>CONVERSIONFLAG</t>
+  </si>
+  <si>
+    <t>INTRABANKFLAG</t>
+  </si>
+  <si>
+    <t>ENDDATE</t>
+  </si>
+  <si>
+    <t>MAXDAYSINADVANCE</t>
+  </si>
+  <si>
+    <t>7300</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>NEXTDATE</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>CUTOVERTIME</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>MINDAYSINADVANCE</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>VALUEDATE</t>
+  </si>
+  <si>
+    <t>23:57</t>
+  </si>
+  <si>
+    <t>23:57:00 AM</t>
   </si>
 </sst>
 </file>
@@ -2392,7 +2474,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2583,6 +2665,24 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2717,14 +2817,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2922,29 +3024,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2963,14 +3043,71 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="4" xr:uid="{345D5794-06C6-344F-8A75-BED4E4ADCEFA}"/>
+    <cellStyle name="Excel Built-in Explanatory Text 2" xfId="5" xr:uid="{5AFB9D18-8F71-934A-AA25-AA7F71386924}"/>
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{4A0A501B-7D77-2840-9ACC-118925645B6C}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{A1F189E8-A8D2-EC41-AFDC-EDD088EB1381}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3581,22 +3718,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3606,66 +3743,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="104">
+      <c r="H8" s="96">
         <v>2</v>
       </c>
-      <c r="I8" s="104"/>
+      <c r="I8" s="96"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3683,325 +3820,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="101" t="s">
+      <c r="H13" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="101"/>
+      <c r="I13" s="100"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="99" t="s">
+      <c r="H14" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="99"/>
+      <c r="I14" s="101"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="99" t="s">
+      <c r="H15" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="99"/>
+      <c r="I15" s="101"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="99" t="s">
+      <c r="H16" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="99"/>
+      <c r="I16" s="101"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="99" t="s">
+      <c r="H17" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="99"/>
+      <c r="I17" s="101"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="99" t="s">
+      <c r="C18" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="99" t="s">
+      <c r="H18" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="99"/>
+      <c r="I18" s="101"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="99" t="s">
+      <c r="H19" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="99"/>
+      <c r="I19" s="101"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="100" t="s">
+      <c r="C20" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="99" t="s">
+      <c r="H20" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="99"/>
+      <c r="I20" s="101"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="100" t="s">
+      <c r="C21" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="99" t="s">
+      <c r="H21" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="99"/>
+      <c r="I21" s="101"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="99" t="s">
+      <c r="H22" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="99"/>
+      <c r="I22" s="101"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="99" t="s">
+      <c r="H23" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="99"/>
+      <c r="I23" s="101"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="99" t="s">
+      <c r="C24" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="99" t="s">
+      <c r="H24" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="99"/>
+      <c r="I24" s="101"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="96" t="s">
+      <c r="C25" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="96" t="s">
+      <c r="H25" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="96"/>
+      <c r="I25" s="103"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="96" t="s">
+      <c r="C26" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="96" t="s">
+      <c r="H26" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="96"/>
+      <c r="I26" s="103"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="96" t="s">
+      <c r="C27" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="96" t="s">
+      <c r="H27" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="96"/>
+      <c r="I27" s="103"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="96" t="s">
+      <c r="C28" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="96" t="s">
+      <c r="H28" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="96"/>
+      <c r="I28" s="103"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="96" t="s">
+      <c r="H29" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="96"/>
+      <c r="I29" s="103"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4014,512 +4151,413 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="96" t="s">
+      <c r="H31" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="96"/>
+      <c r="I31" s="103"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="98" t="s">
+      <c r="C32" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="96" t="s">
+      <c r="H32" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="96"/>
+      <c r="I32" s="103"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="97" t="s">
+      <c r="C33" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="97" t="s">
+      <c r="H33" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="97"/>
+      <c r="I33" s="105"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="97" t="s">
+      <c r="C34" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="97" t="s">
+      <c r="H34" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="97"/>
+      <c r="I34" s="105"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="94" t="s">
+      <c r="C35" s="106" t="s">
         <v>511</v>
       </c>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="96" t="s">
+      <c r="H35" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="96"/>
+      <c r="I35" s="103"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="103"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="103"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="107"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="106"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="94"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="106"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="107"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="93"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="94"/>
-      <c r="I55" s="94"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="93"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="107"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="94"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="106"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="93"/>
-      <c r="E57" s="93"/>
-      <c r="F57" s="93"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="93"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="93"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="107"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="94"/>
-      <c r="I58" s="94"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="106"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="93"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="107"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="94"/>
-      <c r="I59" s="94"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="106"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="93"/>
-      <c r="F60" s="93"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="107"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="93"/>
-      <c r="I60" s="93"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="107"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="93"/>
-      <c r="F61" s="93"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="93"/>
-      <c r="I61" s="93"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="93"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="107"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="93"/>
-      <c r="I62" s="93"/>
+      <c r="H62" s="107"/>
+      <c r="I62" s="107"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="93"/>
-      <c r="E63" s="93"/>
-      <c r="F63" s="93"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="93"/>
-      <c r="I63" s="93"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
+      <c r="C64" s="107"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="107"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="93"/>
-      <c r="I64" s="93"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="107"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="93"/>
-      <c r="E65" s="93"/>
-      <c r="F65" s="93"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="93"/>
-      <c r="I65" s="93"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4536,6 +4574,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -11897,7 +12034,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="18">
-      <c r="A51" s="108" t="s">
+      <c r="A51" s="93" t="s">
         <v>776</v>
       </c>
       <c r="B51" t="s">
@@ -12856,10 +12993,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D94DE1-7D84-A341-BE73-C0E2285BF343}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13094,6 +13231,549 @@
       </c>
       <c r="C17" s="79" t="s">
         <v>767</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18">
+      <c r="A18" s="87" t="s">
+        <v>779</v>
+      </c>
+      <c r="B18" s="79" t="s">
+        <v>768</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>780</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F738335-AC28-1C46-8CB9-3FD930928117}">
+  <dimension ref="A1:AMK33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" style="111" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="111" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="111" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="119" customWidth="1"/>
+    <col min="5" max="5" width="10" style="111" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="111" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="111" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="111" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="111" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="111" customWidth="1"/>
+    <col min="11" max="1025" width="7" style="111" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="119"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="109" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="110" t="s">
+        <v>781</v>
+      </c>
+      <c r="D1" s="112"/>
+    </row>
+    <row r="2" spans="1:11" ht="16">
+      <c r="A2" s="109" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>782</v>
+      </c>
+      <c r="D2" s="112"/>
+    </row>
+    <row r="3" spans="1:11" ht="16">
+      <c r="A3" s="109" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="114" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="115"/>
+    </row>
+    <row r="4" spans="1:11" ht="16">
+      <c r="A4" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="114" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="115"/>
+    </row>
+    <row r="5" spans="1:11" ht="16">
+      <c r="A5" s="109" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="113" t="s">
+        <v>782</v>
+      </c>
+      <c r="D5" s="112"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="109" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="113"/>
+      <c r="D6" s="112"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="109" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="113"/>
+      <c r="D7" s="112"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="109" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="113"/>
+      <c r="D8" s="112"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="113"/>
+      <c r="D9" s="112"/>
+    </row>
+    <row r="10" spans="1:11" ht="16">
+      <c r="A10" s="109" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="113" t="s">
+        <v>783</v>
+      </c>
+      <c r="D10" s="112"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="116" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="112"/>
+      <c r="D11" s="112"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="116" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="117"/>
+      <c r="D12" s="112"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="116" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="117"/>
+      <c r="D13" s="112"/>
+    </row>
+    <row r="14" spans="1:11" ht="16">
+      <c r="A14" s="118" t="s">
+        <v>350</v>
+      </c>
+      <c r="B14" s="118" t="s">
+        <v>784</v>
+      </c>
+      <c r="C14" s="118" t="s">
+        <v>785</v>
+      </c>
+      <c r="D14" s="118" t="s">
+        <v>786</v>
+      </c>
+      <c r="E14" s="118" t="s">
+        <v>787</v>
+      </c>
+      <c r="F14" s="118" t="s">
+        <v>788</v>
+      </c>
+      <c r="G14" s="118" t="s">
+        <v>789</v>
+      </c>
+      <c r="H14" s="118" t="s">
+        <v>790</v>
+      </c>
+      <c r="I14" s="118" t="s">
+        <v>791</v>
+      </c>
+      <c r="J14" s="118" t="s">
+        <v>792</v>
+      </c>
+      <c r="K14" s="118"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="118"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="118"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1">
+      <c r="A17" s="111">
+        <v>0</v>
+      </c>
+      <c r="B17" s="111" t="s">
+        <v>793</v>
+      </c>
+      <c r="C17" s="111" t="s">
+        <v>794</v>
+      </c>
+      <c r="D17" s="111">
+        <v>371</v>
+      </c>
+      <c r="F17" s="111" t="s">
+        <v>795</v>
+      </c>
+      <c r="H17" s="111" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="111">
+        <v>0</v>
+      </c>
+      <c r="B18" s="111" t="s">
+        <v>797</v>
+      </c>
+      <c r="C18" s="111" t="s">
+        <v>794</v>
+      </c>
+      <c r="D18" s="111">
+        <v>371</v>
+      </c>
+      <c r="F18" s="111" t="s">
+        <v>798</v>
+      </c>
+      <c r="H18" s="111" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="111">
+        <v>0</v>
+      </c>
+      <c r="B19" s="111" t="s">
+        <v>797</v>
+      </c>
+      <c r="C19" s="111" t="s">
+        <v>799</v>
+      </c>
+      <c r="D19" s="111">
+        <v>371</v>
+      </c>
+      <c r="F19" s="111" t="s">
+        <v>800</v>
+      </c>
+      <c r="H19" s="111" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="111">
+        <v>0</v>
+      </c>
+      <c r="B20" s="111" t="s">
+        <v>797</v>
+      </c>
+      <c r="C20" s="111" t="s">
+        <v>801</v>
+      </c>
+      <c r="D20" s="111">
+        <v>371</v>
+      </c>
+      <c r="F20" s="111" t="s">
+        <v>802</v>
+      </c>
+      <c r="H20" s="111" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="111">
+        <v>0</v>
+      </c>
+      <c r="B21" s="111" t="s">
+        <v>803</v>
+      </c>
+      <c r="C21" s="111" t="s">
+        <v>801</v>
+      </c>
+      <c r="D21" s="111">
+        <v>313</v>
+      </c>
+      <c r="F21" s="111" t="s">
+        <v>802</v>
+      </c>
+      <c r="H21" s="111" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="111">
+        <v>0</v>
+      </c>
+      <c r="B22" s="111" t="s">
+        <v>803</v>
+      </c>
+      <c r="C22" s="111" t="s">
+        <v>794</v>
+      </c>
+      <c r="D22" s="111">
+        <v>313</v>
+      </c>
+      <c r="F22" s="111" t="s">
+        <v>798</v>
+      </c>
+      <c r="H22" s="111" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="111">
+        <v>0</v>
+      </c>
+      <c r="B23" s="111" t="s">
+        <v>803</v>
+      </c>
+      <c r="C23" s="111" t="s">
+        <v>799</v>
+      </c>
+      <c r="D23" s="111">
+        <v>313</v>
+      </c>
+      <c r="F23" s="111" t="s">
+        <v>804</v>
+      </c>
+      <c r="H23" s="111" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="111">
+        <v>0</v>
+      </c>
+      <c r="B24" s="111" t="s">
+        <v>803</v>
+      </c>
+      <c r="C24" s="111" t="s">
+        <v>801</v>
+      </c>
+      <c r="D24" s="111">
+        <v>712</v>
+      </c>
+      <c r="F24" s="111" t="s">
+        <v>802</v>
+      </c>
+      <c r="H24" s="111" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="111">
+        <v>0</v>
+      </c>
+      <c r="B25" s="111" t="s">
+        <v>803</v>
+      </c>
+      <c r="C25" s="111" t="s">
+        <v>794</v>
+      </c>
+      <c r="D25" s="111">
+        <v>712</v>
+      </c>
+      <c r="F25" s="111" t="s">
+        <v>798</v>
+      </c>
+      <c r="H25" s="111" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="111">
+        <v>0</v>
+      </c>
+      <c r="B26" s="111" t="s">
+        <v>803</v>
+      </c>
+      <c r="C26" s="111" t="s">
+        <v>799</v>
+      </c>
+      <c r="D26" s="111">
+        <v>712</v>
+      </c>
+      <c r="F26" s="111" t="s">
+        <v>804</v>
+      </c>
+      <c r="H26" s="111" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="111">
+        <v>0</v>
+      </c>
+      <c r="B27" s="111" t="s">
+        <v>803</v>
+      </c>
+      <c r="C27" s="111" t="s">
+        <v>794</v>
+      </c>
+      <c r="D27" s="111">
+        <v>316</v>
+      </c>
+      <c r="F27" s="111" t="s">
+        <v>798</v>
+      </c>
+      <c r="H27" s="111" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="111">
+        <v>0</v>
+      </c>
+      <c r="B28" s="111" t="s">
+        <v>803</v>
+      </c>
+      <c r="C28" s="111" t="s">
+        <v>799</v>
+      </c>
+      <c r="D28" s="111">
+        <v>316</v>
+      </c>
+      <c r="F28" s="121" t="s">
+        <v>805</v>
+      </c>
+      <c r="H28" s="111" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="111">
+        <v>0</v>
+      </c>
+      <c r="B29" s="111" t="s">
+        <v>803</v>
+      </c>
+      <c r="C29" s="111" t="s">
+        <v>801</v>
+      </c>
+      <c r="D29" s="111">
+        <v>316</v>
+      </c>
+      <c r="F29" s="111" t="s">
+        <v>802</v>
+      </c>
+      <c r="H29" s="111" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="111">
+        <v>0</v>
+      </c>
+      <c r="B30" s="111" t="s">
+        <v>803</v>
+      </c>
+      <c r="C30" s="111" t="s">
+        <v>801</v>
+      </c>
+      <c r="D30" s="111">
+        <v>321</v>
+      </c>
+      <c r="F30" s="111" t="s">
+        <v>802</v>
+      </c>
+      <c r="H30" s="111" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="111">
+        <v>0</v>
+      </c>
+      <c r="B31" s="111" t="s">
+        <v>803</v>
+      </c>
+      <c r="C31" s="111" t="s">
+        <v>794</v>
+      </c>
+      <c r="D31" s="111">
+        <v>321</v>
+      </c>
+      <c r="F31" s="111" t="s">
+        <v>798</v>
+      </c>
+      <c r="H31" s="111" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="111">
+        <v>0</v>
+      </c>
+      <c r="B32" s="111" t="s">
+        <v>803</v>
+      </c>
+      <c r="C32" s="111" t="s">
+        <v>799</v>
+      </c>
+      <c r="D32" s="111">
+        <v>321</v>
+      </c>
+      <c r="F32" s="111" t="s">
+        <v>804</v>
+      </c>
+      <c r="H32" s="111" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="111">
+        <v>0</v>
+      </c>
+      <c r="B33" s="111" t="s">
+        <v>803</v>
+      </c>
+      <c r="C33" s="111" t="s">
+        <v>799</v>
+      </c>
+      <c r="D33" s="119">
+        <v>833</v>
+      </c>
+      <c r="F33" s="120">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H33" s="111" t="s">
+        <v>796</v>
       </c>
     </row>
   </sheetData>

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90990B99-2C96-C642-AA3E-0FA96A75471F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF10E548-E278-C14A-AF8A-4F59FCA05CB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="820" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63260" yWindow="2680" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="12" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="GlobalSystemParameter" sheetId="14" r:id="rId17"/>
     <sheet name="ClientCategories" sheetId="15" r:id="rId18"/>
     <sheet name="DisclaimerTypes" sheetId="16" r:id="rId19"/>
-    <sheet name="Disclaimers" sheetId="17" r:id="rId20"/>
+    <sheet name="Disclaimers" sheetId="26" r:id="rId20"/>
     <sheet name="FeatureToggle" sheetId="24" r:id="rId21"/>
     <sheet name="DateIntervalLimits" sheetId="25" r:id="rId22"/>
   </sheets>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="814">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -1551,9 +1551,6 @@
     <t>Disclaimers</t>
   </si>
   <si>
-    <t>DisclaimerID, DisclaimerVersion</t>
-  </si>
-  <si>
     <t>STATUS</t>
   </si>
   <si>
@@ -1569,12 +1566,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>ContentIBSRef</t>
-  </si>
-  <si>
-    <t>ContentMBRef</t>
-  </si>
-  <si>
     <t>01-01-2018</t>
   </si>
   <si>
@@ -2364,9 +2355,6 @@
     <t>LINE_OF_CREDIT</t>
   </si>
   <si>
-    <t>CSV</t>
-  </si>
-  <si>
     <t>customer.account.roles.Business Signer RO</t>
   </si>
   <si>
@@ -2464,6 +2452,42 @@
   </si>
   <si>
     <t>23:57:00 AM</t>
+  </si>
+  <si>
+    <t>CSV,QFX,QBO</t>
+  </si>
+  <si>
+    <t>DisclaimerTypeCode, DisclaimerVersion</t>
+  </si>
+  <si>
+    <t>DisclaimerTypeCode</t>
+  </si>
+  <si>
+    <t>post-login</t>
+  </si>
+  <si>
+    <t>ver2018</t>
+  </si>
+  <si>
+    <t>31-12-2018</t>
+  </si>
+  <si>
+    <t>ver2019</t>
+  </si>
+  <si>
+    <t>01-01-2019</t>
+  </si>
+  <si>
+    <t>statements-electronic-delivery</t>
+  </si>
+  <si>
+    <t>31-12-2019</t>
+  </si>
+  <si>
+    <t>ver2020</t>
+  </si>
+  <si>
+    <t>01-01-2020</t>
   </si>
 </sst>
 </file>
@@ -2826,7 +2850,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2970,7 +2994,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3025,6 +3048,39 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3066,39 +3122,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="4" xr:uid="{345D5794-06C6-344F-8A75-BED4E4ADCEFA}"/>
@@ -3718,22 +3757,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3743,66 +3782,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="96">
+      <c r="H8" s="108">
         <v>2</v>
       </c>
-      <c r="I8" s="96"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3820,325 +3859,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="100" t="s">
+      <c r="H13" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="100"/>
+      <c r="I13" s="112"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="101" t="s">
+      <c r="H14" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="101"/>
+      <c r="I14" s="113"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="101" t="s">
+      <c r="H15" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="101"/>
+      <c r="I15" s="113"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="101" t="s">
+      <c r="H16" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="101"/>
+      <c r="I16" s="113"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="101" t="s">
+      <c r="H17" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="101"/>
+      <c r="I17" s="113"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="101" t="s">
+      <c r="H18" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="101"/>
+      <c r="I18" s="113"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="101" t="s">
+      <c r="H19" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="101"/>
+      <c r="I19" s="113"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="101" t="s">
+      <c r="H20" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="101"/>
+      <c r="I20" s="113"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="101" t="s">
+      <c r="H21" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="101"/>
+      <c r="I21" s="113"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="101" t="s">
+      <c r="H22" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="101"/>
+      <c r="I22" s="113"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="101" t="s">
+      <c r="H23" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="101"/>
+      <c r="I23" s="113"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="101" t="s">
+      <c r="H24" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="101"/>
+      <c r="I24" s="113"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="103" t="s">
+      <c r="C25" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="103" t="s">
+      <c r="H25" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="103"/>
+      <c r="I25" s="115"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="103" t="s">
+      <c r="H26" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="103"/>
+      <c r="I26" s="115"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="103" t="s">
+      <c r="C27" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="103" t="s">
+      <c r="H27" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="103"/>
+      <c r="I27" s="115"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="103" t="s">
+      <c r="C28" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="103" t="s">
+      <c r="H28" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="103"/>
+      <c r="I28" s="115"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="103" t="s">
+      <c r="C29" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="103" t="s">
+      <c r="H29" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="103"/>
+      <c r="I29" s="115"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4151,410 +4190,410 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="103" t="s">
+      <c r="C31" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="103" t="s">
+      <c r="H31" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="103"/>
+      <c r="I31" s="115"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="104" t="s">
+      <c r="C32" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="103" t="s">
+      <c r="H32" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="103"/>
+      <c r="I32" s="115"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="105" t="s">
+      <c r="C33" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="105" t="s">
+      <c r="H33" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="105"/>
+      <c r="I33" s="117"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="105" t="s">
+      <c r="C34" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="105" t="s">
+      <c r="H34" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="105"/>
+      <c r="I34" s="117"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="106" t="s">
-        <v>511</v>
-      </c>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
+      <c r="C35" s="118" t="s">
+        <v>508</v>
+      </c>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="103" t="s">
+      <c r="H35" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="103"/>
+      <c r="I35" s="115"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="118"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="119"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="119"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="115"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="119"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="119"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="115"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="120"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="103"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="115"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="115"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="108"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="120"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="115"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="107"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="107"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="118"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="119"/>
+      <c r="F52" s="119"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="106"/>
-      <c r="I52" s="106"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="118"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="107"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="119"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="106"/>
-      <c r="I54" s="106"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="118"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="107"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="118"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="107"/>
-      <c r="F56" s="107"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="119"/>
+      <c r="F56" s="119"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="106"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="118"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="107"/>
-      <c r="F57" s="107"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="106"/>
-      <c r="I57" s="106"/>
+      <c r="H57" s="118"/>
+      <c r="I57" s="118"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="107"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="119"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="106"/>
-      <c r="I58" s="106"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="118"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="107"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="119"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="106"/>
-      <c r="I59" s="106"/>
+      <c r="H59" s="118"/>
+      <c r="I59" s="118"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="107"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="107"/>
-      <c r="F60" s="107"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="119"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="107"/>
+      <c r="H60" s="119"/>
+      <c r="I60" s="119"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
+      <c r="E61" s="119"/>
+      <c r="F61" s="119"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
+      <c r="H61" s="119"/>
+      <c r="I61" s="119"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="107"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="119"/>
+      <c r="F62" s="119"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="107"/>
-      <c r="I62" s="107"/>
+      <c r="H62" s="119"/>
+      <c r="I62" s="119"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="107"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="119"/>
+      <c r="F63" s="119"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="119"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="107"/>
-      <c r="D64" s="107"/>
-      <c r="E64" s="107"/>
-      <c r="F64" s="107"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
+      <c r="E64" s="119"/>
+      <c r="F64" s="119"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="107"/>
+      <c r="H64" s="119"/>
+      <c r="I64" s="119"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="107"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="107"/>
+      <c r="H65" s="119"/>
+      <c r="I65" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="115">
@@ -4700,7 +4739,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -4710,7 +4749,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -4740,7 +4779,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -4782,7 +4821,7 @@
         <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -4792,7 +4831,7 @@
         <v>293</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -4819,32 +4858,32 @@
     </row>
     <row r="14" spans="1:5" ht="13" customHeight="1">
       <c r="A14" s="29" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>347</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13" customHeight="1">
       <c r="A15" s="29"/>
       <c r="B15" s="29" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="30" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13" customHeight="1">
@@ -4858,7 +4897,7 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="77">
+      <c r="B17" s="76">
         <v>833</v>
       </c>
       <c r="C17" s="22">
@@ -4868,7 +4907,7 @@
         <v>2500</v>
       </c>
       <c r="E17" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -5026,7 +5065,7 @@
         <v>101</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5040,7 +5079,7 @@
         <v>102</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
@@ -5056,7 +5095,7 @@
         <v>103</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -5070,7 +5109,7 @@
         <v>104</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
@@ -5084,7 +5123,7 @@
         <v>105</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
@@ -5098,7 +5137,7 @@
         <v>106</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
@@ -5112,7 +5151,7 @@
         <v>107</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
@@ -5126,7 +5165,7 @@
         <v>108</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
@@ -5140,7 +5179,7 @@
         <v>109</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
@@ -5154,7 +5193,7 @@
         <v>110</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
@@ -5168,7 +5207,7 @@
         <v>111</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
@@ -5182,7 +5221,7 @@
         <v>112</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
@@ -5196,7 +5235,7 @@
         <v>113</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
@@ -5210,7 +5249,7 @@
         <v>114</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
@@ -5224,7 +5263,7 @@
         <v>115</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
@@ -5238,7 +5277,7 @@
         <v>116</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
@@ -5252,7 +5291,7 @@
         <v>117</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
@@ -5266,7 +5305,7 @@
         <v>118</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
@@ -5280,7 +5319,7 @@
         <v>119</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
@@ -5294,7 +5333,7 @@
         <v>120</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
@@ -5308,7 +5347,7 @@
         <v>121</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
@@ -5322,7 +5361,7 @@
         <v>122</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
@@ -5350,7 +5389,7 @@
         <v>124</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
@@ -5892,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5926,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5960,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5994,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -6028,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -6062,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -6096,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -6130,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -6164,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -6198,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -6232,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -6266,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -6300,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -6334,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -6368,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -6402,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -6436,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -6470,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -6504,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -6538,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -6572,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -6606,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -6640,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -6674,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -6708,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -6742,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -6776,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -6810,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="53" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -6844,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -6878,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="53" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -6912,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="48" spans="1:26">
@@ -6923,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6934,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6945,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="53" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -6956,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="53" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -6967,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="53" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -6978,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="53" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -6989,7 +7028,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="53" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7000,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="53" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7011,7 +7050,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="53" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7022,7 +7061,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -7033,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7044,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7055,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -7066,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -7077,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -7088,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -7099,7 +7138,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -7110,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -7121,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -7132,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7143,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7154,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7165,7 +7204,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7176,7 +7215,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7187,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7198,7 +7237,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -7209,7 +7248,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7220,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -7231,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -7242,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -7253,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7264,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -7275,7 +7314,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -7286,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -7297,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -7308,7 +7347,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -7319,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -7330,7 +7369,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -7341,7 +7380,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -7352,7 +7391,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -7363,7 +7402,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -7374,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -7385,7 +7424,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -7396,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -7407,7 +7446,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -7418,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -7429,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -7440,7 +7479,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -7687,7 +7726,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -7701,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -7715,7 +7754,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -7729,7 +7768,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -7743,7 +7782,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -7757,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -7771,7 +7810,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -7785,7 +7824,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -7799,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -7813,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -7827,7 +7866,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -7841,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -7855,7 +7894,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -7869,7 +7908,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -7883,7 +7922,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -7897,7 +7936,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -7911,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -7925,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -7939,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1">
@@ -7950,7 +7989,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1">
@@ -7961,7 +8000,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1">
@@ -7972,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1">
@@ -7994,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
@@ -8343,14 +8382,14 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="54"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="53" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -8367,14 +8406,14 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="54"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="53" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L18" s="1"/>
     </row>
@@ -8391,14 +8430,14 @@
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="54"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="53" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -8415,14 +8454,14 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="54"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="53" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L20" s="1"/>
     </row>
@@ -8439,14 +8478,14 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="54"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="53" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -8463,14 +8502,14 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="54"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="53" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="L22" s="1"/>
     </row>
@@ -8487,14 +8526,14 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="54"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="53" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="L23" s="1"/>
     </row>
@@ -8511,14 +8550,14 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="54"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="53" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -8535,14 +8574,14 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="54"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="53" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -8559,14 +8598,14 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="54"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="53" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L26" s="1"/>
     </row>
@@ -8583,14 +8622,14 @@
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="54"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="53" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -8607,14 +8646,14 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="53" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L28" s="1"/>
     </row>
@@ -8631,14 +8670,14 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="53" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="L29" s="1"/>
     </row>
@@ -8655,14 +8694,14 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="53" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="L30" s="1"/>
     </row>
@@ -8679,14 +8718,14 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="53" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L31" s="1"/>
     </row>
@@ -8703,14 +8742,14 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="53" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="L32" s="1"/>
     </row>
@@ -8727,14 +8766,14 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="53" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L33" s="1"/>
     </row>
@@ -8751,14 +8790,14 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="53" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="L34" s="1"/>
     </row>
@@ -8775,14 +8814,14 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="53" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="L35" s="1"/>
     </row>
@@ -8799,14 +8838,14 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="53" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="L36" s="1"/>
     </row>
@@ -8823,14 +8862,14 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="53" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L37" s="1"/>
     </row>
@@ -8847,14 +8886,14 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="53" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="L38" s="1"/>
     </row>
@@ -8871,14 +8910,14 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="53" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="L39" s="1"/>
     </row>
@@ -8895,14 +8934,14 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="53" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="L40" s="1"/>
     </row>
@@ -8919,14 +8958,14 @@
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="53" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="L41" s="1"/>
     </row>
@@ -8943,14 +8982,14 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="53" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -8967,14 +9006,14 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="53" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L43" s="1"/>
     </row>
@@ -8991,14 +9030,14 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="53" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L44" s="1"/>
     </row>
@@ -9015,14 +9054,14 @@
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="53" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L45" s="1"/>
     </row>
@@ -9037,10 +9076,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="55" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="K46" s="53" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -9056,14 +9095,14 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="53" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L47" s="1"/>
     </row>
@@ -9080,14 +9119,14 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="53" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="L48" s="1"/>
     </row>
@@ -9104,14 +9143,14 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="53" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="L49" s="1"/>
     </row>
@@ -9126,10 +9165,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K50" s="53" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -9143,10 +9182,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K51" s="53" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -9160,10 +9199,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K52" s="53" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -9177,10 +9216,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="K53" s="53" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -9194,10 +9233,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="K54" s="53" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -9211,10 +9250,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="K55" s="53" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -9228,10 +9267,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="K56" s="53" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -9245,10 +9284,10 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="K57" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -9262,10 +9301,10 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="K58" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -9279,10 +9318,10 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="K59" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -9296,10 +9335,10 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="K60" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -9313,10 +9352,10 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="K61" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -9330,10 +9369,10 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="K62" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -9347,10 +9386,10 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="K63" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -9364,10 +9403,10 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="K64" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -9381,10 +9420,10 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K65" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -9398,10 +9437,10 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="K66" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -9415,10 +9454,10 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="K67" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -9432,10 +9471,10 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="K68" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -9449,10 +9488,10 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="K69" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -9466,10 +9505,10 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="K70" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -9483,10 +9522,10 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="K71" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -9500,10 +9539,10 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K72" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -9517,10 +9556,10 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="K73" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -9534,10 +9573,10 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="K74" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -9551,10 +9590,10 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K75" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -9568,10 +9607,10 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="K76" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -9585,10 +9624,10 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="K77" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -9602,10 +9641,10 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="K78" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -9619,10 +9658,10 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="K79" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -9636,10 +9675,10 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="K80" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -9653,27 +9692,27 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="K81" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="88" customFormat="1">
-      <c r="A82" s="88">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="87" customFormat="1">
+      <c r="A82" s="87">
         <v>166</v>
       </c>
-      <c r="C82" s="88" t="s">
+      <c r="C82" s="87" t="s">
         <v>393</v>
       </c>
-      <c r="E82" s="88">
-        <v>1</v>
-      </c>
-      <c r="F82" s="88" t="s">
-        <v>712</v>
-      </c>
-      <c r="K82" s="88" t="s">
-        <v>627</v>
+      <c r="E82" s="87">
+        <v>1</v>
+      </c>
+      <c r="F82" s="87" t="s">
+        <v>709</v>
+      </c>
+      <c r="K82" s="87" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -9687,10 +9726,10 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="K83" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -9704,10 +9743,10 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="K84" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -9721,10 +9760,10 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="K85" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -9738,10 +9777,10 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="K86" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -9755,10 +9794,10 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="K87" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -9772,10 +9811,10 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="K88" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -9789,10 +9828,10 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="K89" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -9806,10 +9845,10 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="K90" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -9823,10 +9862,10 @@
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="K91" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -9840,10 +9879,10 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K92" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -9857,10 +9896,10 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="K93" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -9874,10 +9913,10 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="K94" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -9885,7 +9924,7 @@
         <v>64</v>
       </c>
       <c r="C95" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -9894,7 +9933,7 @@
         <v>394</v>
       </c>
       <c r="K95" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -9902,7 +9941,7 @@
         <v>179</v>
       </c>
       <c r="C96" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -9919,7 +9958,7 @@
         <v>180</v>
       </c>
       <c r="C97" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -9936,7 +9975,7 @@
         <v>181</v>
       </c>
       <c r="C98" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -9969,23 +10008,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="96">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>278</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>280</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="72" t="s">
         <v>281</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -9993,7 +10032,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="48">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="72" t="s">
         <v>283</v>
       </c>
       <c r="B4" s="38" t="s">
@@ -10001,50 +10040,50 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="32">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="72" t="s">
         <v>285</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="72" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="22"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="72" t="s">
         <v>287</v>
       </c>
       <c r="B7" s="22"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="72" t="s">
         <v>289</v>
       </c>
       <c r="B8" s="22"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="72" t="s">
         <v>290</v>
       </c>
       <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:3" ht="64">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="72" t="s">
         <v>291</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16">
       <c r="A11" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="65" t="s">
         <v>374</v>
       </c>
     </row>
@@ -10052,110 +10091,110 @@
       <c r="A12" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="67"/>
+      <c r="B12" s="66"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="67"/>
+      <c r="B13" s="66"/>
     </row>
     <row r="14" spans="1:3" ht="32">
-      <c r="A14" s="69" t="s">
-        <v>739</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>738</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>737</v>
+      <c r="A14" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>735</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="B17" s="74">
+      <c r="B17" s="73">
         <v>166</v>
       </c>
-      <c r="C17" s="74" t="s">
-        <v>771</v>
+      <c r="C17" s="73" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="74">
+      <c r="B18" s="73">
         <v>171</v>
       </c>
-      <c r="C18" s="74" t="s">
-        <v>771</v>
+      <c r="C18" s="73" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="74">
+      <c r="B19" s="73">
         <v>173</v>
       </c>
-      <c r="C19" s="74" t="s">
-        <v>771</v>
+      <c r="C19" s="73" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="74">
+      <c r="B20" s="73">
         <v>174</v>
       </c>
-      <c r="C20" s="74" t="s">
-        <v>771</v>
+      <c r="C20" s="73" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="B21" s="74">
+      <c r="B21" s="73">
         <v>175</v>
       </c>
-      <c r="C21" s="74" t="s">
-        <v>771</v>
+      <c r="C21" s="73" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="B22" s="74">
+      <c r="B22" s="73">
         <v>176</v>
       </c>
-      <c r="C22" s="74" t="s">
-        <v>771</v>
+      <c r="C22" s="73" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="74">
+      <c r="B23" s="73">
         <v>177</v>
       </c>
-      <c r="C23" s="74" t="s">
-        <v>771</v>
+      <c r="C23" s="73" t="s">
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -11145,7 +11184,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11343,7 +11382,7 @@
         <v>414</v>
       </c>
       <c r="B18" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D18" s="57">
         <v>1</v>
@@ -11526,7 +11565,7 @@
         <v>432</v>
       </c>
       <c r="B27" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D27" s="57">
         <v>1</v>
@@ -11569,7 +11608,7 @@
         <v>436</v>
       </c>
       <c r="B29" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D29" s="57">
         <v>1</v>
@@ -11609,7 +11648,7 @@
         <v>439</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D31" s="57">
         <v>1</v>
@@ -11632,7 +11671,7 @@
         <v>441</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D32" s="57">
         <v>1</v>
@@ -11655,7 +11694,7 @@
         <v>443</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D33" s="57">
         <v>1</v>
@@ -11678,7 +11717,7 @@
         <v>445</v>
       </c>
       <c r="B34" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D34" s="57">
         <v>1</v>
@@ -11715,7 +11754,7 @@
         <v>447</v>
       </c>
       <c r="B36" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D36" s="57">
         <v>1</v>
@@ -11755,7 +11794,7 @@
         <v>449</v>
       </c>
       <c r="B38" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D38" s="57">
         <v>1</v>
@@ -11775,7 +11814,7 @@
         <v>450</v>
       </c>
       <c r="B39" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D39" s="57">
         <v>1</v>
@@ -11815,7 +11854,7 @@
         <v>453</v>
       </c>
       <c r="B41">
-        <v>231379775</v>
+        <v>1571</v>
       </c>
       <c r="D41" s="57">
         <v>1</v>
@@ -11838,7 +11877,7 @@
         <v>455</v>
       </c>
       <c r="B42" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D42" s="57">
         <v>1</v>
@@ -11966,10 +12005,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="26" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B48" t="s">
-        <v>772</v>
+        <v>802</v>
       </c>
       <c r="D48" s="57">
         <v>1</v>
@@ -11984,12 +12023,12 @@
         <v>1</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B49">
         <v>40.2301</v>
@@ -12007,12 +12046,12 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B50">
         <v>74.915499999999994</v>
@@ -12030,15 +12069,15 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18">
-      <c r="A51" s="93" t="s">
-        <v>776</v>
+      <c r="A51" s="92" t="s">
+        <v>772</v>
       </c>
       <c r="B51" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D51" s="57">
         <v>1</v>
@@ -12052,8 +12091,8 @@
       <c r="G51" s="57">
         <v>1</v>
       </c>
-      <c r="H51" s="87" t="s">
-        <v>777</v>
+      <c r="H51" s="86" t="s">
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -12492,28 +12531,28 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="75">
+      <c r="A29" s="74">
         <v>13</v>
       </c>
-      <c r="B29" s="76" t="s">
-        <v>747</v>
+      <c r="B29" s="75" t="s">
+        <v>744</v>
       </c>
       <c r="C29" s="63">
         <v>1</v>
       </c>
-      <c r="D29" s="75">
-        <v>1</v>
-      </c>
-      <c r="E29" s="75"/>
+      <c r="D29" s="74">
+        <v>1</v>
+      </c>
+      <c r="E29" s="74"/>
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" s="76" t="s">
-        <v>748</v>
+      <c r="G29" s="75" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="75"/>
+      <c r="A30" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -12779,211 +12818,231 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F724AAF-362B-BD4E-94D5-7B69A6DE45F3}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5"/>
-    <col min="2" max="2" width="35.83203125"/>
-    <col min="3" max="3" width="17.83203125"/>
-    <col min="4" max="4" width="13.5"/>
-    <col min="5" max="5" width="12.83203125"/>
-    <col min="6" max="7" width="17"/>
-    <col min="8" max="1025" width="8.33203125"/>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" s="82" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="121" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="23" t="s">
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="82" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="122" t="s">
         <v>500</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:7" ht="16">
-      <c r="A3" s="23" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3" s="82" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="123" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" ht="16">
-      <c r="A4" s="23" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="123" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" ht="16">
-      <c r="A5" s="23" t="s">
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+    </row>
+    <row r="5" spans="1:5" ht="16">
+      <c r="A5" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="123" t="s">
         <v>500</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="F5" s="24"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="23" t="s">
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="82" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="23" t="s">
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="82" t="s">
         <v>287</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="23" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="82" t="s">
         <v>289</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="23" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="82" t="s">
         <v>290</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" ht="16">
-      <c r="A10" s="23" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" s="82" t="s">
         <v>291</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>501</v>
+        <v>803</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="23" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="82" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="23" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="82" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="23" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>502</v>
+      <c r="B13" s="125" t="s">
+        <v>501</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" ht="16">
-      <c r="A14" s="30" t="s">
-        <v>495</v>
-      </c>
-      <c r="B14" s="30" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="126" t="s">
+        <v>804</v>
+      </c>
+      <c r="B14" s="126" t="s">
+        <v>502</v>
+      </c>
+      <c r="C14" s="127" t="s">
         <v>503</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="D14" s="127" t="s">
         <v>504</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="E14" s="126" t="s">
         <v>505</v>
       </c>
-      <c r="E14" s="30" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="126"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="126"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="60" t="s">
+        <v>805</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>806</v>
+      </c>
+      <c r="C17" s="128" t="s">
         <v>506</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>507</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="60">
-        <v>1</v>
-      </c>
-      <c r="B17" s="64">
-        <v>1</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>509</v>
-      </c>
-      <c r="D17" s="64"/>
+      <c r="D17" s="128" t="s">
+        <v>807</v>
+      </c>
       <c r="E17" s="60">
         <v>1</v>
       </c>
-      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="60" t="s">
+        <v>805</v>
+      </c>
+      <c r="B18" t="s">
+        <v>808</v>
+      </c>
+      <c r="C18" s="128" t="s">
+        <v>809</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>810</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>808</v>
+      </c>
+      <c r="C19" s="128" t="s">
+        <v>809</v>
+      </c>
+      <c r="D19" s="128" t="s">
+        <v>811</v>
+      </c>
+      <c r="E19" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>810</v>
+      </c>
+      <c r="B20" t="s">
+        <v>812</v>
+      </c>
+      <c r="C20" s="128" t="s">
+        <v>813</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -13001,247 +13060,247 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="79" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="79" customWidth="1"/>
-    <col min="3" max="3" width="19" style="79" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="79" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="79" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="79" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" style="79" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="79" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="79" customWidth="1"/>
-    <col min="10" max="1025" width="8.6640625" style="79" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="79"/>
+    <col min="1" max="1" width="26.83203125" style="78" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="78" customWidth="1"/>
+    <col min="3" max="3" width="19" style="78" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="78" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="78" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="78" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="78" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="78" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="78" customWidth="1"/>
+    <col min="10" max="1025" width="8.6640625" style="78" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
+        <v>757</v>
+      </c>
+      <c r="I1" s="79"/>
+    </row>
+    <row r="2" spans="1:9" ht="16">
+      <c r="A2" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>757</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+    </row>
+    <row r="3" spans="1:9" ht="16">
+      <c r="A3" s="77" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+    </row>
+    <row r="4" spans="1:9" ht="16">
+      <c r="A4" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="16">
+      <c r="A5" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>758</v>
+      </c>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A7" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="81"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+    </row>
+    <row r="10" spans="1:9" ht="16">
+      <c r="A10" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>759</v>
+      </c>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="82" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="83"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="82" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="84"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="85" t="s">
+        <v>759</v>
+      </c>
+      <c r="B14" s="85" t="s">
         <v>760</v>
       </c>
-      <c r="I1" s="80"/>
-    </row>
-    <row r="2" spans="1:9" ht="16">
-      <c r="A2" s="78" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="80" t="s">
-        <v>760</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-    </row>
-    <row r="3" spans="1:9" ht="16">
-      <c r="A3" s="78" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>378</v>
-      </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-    </row>
-    <row r="4" spans="1:9" ht="16">
-      <c r="A4" s="78" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-    </row>
-    <row r="5" spans="1:9" ht="16">
-      <c r="A5" s="78" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="81" t="s">
+      <c r="C14" s="85" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="85"/>
+      <c r="B15" s="85" t="s">
         <v>761</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A7" s="78" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="82"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="78" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="78" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-    </row>
-    <row r="10" spans="1:9" ht="16">
-      <c r="A10" s="78" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" s="82" t="s">
+      <c r="C15" s="85" t="s">
         <v>762</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="83" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="83" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="85" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="83" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="86" t="s">
-        <v>762</v>
-      </c>
-      <c r="B14" s="86" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="18">
+      <c r="A16" s="86" t="s">
+        <v>766</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>765</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="78" t="s">
         <v>763</v>
       </c>
-      <c r="C14" s="86" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86" t="s">
+      <c r="B17" s="78" t="s">
+        <v>765</v>
+      </c>
+      <c r="C17" s="78" t="s">
         <v>764</v>
       </c>
-      <c r="C15" s="86" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="18">
+      <c r="A18" s="86" t="s">
+        <v>775</v>
+      </c>
+      <c r="B18" s="78" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="18">
-      <c r="A16" s="87" t="s">
-        <v>769</v>
-      </c>
-      <c r="B16" s="79" t="s">
-        <v>768</v>
-      </c>
-      <c r="C16" s="79" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="79" t="s">
-        <v>766</v>
-      </c>
-      <c r="B17" s="79" t="s">
-        <v>768</v>
-      </c>
-      <c r="C17" s="79" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18">
-      <c r="A18" s="87" t="s">
-        <v>779</v>
-      </c>
-      <c r="B18" s="79" t="s">
-        <v>768</v>
-      </c>
-      <c r="C18" s="87" t="s">
-        <v>780</v>
+      <c r="C18" s="86" t="s">
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -13254,526 +13313,526 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F738335-AC28-1C46-8CB9-3FD930928117}">
   <dimension ref="A1:AMK33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="111" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="111" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="111" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="119" customWidth="1"/>
-    <col min="5" max="5" width="10" style="111" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="111" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="111" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="111" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" style="111" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="111" customWidth="1"/>
-    <col min="11" max="1025" width="7" style="111" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="119"/>
+    <col min="1" max="1" width="22.33203125" style="95" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="95" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="95" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="103" customWidth="1"/>
+    <col min="5" max="5" width="10" style="95" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="95" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="95" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="95" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="95" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="95" customWidth="1"/>
+    <col min="11" max="1025" width="7" style="95" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="103"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="94" t="s">
+        <v>777</v>
+      </c>
+      <c r="D1" s="96"/>
+    </row>
+    <row r="2" spans="1:11" ht="16">
+      <c r="A2" s="93" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="97" t="s">
+        <v>778</v>
+      </c>
+      <c r="D2" s="96"/>
+    </row>
+    <row r="3" spans="1:11" ht="16">
+      <c r="A3" s="93" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="99"/>
+    </row>
+    <row r="4" spans="1:11" ht="16">
+      <c r="A4" s="93" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="99"/>
+    </row>
+    <row r="5" spans="1:11" ht="16">
+      <c r="A5" s="93" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>778</v>
+      </c>
+      <c r="D5" s="96"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="93" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="97"/>
+      <c r="D6" s="96"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="93" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="97"/>
+      <c r="D7" s="96"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="93" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="97"/>
+      <c r="D8" s="96"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="93" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="97"/>
+      <c r="D9" s="96"/>
+    </row>
+    <row r="10" spans="1:11" ht="16">
+      <c r="A10" s="93" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>779</v>
+      </c>
+      <c r="D10" s="96"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="100" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="96"/>
+      <c r="D11" s="96"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="100" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="101"/>
+      <c r="D12" s="96"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="100" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="101"/>
+      <c r="D13" s="96"/>
+    </row>
+    <row r="14" spans="1:11" ht="16">
+      <c r="A14" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>780</v>
+      </c>
+      <c r="C14" s="102" t="s">
         <v>781</v>
       </c>
-      <c r="D1" s="112"/>
-    </row>
-    <row r="2" spans="1:11" ht="16">
-      <c r="A2" s="109" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="113" t="s">
+      <c r="D14" s="102" t="s">
         <v>782</v>
       </c>
-      <c r="D2" s="112"/>
-    </row>
-    <row r="3" spans="1:11" ht="16">
-      <c r="A3" s="109" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="114" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="115"/>
-    </row>
-    <row r="4" spans="1:11" ht="16">
-      <c r="A4" s="109" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="114" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="115"/>
-    </row>
-    <row r="5" spans="1:11" ht="16">
-      <c r="A5" s="109" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="113" t="s">
-        <v>782</v>
-      </c>
-      <c r="D5" s="112"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="109" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="113"/>
-      <c r="D6" s="112"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="109" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="113"/>
-      <c r="D7" s="112"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="109" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="113"/>
-      <c r="D8" s="112"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="113"/>
-      <c r="D9" s="112"/>
-    </row>
-    <row r="10" spans="1:11" ht="16">
-      <c r="A10" s="109" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" s="113" t="s">
+      <c r="E14" s="102" t="s">
         <v>783</v>
       </c>
-      <c r="D10" s="112"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="116" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="112"/>
-      <c r="D11" s="112"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="116" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="117"/>
-      <c r="D12" s="112"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="116" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="117"/>
-      <c r="D13" s="112"/>
-    </row>
-    <row r="14" spans="1:11" ht="16">
-      <c r="A14" s="118" t="s">
-        <v>350</v>
-      </c>
-      <c r="B14" s="118" t="s">
+      <c r="F14" s="102" t="s">
         <v>784</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="G14" s="102" t="s">
         <v>785</v>
       </c>
-      <c r="D14" s="118" t="s">
+      <c r="H14" s="102" t="s">
         <v>786</v>
       </c>
-      <c r="E14" s="118" t="s">
+      <c r="I14" s="102" t="s">
         <v>787</v>
       </c>
-      <c r="F14" s="118" t="s">
+      <c r="J14" s="102" t="s">
         <v>788</v>
       </c>
-      <c r="G14" s="118" t="s">
+      <c r="K14" s="102"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1">
+      <c r="A17" s="95">
+        <v>0</v>
+      </c>
+      <c r="B17" s="95" t="s">
         <v>789</v>
       </c>
-      <c r="H14" s="118" t="s">
+      <c r="C17" s="95" t="s">
         <v>790</v>
       </c>
-      <c r="I14" s="118" t="s">
+      <c r="D17" s="95">
+        <v>371</v>
+      </c>
+      <c r="F17" s="95" t="s">
         <v>791</v>
       </c>
-      <c r="J14" s="118" t="s">
+      <c r="H17" s="95" t="s">
         <v>792</v>
       </c>
-      <c r="K14" s="118"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="118"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="118"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1">
-      <c r="A17" s="111">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="95">
         <v>0</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B18" s="95" t="s">
         <v>793</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C18" s="95" t="s">
+        <v>790</v>
+      </c>
+      <c r="D18" s="95">
+        <v>371</v>
+      </c>
+      <c r="F18" s="95" t="s">
         <v>794</v>
       </c>
-      <c r="D17" s="111">
+      <c r="H18" s="95" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="95">
+        <v>0</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>793</v>
+      </c>
+      <c r="C19" s="95" t="s">
+        <v>795</v>
+      </c>
+      <c r="D19" s="95">
         <v>371</v>
       </c>
-      <c r="F17" s="111" t="s">
+      <c r="F19" s="95" t="s">
+        <v>796</v>
+      </c>
+      <c r="H19" s="95" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="95">
+        <v>0</v>
+      </c>
+      <c r="B20" s="95" t="s">
+        <v>793</v>
+      </c>
+      <c r="C20" s="95" t="s">
+        <v>797</v>
+      </c>
+      <c r="D20" s="95">
+        <v>371</v>
+      </c>
+      <c r="F20" s="95" t="s">
+        <v>798</v>
+      </c>
+      <c r="H20" s="95" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="95">
+        <v>0</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>799</v>
+      </c>
+      <c r="C21" s="95" t="s">
+        <v>797</v>
+      </c>
+      <c r="D21" s="95">
+        <v>313</v>
+      </c>
+      <c r="F21" s="95" t="s">
+        <v>798</v>
+      </c>
+      <c r="H21" s="95" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="95">
+        <v>0</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>799</v>
+      </c>
+      <c r="C22" s="95" t="s">
+        <v>790</v>
+      </c>
+      <c r="D22" s="95">
+        <v>313</v>
+      </c>
+      <c r="F22" s="95" t="s">
+        <v>794</v>
+      </c>
+      <c r="H22" s="95" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="95">
+        <v>0</v>
+      </c>
+      <c r="B23" s="95" t="s">
+        <v>799</v>
+      </c>
+      <c r="C23" s="95" t="s">
         <v>795</v>
       </c>
-      <c r="H17" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="111">
+      <c r="D23" s="95">
+        <v>313</v>
+      </c>
+      <c r="F23" s="95" t="s">
+        <v>800</v>
+      </c>
+      <c r="H23" s="95" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="95">
         <v>0</v>
       </c>
-      <c r="B18" s="111" t="s">
+      <c r="B24" s="95" t="s">
+        <v>799</v>
+      </c>
+      <c r="C24" s="95" t="s">
         <v>797</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="D24" s="95">
+        <v>712</v>
+      </c>
+      <c r="F24" s="95" t="s">
+        <v>798</v>
+      </c>
+      <c r="H24" s="95" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="95">
+        <v>0</v>
+      </c>
+      <c r="B25" s="95" t="s">
+        <v>799</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>790</v>
+      </c>
+      <c r="D25" s="95">
+        <v>712</v>
+      </c>
+      <c r="F25" s="95" t="s">
         <v>794</v>
       </c>
-      <c r="D18" s="111">
-        <v>371</v>
-      </c>
-      <c r="F18" s="111" t="s">
+      <c r="H25" s="95" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="95">
+        <v>0</v>
+      </c>
+      <c r="B26" s="95" t="s">
+        <v>799</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>795</v>
+      </c>
+      <c r="D26" s="95">
+        <v>712</v>
+      </c>
+      <c r="F26" s="95" t="s">
+        <v>800</v>
+      </c>
+      <c r="H26" s="95" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="95">
+        <v>0</v>
+      </c>
+      <c r="B27" s="95" t="s">
+        <v>799</v>
+      </c>
+      <c r="C27" s="95" t="s">
+        <v>790</v>
+      </c>
+      <c r="D27" s="95">
+        <v>316</v>
+      </c>
+      <c r="F27" s="95" t="s">
+        <v>794</v>
+      </c>
+      <c r="H27" s="95" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="95">
+        <v>0</v>
+      </c>
+      <c r="B28" s="95" t="s">
+        <v>799</v>
+      </c>
+      <c r="C28" s="95" t="s">
+        <v>795</v>
+      </c>
+      <c r="D28" s="95">
+        <v>316</v>
+      </c>
+      <c r="F28" s="105" t="s">
+        <v>801</v>
+      </c>
+      <c r="H28" s="95" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="95">
+        <v>0</v>
+      </c>
+      <c r="B29" s="95" t="s">
+        <v>799</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>797</v>
+      </c>
+      <c r="D29" s="95">
+        <v>316</v>
+      </c>
+      <c r="F29" s="95" t="s">
         <v>798</v>
       </c>
-      <c r="H18" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="111">
+      <c r="H29" s="95" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="95">
         <v>0</v>
       </c>
-      <c r="B19" s="111" t="s">
+      <c r="B30" s="95" t="s">
+        <v>799</v>
+      </c>
+      <c r="C30" s="95" t="s">
         <v>797</v>
       </c>
-      <c r="C19" s="111" t="s">
+      <c r="D30" s="95">
+        <v>321</v>
+      </c>
+      <c r="F30" s="95" t="s">
+        <v>798</v>
+      </c>
+      <c r="H30" s="95" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="95">
+        <v>0</v>
+      </c>
+      <c r="B31" s="95" t="s">
         <v>799</v>
       </c>
-      <c r="D19" s="111">
-        <v>371</v>
-      </c>
-      <c r="F19" s="111" t="s">
+      <c r="C31" s="95" t="s">
+        <v>790</v>
+      </c>
+      <c r="D31" s="95">
+        <v>321</v>
+      </c>
+      <c r="F31" s="95" t="s">
+        <v>794</v>
+      </c>
+      <c r="H31" s="95" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="95">
+        <v>0</v>
+      </c>
+      <c r="B32" s="95" t="s">
+        <v>799</v>
+      </c>
+      <c r="C32" s="95" t="s">
+        <v>795</v>
+      </c>
+      <c r="D32" s="95">
+        <v>321</v>
+      </c>
+      <c r="F32" s="95" t="s">
         <v>800</v>
       </c>
-      <c r="H19" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="111">
+      <c r="H32" s="95" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="95">
         <v>0</v>
       </c>
-      <c r="B20" s="111" t="s">
-        <v>797</v>
-      </c>
-      <c r="C20" s="111" t="s">
-        <v>801</v>
-      </c>
-      <c r="D20" s="111">
-        <v>371</v>
-      </c>
-      <c r="F20" s="111" t="s">
-        <v>802</v>
-      </c>
-      <c r="H20" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="111">
-        <v>0</v>
-      </c>
-      <c r="B21" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C21" s="111" t="s">
-        <v>801</v>
-      </c>
-      <c r="D21" s="111">
-        <v>313</v>
-      </c>
-      <c r="F21" s="111" t="s">
-        <v>802</v>
-      </c>
-      <c r="H21" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="111">
-        <v>0</v>
-      </c>
-      <c r="B22" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C22" s="111" t="s">
-        <v>794</v>
-      </c>
-      <c r="D22" s="111">
-        <v>313</v>
-      </c>
-      <c r="F22" s="111" t="s">
-        <v>798</v>
-      </c>
-      <c r="H22" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="111">
-        <v>0</v>
-      </c>
-      <c r="B23" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C23" s="111" t="s">
+      <c r="B33" s="95" t="s">
         <v>799</v>
       </c>
-      <c r="D23" s="111">
-        <v>313</v>
-      </c>
-      <c r="F23" s="111" t="s">
-        <v>804</v>
-      </c>
-      <c r="H23" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="111">
-        <v>0</v>
-      </c>
-      <c r="B24" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C24" s="111" t="s">
-        <v>801</v>
-      </c>
-      <c r="D24" s="111">
-        <v>712</v>
-      </c>
-      <c r="F24" s="111" t="s">
-        <v>802</v>
-      </c>
-      <c r="H24" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="111">
-        <v>0</v>
-      </c>
-      <c r="B25" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C25" s="111" t="s">
-        <v>794</v>
-      </c>
-      <c r="D25" s="111">
-        <v>712</v>
-      </c>
-      <c r="F25" s="111" t="s">
-        <v>798</v>
-      </c>
-      <c r="H25" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="111">
-        <v>0</v>
-      </c>
-      <c r="B26" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C26" s="111" t="s">
-        <v>799</v>
-      </c>
-      <c r="D26" s="111">
-        <v>712</v>
-      </c>
-      <c r="F26" s="111" t="s">
-        <v>804</v>
-      </c>
-      <c r="H26" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="111">
-        <v>0</v>
-      </c>
-      <c r="B27" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C27" s="111" t="s">
-        <v>794</v>
-      </c>
-      <c r="D27" s="111">
-        <v>316</v>
-      </c>
-      <c r="F27" s="111" t="s">
-        <v>798</v>
-      </c>
-      <c r="H27" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="111">
-        <v>0</v>
-      </c>
-      <c r="B28" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C28" s="111" t="s">
-        <v>799</v>
-      </c>
-      <c r="D28" s="111">
-        <v>316</v>
-      </c>
-      <c r="F28" s="121" t="s">
-        <v>805</v>
-      </c>
-      <c r="H28" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="111">
-        <v>0</v>
-      </c>
-      <c r="B29" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C29" s="111" t="s">
-        <v>801</v>
-      </c>
-      <c r="D29" s="111">
-        <v>316</v>
-      </c>
-      <c r="F29" s="111" t="s">
-        <v>802</v>
-      </c>
-      <c r="H29" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="111">
-        <v>0</v>
-      </c>
-      <c r="B30" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C30" s="111" t="s">
-        <v>801</v>
-      </c>
-      <c r="D30" s="111">
-        <v>321</v>
-      </c>
-      <c r="F30" s="111" t="s">
-        <v>802</v>
-      </c>
-      <c r="H30" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="111">
-        <v>0</v>
-      </c>
-      <c r="B31" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C31" s="111" t="s">
-        <v>794</v>
-      </c>
-      <c r="D31" s="111">
-        <v>321</v>
-      </c>
-      <c r="F31" s="111" t="s">
-        <v>798</v>
-      </c>
-      <c r="H31" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="111">
-        <v>0</v>
-      </c>
-      <c r="B32" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C32" s="111" t="s">
-        <v>799</v>
-      </c>
-      <c r="D32" s="111">
-        <v>321</v>
-      </c>
-      <c r="F32" s="111" t="s">
-        <v>804</v>
-      </c>
-      <c r="H32" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="111">
-        <v>0</v>
-      </c>
-      <c r="B33" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C33" s="111" t="s">
-        <v>799</v>
-      </c>
-      <c r="D33" s="119">
+      <c r="C33" s="95" t="s">
+        <v>795</v>
+      </c>
+      <c r="D33" s="103">
         <v>833</v>
       </c>
-      <c r="F33" s="120">
+      <c r="F33" s="104">
         <v>0.66666666666666696</v>
       </c>
-      <c r="H33" s="111" t="s">
-        <v>796</v>
+      <c r="H33" s="95" t="s">
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -15142,7 +15201,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16">
@@ -15159,7 +15218,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16">
@@ -15251,19 +15310,19 @@
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="90" t="s">
-        <v>773</v>
-      </c>
-      <c r="C24" s="91">
-        <v>1</v>
-      </c>
-      <c r="D24" s="92">
-        <v>1</v>
-      </c>
-      <c r="E24" s="90" t="s">
-        <v>774</v>
-      </c>
-      <c r="F24" s="89"/>
+      <c r="B24" s="89" t="s">
+        <v>769</v>
+      </c>
+      <c r="C24" s="90">
+        <v>1</v>
+      </c>
+      <c r="D24" s="91">
+        <v>1</v>
+      </c>
+      <c r="E24" s="89" t="s">
+        <v>770</v>
+      </c>
+      <c r="F24" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -15526,7 +15585,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -16375,7 +16434,7 @@
       </c>
       <c r="H17" s="45"/>
       <c r="I17" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="1"/>
@@ -16412,7 +16471,7 @@
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="46" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="1"/>
@@ -16449,7 +16508,7 @@
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="46" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="1"/>
@@ -16486,7 +16545,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="46" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J20" s="26"/>
       <c r="K20" s="1"/>
@@ -16523,7 +16582,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="46" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J21" s="26"/>
       <c r="K21" s="1"/>
@@ -16560,7 +16619,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="46" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="1"/>
@@ -16597,7 +16656,7 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="46" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J23" s="26"/>
     </row>
@@ -16619,7 +16678,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="46" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="J24" s="26"/>
       <c r="K24" s="1"/>
@@ -16656,7 +16715,7 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="46" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J25" s="26"/>
       <c r="K25" s="1"/>
@@ -16693,7 +16752,7 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="46" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J26" s="26"/>
       <c r="K26" s="1"/>
@@ -16730,7 +16789,7 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="46" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J27" s="26"/>
       <c r="K27" s="1"/>
@@ -16767,7 +16826,7 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="46" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="J28" s="26"/>
       <c r="K28" s="1"/>
@@ -16804,7 +16863,7 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="46" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="J29" s="26"/>
       <c r="K29" s="1"/>
@@ -16841,7 +16900,7 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="46" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="1"/>
@@ -16878,7 +16937,7 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="46" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="J31" s="26"/>
     </row>
@@ -16900,7 +16959,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="46" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="J32" s="26"/>
     </row>
@@ -16922,7 +16981,7 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="46" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J33" s="26"/>
     </row>
@@ -16944,7 +17003,7 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="46" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J34" s="26"/>
     </row>
@@ -16966,7 +17025,7 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="46" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="J35" s="26"/>
     </row>
@@ -16988,7 +17047,7 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="46" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="J36" s="26"/>
     </row>
@@ -17010,7 +17069,7 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="46" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J37" s="26"/>
     </row>
@@ -17032,7 +17091,7 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="46" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="J38" s="26"/>
     </row>
@@ -17076,7 +17135,7 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="46" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="J40" s="48"/>
     </row>
@@ -17641,7 +17700,7 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="49" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B17" s="45">
         <v>101</v>
@@ -17650,7 +17709,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -17677,7 +17736,7 @@
     </row>
     <row r="18" spans="1:26" s="46" customFormat="1">
       <c r="A18" s="50" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B18" s="45">
         <v>102</v>
@@ -17686,7 +17745,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="1"/>
@@ -17713,7 +17772,7 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="49" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B19" s="45">
         <v>103</v>
@@ -17722,7 +17781,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -17749,7 +17808,7 @@
     </row>
     <row r="20" spans="1:26" ht="16">
       <c r="A20" s="51" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B20" s="46">
         <v>104</v>
@@ -17758,7 +17817,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="1"/>
@@ -17785,7 +17844,7 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="52" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B21" s="46">
         <v>105</v>
@@ -17794,7 +17853,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="1"/>
@@ -17821,7 +17880,7 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="52" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B22" s="46">
         <v>106</v>
@@ -17830,7 +17889,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="1"/>
@@ -17857,7 +17916,7 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="52" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B23" s="46">
         <v>107</v>
@@ -17866,7 +17925,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="1"/>
@@ -17893,7 +17952,7 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="52" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B24" s="46">
         <v>108</v>
@@ -17902,7 +17961,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="1"/>
@@ -17929,7 +17988,7 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="52" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B25" s="46">
         <v>109</v>
@@ -17938,7 +17997,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="1"/>
@@ -17965,7 +18024,7 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="52" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B26" s="46">
         <v>110</v>
@@ -17974,7 +18033,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="1"/>
@@ -18001,7 +18060,7 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="52" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B27" s="46">
         <v>111</v>
@@ -18010,7 +18069,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="1"/>
@@ -18037,7 +18096,7 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="52" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B28" s="46">
         <v>112</v>
@@ -18046,7 +18105,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="1"/>
@@ -18073,7 +18132,7 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="52" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B29" s="46">
         <v>113</v>
@@ -18082,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="1"/>
@@ -18109,7 +18168,7 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="52" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B30" s="46">
         <v>114</v>
@@ -18118,7 +18177,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="1"/>
@@ -18145,7 +18204,7 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="52" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B31" s="46">
         <v>115</v>
@@ -18154,7 +18213,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="1"/>
@@ -18181,7 +18240,7 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="52" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B32" s="46">
         <v>116</v>
@@ -18190,7 +18249,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="1"/>
@@ -18217,7 +18276,7 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="52" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B33" s="46">
         <v>117</v>
@@ -18226,7 +18285,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="1"/>
@@ -18253,7 +18312,7 @@
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="52" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B34" s="46">
         <v>118</v>
@@ -18262,7 +18321,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="1"/>
@@ -18289,7 +18348,7 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="52" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B35" s="46">
         <v>119</v>
@@ -18298,7 +18357,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="1"/>
@@ -18325,7 +18384,7 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="52" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B36" s="46">
         <v>120</v>
@@ -18334,7 +18393,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="1"/>
@@ -18361,7 +18420,7 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="52" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B37" s="46">
         <v>121</v>
@@ -18370,7 +18429,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="1"/>
@@ -18397,7 +18456,7 @@
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="52" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B38" s="46">
         <v>122</v>
@@ -18406,7 +18465,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="1"/>
@@ -18442,7 +18501,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="1"/>
@@ -18478,7 +18537,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="1"/>
@@ -18609,7 +18668,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13" customHeight="1">
@@ -18617,7 +18676,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13" customHeight="1">
@@ -18641,7 +18700,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13" customHeight="1">
@@ -18673,7 +18732,7 @@
         <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13" customHeight="1">
@@ -18701,7 +18760,7 @@
         <v>292</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="13" customHeight="1">

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90990B99-2C96-C642-AA3E-0FA96A75471F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1EF5B0-6EFE-4B4B-A739-4E2C26DD22CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="820" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="820" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,10 @@
     <sheet name="CatalogEntityTags" sheetId="20" r:id="rId15"/>
     <sheet name="ProductTypesStatusTypesMapping" sheetId="13" r:id="rId16"/>
     <sheet name="GlobalSystemParameter" sheetId="14" r:id="rId17"/>
-    <sheet name="ClientCategories" sheetId="15" r:id="rId18"/>
-    <sheet name="DisclaimerTypes" sheetId="16" r:id="rId19"/>
-    <sheet name="Disclaimers" sheetId="17" r:id="rId20"/>
-    <sheet name="FeatureToggle" sheetId="24" r:id="rId21"/>
-    <sheet name="DateIntervalLimits" sheetId="25" r:id="rId22"/>
+    <sheet name="Disclaimers" sheetId="26" r:id="rId18"/>
+    <sheet name="ClientCategories" sheetId="15" r:id="rId19"/>
+    <sheet name="FeatureToggle" sheetId="24" r:id="rId20"/>
+    <sheet name="DateIntervalLimits" sheetId="25" r:id="rId21"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="806">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -1521,39 +1520,12 @@
     <t>Estate</t>
   </si>
   <si>
-    <t>Disclaimer types presented in Gemini channels</t>
-  </si>
-  <si>
-    <t>Disclaimer Types</t>
-  </si>
-  <si>
-    <t>DisclaimerTypes</t>
-  </si>
-  <si>
-    <t>DisclaimerID</t>
-  </si>
-  <si>
-    <t>DisclaimerID   </t>
-  </si>
-  <si>
-    <t>DisclaimerCode </t>
-  </si>
-  <si>
-    <t>PostLogin</t>
-  </si>
-  <si>
-    <t>Disclaimer after successfull login</t>
-  </si>
-  <si>
     <t>Disclaimers  - real disclaimers entites</t>
   </si>
   <si>
     <t>Disclaimers</t>
   </si>
   <si>
-    <t>DisclaimerID, DisclaimerVersion</t>
-  </si>
-  <si>
     <t>STATUS</t>
   </si>
   <si>
@@ -1569,12 +1541,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>ContentIBSRef</t>
-  </si>
-  <si>
-    <t>ContentMBRef</t>
-  </si>
-  <si>
     <t>01-01-2018</t>
   </si>
   <si>
@@ -2464,15 +2430,49 @@
   </si>
   <si>
     <t>23:57:00 AM</t>
+  </si>
+  <si>
+    <t>DisclaimerTypeCode, DisclaimerVersion</t>
+  </si>
+  <si>
+    <t>DisclaimerTypeCode</t>
+  </si>
+  <si>
+    <t>post-login</t>
+  </si>
+  <si>
+    <t>ver2018</t>
+  </si>
+  <si>
+    <t>31-12-2018</t>
+  </si>
+  <si>
+    <t>ver2019</t>
+  </si>
+  <si>
+    <t>01-01-2019</t>
+  </si>
+  <si>
+    <t>statements-electronic-delivery</t>
+  </si>
+  <si>
+    <t>31-12-2019</t>
+  </si>
+  <si>
+    <t>ver2020</t>
+  </si>
+  <si>
+    <t>01-01-2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2826,7 +2826,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2970,7 +2970,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3025,47 +3024,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3099,6 +3057,65 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="4" xr:uid="{345D5794-06C6-344F-8A75-BED4E4ADCEFA}"/>
@@ -3718,22 +3735,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3743,66 +3760,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="96">
+      <c r="H8" s="117">
         <v>2</v>
       </c>
-      <c r="I8" s="96"/>
+      <c r="I8" s="117"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3820,325 +3837,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="100" t="s">
+      <c r="H13" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="100"/>
+      <c r="I13" s="114"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="101" t="s">
+      <c r="H14" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="101"/>
+      <c r="I14" s="112"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="101" t="s">
+      <c r="H15" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="101"/>
+      <c r="I15" s="112"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="101" t="s">
+      <c r="H16" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="101"/>
+      <c r="I16" s="112"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="101" t="s">
+      <c r="H17" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="101"/>
+      <c r="I17" s="112"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="101" t="s">
+      <c r="H18" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="101"/>
+      <c r="I18" s="112"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="101" t="s">
+      <c r="H19" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="101"/>
+      <c r="I19" s="112"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="101" t="s">
+      <c r="H20" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="101"/>
+      <c r="I20" s="112"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="101" t="s">
+      <c r="H21" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="101"/>
+      <c r="I21" s="112"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="101" t="s">
+      <c r="H22" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="101"/>
+      <c r="I22" s="112"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="101" t="s">
+      <c r="H23" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="101"/>
+      <c r="I23" s="112"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="101" t="s">
+      <c r="H24" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="101"/>
+      <c r="I24" s="112"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="103" t="s">
+      <c r="C25" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="103" t="s">
+      <c r="H25" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="103"/>
+      <c r="I25" s="109"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="103" t="s">
+      <c r="H26" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="103"/>
+      <c r="I26" s="109"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="103" t="s">
+      <c r="C27" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="103" t="s">
+      <c r="H27" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="103"/>
+      <c r="I27" s="109"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="103" t="s">
+      <c r="C28" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="103" t="s">
+      <c r="H28" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="103"/>
+      <c r="I28" s="109"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="103" t="s">
+      <c r="C29" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="103" t="s">
+      <c r="H29" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="103"/>
+      <c r="I29" s="109"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4151,202 +4168,202 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="103" t="s">
+      <c r="C31" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="103" t="s">
+      <c r="H31" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="103"/>
+      <c r="I31" s="109"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="104" t="s">
+      <c r="C32" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="103" t="s">
+      <c r="H32" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="103"/>
+      <c r="I32" s="109"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="105" t="s">
+      <c r="C33" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="105" t="s">
+      <c r="H33" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="105"/>
+      <c r="I33" s="110"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="105" t="s">
+      <c r="C34" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="105" t="s">
+      <c r="H34" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="105"/>
+      <c r="I34" s="110"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="106" t="s">
-        <v>511</v>
-      </c>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
+      <c r="C35" s="107" t="s">
+        <v>500</v>
+      </c>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="103" t="s">
+      <c r="H35" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="103"/>
+      <c r="I35" s="109"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="109"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="109"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
@@ -4355,8 +4372,8 @@
       <c r="E47" s="108"/>
       <c r="F47" s="108"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
@@ -4366,8 +4383,8 @@
       <c r="E48" s="108"/>
       <c r="F48" s="108"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="103"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="109"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
@@ -4377,8 +4394,8 @@
       <c r="E49" s="108"/>
       <c r="F49" s="108"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
@@ -4388,176 +4405,275 @@
       <c r="E50" s="108"/>
       <c r="F50" s="108"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="109"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="107"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="107"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="106"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="107"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="106"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="106"/>
-      <c r="I52" s="106"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="107"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="107"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="106"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="106"/>
-      <c r="I54" s="106"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="107"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="107"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="107"/>
-      <c r="F56" s="107"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="106"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="107"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="107"/>
-      <c r="F57" s="107"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="106"/>
-      <c r="I57" s="106"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="107"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="107"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="106"/>
-      <c r="I58" s="106"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="107"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="107"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="106"/>
-      <c r="I59" s="106"/>
+      <c r="H59" s="107"/>
+      <c r="I59" s="107"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="107"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="107"/>
-      <c r="F60" s="107"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="107"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="106"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="106"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="107"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="107"/>
-      <c r="I62" s="107"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="106"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="107"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
+      <c r="C63" s="106"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="106"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
+      <c r="H63" s="106"/>
+      <c r="I63" s="106"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="107"/>
-      <c r="D64" s="107"/>
-      <c r="E64" s="107"/>
-      <c r="F64" s="107"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="106"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="107"/>
+      <c r="H64" s="106"/>
+      <c r="I64" s="106"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="107"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="106"/>
+      <c r="F65" s="106"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="107"/>
+      <c r="H65" s="106"/>
+      <c r="I65" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4574,105 +4690,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4700,7 +4717,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -4710,7 +4727,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -4740,7 +4757,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -4782,7 +4799,7 @@
         <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -4792,7 +4809,7 @@
         <v>293</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -4819,32 +4836,32 @@
     </row>
     <row r="14" spans="1:5" ht="13" customHeight="1">
       <c r="A14" s="29" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>347</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13" customHeight="1">
       <c r="A15" s="29"/>
       <c r="B15" s="29" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="30" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13" customHeight="1">
@@ -4858,7 +4875,7 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="77">
+      <c r="B17" s="76">
         <v>833</v>
       </c>
       <c r="C17" s="22">
@@ -4868,7 +4885,7 @@
         <v>2500</v>
       </c>
       <c r="E17" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -5026,7 +5043,7 @@
         <v>101</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5040,7 +5057,7 @@
         <v>102</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
@@ -5056,7 +5073,7 @@
         <v>103</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -5070,7 +5087,7 @@
         <v>104</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
@@ -5084,7 +5101,7 @@
         <v>105</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
@@ -5098,7 +5115,7 @@
         <v>106</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
@@ -5112,7 +5129,7 @@
         <v>107</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
@@ -5126,7 +5143,7 @@
         <v>108</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
@@ -5140,7 +5157,7 @@
         <v>109</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
@@ -5154,7 +5171,7 @@
         <v>110</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
@@ -5168,7 +5185,7 @@
         <v>111</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
@@ -5182,7 +5199,7 @@
         <v>112</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
@@ -5196,7 +5213,7 @@
         <v>113</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
@@ -5210,7 +5227,7 @@
         <v>114</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
@@ -5224,7 +5241,7 @@
         <v>115</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
@@ -5238,7 +5255,7 @@
         <v>116</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
@@ -5252,7 +5269,7 @@
         <v>117</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
@@ -5266,7 +5283,7 @@
         <v>118</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
@@ -5280,7 +5297,7 @@
         <v>119</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
@@ -5294,7 +5311,7 @@
         <v>120</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
@@ -5308,7 +5325,7 @@
         <v>121</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
@@ -5322,7 +5339,7 @@
         <v>122</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
@@ -5350,7 +5367,7 @@
         <v>124</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
@@ -5892,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5926,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5960,7 +5977,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5994,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -6028,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -6062,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -6096,7 +6113,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -6130,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -6164,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -6198,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -6232,7 +6249,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -6266,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -6300,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -6334,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -6368,7 +6385,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -6402,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -6436,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -6470,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -6504,7 +6521,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -6538,7 +6555,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -6572,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -6606,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -6640,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -6674,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -6708,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -6742,7 +6759,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -6776,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -6810,7 +6827,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="53" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -6844,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -6878,7 +6895,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="53" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -6912,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
     </row>
     <row r="48" spans="1:26">
@@ -6923,7 +6940,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6934,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6945,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="53" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -6956,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="53" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -6967,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="53" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -6978,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="53" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -6989,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="53" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7000,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="53" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7011,7 +7028,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="53" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7022,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -7033,7 +7050,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7044,7 +7061,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7055,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -7066,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -7077,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -7088,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -7099,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -7110,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -7121,7 +7138,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -7132,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7143,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7154,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7165,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7176,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7187,7 +7204,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7198,7 +7215,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -7209,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7220,7 +7237,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -7231,7 +7248,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -7242,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -7253,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7264,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -7275,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -7286,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -7297,7 +7314,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -7308,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -7319,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -7330,7 +7347,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -7341,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -7352,7 +7369,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -7363,7 +7380,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -7374,7 +7391,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -7385,7 +7402,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -7396,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -7407,7 +7424,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -7418,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -7429,7 +7446,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -7440,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -7687,7 +7704,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -7701,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -7715,7 +7732,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -7729,7 +7746,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -7743,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -7757,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -7771,7 +7788,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -7785,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -7799,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -7813,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -7827,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -7841,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -7855,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -7869,7 +7886,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -7883,7 +7900,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -7897,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -7911,7 +7928,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -7925,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -7939,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1">
@@ -7950,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1">
@@ -7961,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1">
@@ -7972,7 +7989,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1">
@@ -7994,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
@@ -8343,14 +8360,14 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="54"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="53" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -8367,14 +8384,14 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="54"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="53" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="L18" s="1"/>
     </row>
@@ -8391,14 +8408,14 @@
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="54"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="53" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -8415,14 +8432,14 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="54"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="53" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="L20" s="1"/>
     </row>
@@ -8439,14 +8456,14 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="54"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="53" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -8463,14 +8480,14 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="54"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="53" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="L22" s="1"/>
     </row>
@@ -8487,14 +8504,14 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="54"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="53" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="L23" s="1"/>
     </row>
@@ -8511,14 +8528,14 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="54"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="53" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -8535,14 +8552,14 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="54"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="53" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -8559,14 +8576,14 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="54"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="53" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="L26" s="1"/>
     </row>
@@ -8583,14 +8600,14 @@
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="54"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="53" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -8607,14 +8624,14 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="53" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="L28" s="1"/>
     </row>
@@ -8631,14 +8648,14 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="53" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="L29" s="1"/>
     </row>
@@ -8655,14 +8672,14 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="53" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="L30" s="1"/>
     </row>
@@ -8679,14 +8696,14 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="53" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="L31" s="1"/>
     </row>
@@ -8703,14 +8720,14 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="53" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="L32" s="1"/>
     </row>
@@ -8727,14 +8744,14 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="53" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="L33" s="1"/>
     </row>
@@ -8751,14 +8768,14 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="53" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="L34" s="1"/>
     </row>
@@ -8775,14 +8792,14 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="53" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="L35" s="1"/>
     </row>
@@ -8799,14 +8816,14 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="53" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="L36" s="1"/>
     </row>
@@ -8823,14 +8840,14 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="53" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="L37" s="1"/>
     </row>
@@ -8847,14 +8864,14 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="53" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="L38" s="1"/>
     </row>
@@ -8871,14 +8888,14 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="53" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="L39" s="1"/>
     </row>
@@ -8895,14 +8912,14 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="53" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="L40" s="1"/>
     </row>
@@ -8919,14 +8936,14 @@
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="53" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="L41" s="1"/>
     </row>
@@ -8943,14 +8960,14 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="53" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -8967,14 +8984,14 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="53" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="L43" s="1"/>
     </row>
@@ -8991,14 +9008,14 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="53" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="L44" s="1"/>
     </row>
@@ -9015,14 +9032,14 @@
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="53" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="L45" s="1"/>
     </row>
@@ -9037,10 +9054,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="55" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="K46" s="53" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -9056,14 +9073,14 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="53" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="L47" s="1"/>
     </row>
@@ -9080,14 +9097,14 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="53" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="L48" s="1"/>
     </row>
@@ -9104,14 +9121,14 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="53" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="L49" s="1"/>
     </row>
@@ -9126,10 +9143,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="K50" s="53" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -9143,10 +9160,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="K51" s="53" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -9160,10 +9177,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="K52" s="53" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -9177,10 +9194,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="K53" s="53" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -9194,10 +9211,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="K54" s="53" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -9211,10 +9228,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="K55" s="53" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -9228,10 +9245,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="K56" s="53" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -9245,10 +9262,10 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="K57" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -9262,10 +9279,10 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="K58" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -9279,10 +9296,10 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="K59" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -9296,10 +9313,10 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="K60" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -9313,10 +9330,10 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="K61" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -9330,10 +9347,10 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="K62" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -9347,10 +9364,10 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="K63" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -9364,10 +9381,10 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="K64" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -9381,10 +9398,10 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="K65" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -9398,10 +9415,10 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="K66" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -9415,10 +9432,10 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="K67" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -9432,10 +9449,10 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="K68" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -9449,10 +9466,10 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="K69" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -9466,10 +9483,10 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="K70" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -9483,10 +9500,10 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="K71" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -9500,10 +9517,10 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="K72" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -9517,10 +9534,10 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="K73" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -9534,10 +9551,10 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="K74" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -9551,10 +9568,10 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="K75" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -9568,10 +9585,10 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="K76" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -9585,10 +9602,10 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="K77" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -9602,10 +9619,10 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="K78" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -9619,10 +9636,10 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="K79" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -9636,10 +9653,10 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="K80" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -9653,27 +9670,27 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="K81" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="88" customFormat="1">
-      <c r="A82" s="88">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="87" customFormat="1">
+      <c r="A82" s="87">
         <v>166</v>
       </c>
-      <c r="C82" s="88" t="s">
+      <c r="C82" s="87" t="s">
         <v>393</v>
       </c>
-      <c r="E82" s="88">
-        <v>1</v>
-      </c>
-      <c r="F82" s="88" t="s">
-        <v>712</v>
-      </c>
-      <c r="K82" s="88" t="s">
-        <v>627</v>
+      <c r="E82" s="87">
+        <v>1</v>
+      </c>
+      <c r="F82" s="87" t="s">
+        <v>701</v>
+      </c>
+      <c r="K82" s="87" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -9687,10 +9704,10 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="K83" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -9704,10 +9721,10 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="K84" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -9721,10 +9738,10 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="K85" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -9738,10 +9755,10 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="K86" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -9755,10 +9772,10 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="K87" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -9772,10 +9789,10 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="K88" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -9789,10 +9806,10 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="K89" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -9806,10 +9823,10 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="K90" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -9823,10 +9840,10 @@
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="K91" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -9840,10 +9857,10 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="K92" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -9857,10 +9874,10 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="K93" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -9874,10 +9891,10 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="K94" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -9885,7 +9902,7 @@
         <v>64</v>
       </c>
       <c r="C95" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -9894,7 +9911,7 @@
         <v>394</v>
       </c>
       <c r="K95" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -9902,7 +9919,7 @@
         <v>179</v>
       </c>
       <c r="C96" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -9919,7 +9936,7 @@
         <v>180</v>
       </c>
       <c r="C97" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -9936,7 +9953,7 @@
         <v>181</v>
       </c>
       <c r="C98" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -9969,23 +9986,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="96">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>278</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>280</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="72" t="s">
         <v>281</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -9993,7 +10010,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="48">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="72" t="s">
         <v>283</v>
       </c>
       <c r="B4" s="38" t="s">
@@ -10001,50 +10018,50 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="32">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="72" t="s">
         <v>285</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="72" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="22"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="72" t="s">
         <v>287</v>
       </c>
       <c r="B7" s="22"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="72" t="s">
         <v>289</v>
       </c>
       <c r="B8" s="22"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="72" t="s">
         <v>290</v>
       </c>
       <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:3" ht="64">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="72" t="s">
         <v>291</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16">
       <c r="A11" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="65" t="s">
         <v>374</v>
       </c>
     </row>
@@ -10052,110 +10069,110 @@
       <c r="A12" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="67"/>
+      <c r="B12" s="66"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="67"/>
+      <c r="B13" s="66"/>
     </row>
     <row r="14" spans="1:3" ht="32">
-      <c r="A14" s="69" t="s">
-        <v>739</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>738</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>737</v>
+      <c r="A14" s="68" t="s">
+        <v>728</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>727</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="B17" s="74">
+      <c r="B17" s="73">
         <v>166</v>
       </c>
-      <c r="C17" s="74" t="s">
-        <v>771</v>
+      <c r="C17" s="73" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="74">
+      <c r="B18" s="73">
         <v>171</v>
       </c>
-      <c r="C18" s="74" t="s">
-        <v>771</v>
+      <c r="C18" s="73" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="74">
+      <c r="B19" s="73">
         <v>173</v>
       </c>
-      <c r="C19" s="74" t="s">
-        <v>771</v>
+      <c r="C19" s="73" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="74">
+      <c r="B20" s="73">
         <v>174</v>
       </c>
-      <c r="C20" s="74" t="s">
-        <v>771</v>
+      <c r="C20" s="73" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="B21" s="74">
+      <c r="B21" s="73">
         <v>175</v>
       </c>
-      <c r="C21" s="74" t="s">
-        <v>771</v>
+      <c r="C21" s="73" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="B22" s="74">
+      <c r="B22" s="73">
         <v>176</v>
       </c>
-      <c r="C22" s="74" t="s">
-        <v>771</v>
+      <c r="C22" s="73" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="74">
+      <c r="B23" s="73">
         <v>177</v>
       </c>
-      <c r="C23" s="74" t="s">
-        <v>771</v>
+      <c r="C23" s="73" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -11343,7 +11360,7 @@
         <v>414</v>
       </c>
       <c r="B18" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="D18" s="57">
         <v>1</v>
@@ -11526,7 +11543,7 @@
         <v>432</v>
       </c>
       <c r="B27" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="D27" s="57">
         <v>1</v>
@@ -11569,7 +11586,7 @@
         <v>436</v>
       </c>
       <c r="B29" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="D29" s="57">
         <v>1</v>
@@ -11609,7 +11626,7 @@
         <v>439</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="D31" s="57">
         <v>1</v>
@@ -11632,7 +11649,7 @@
         <v>441</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D32" s="57">
         <v>1</v>
@@ -11655,7 +11672,7 @@
         <v>443</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D33" s="57">
         <v>1</v>
@@ -11678,7 +11695,7 @@
         <v>445</v>
       </c>
       <c r="B34" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="D34" s="57">
         <v>1</v>
@@ -11715,7 +11732,7 @@
         <v>447</v>
       </c>
       <c r="B36" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="D36" s="57">
         <v>1</v>
@@ -11755,7 +11772,7 @@
         <v>449</v>
       </c>
       <c r="B38" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="D38" s="57">
         <v>1</v>
@@ -11775,7 +11792,7 @@
         <v>450</v>
       </c>
       <c r="B39" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="D39" s="57">
         <v>1</v>
@@ -11838,7 +11855,7 @@
         <v>455</v>
       </c>
       <c r="B42" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="D42" s="57">
         <v>1</v>
@@ -11966,10 +11983,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="26" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="B48" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="D48" s="57">
         <v>1</v>
@@ -11984,12 +12001,12 @@
         <v>1</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="B49">
         <v>40.2301</v>
@@ -12007,12 +12024,12 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="B50">
         <v>74.915499999999994</v>
@@ -12030,15 +12047,15 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18">
-      <c r="A51" s="93" t="s">
-        <v>776</v>
+      <c r="A51" s="92" t="s">
+        <v>765</v>
       </c>
       <c r="B51" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="D51" s="57">
         <v>1</v>
@@ -12052,8 +12069,8 @@
       <c r="G51" s="57">
         <v>1</v>
       </c>
-      <c r="H51" s="87" t="s">
-        <v>777</v>
+      <c r="H51" s="86" t="s">
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -12063,6 +12080,283 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482A250D-1B80-8646-9883-5EADF94686E3}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="1023" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="121" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="122" t="s">
+        <v>492</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="123" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="82" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="123" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+    </row>
+    <row r="5" spans="1:5" ht="16">
+      <c r="A5" s="82" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="123" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="82" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="82" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="82" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="82" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" s="82" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>795</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="82" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="121"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="82" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="125"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="125" t="s">
+        <v>493</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="126" t="s">
+        <v>796</v>
+      </c>
+      <c r="B14" s="126" t="s">
+        <v>494</v>
+      </c>
+      <c r="C14" s="127" t="s">
+        <v>495</v>
+      </c>
+      <c r="D14" s="127" t="s">
+        <v>496</v>
+      </c>
+      <c r="E14" s="126" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="126"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="126"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="60" t="s">
+        <v>797</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>798</v>
+      </c>
+      <c r="C17" s="128" t="s">
+        <v>498</v>
+      </c>
+      <c r="D17" s="128" t="s">
+        <v>799</v>
+      </c>
+      <c r="E17" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="60" t="s">
+        <v>797</v>
+      </c>
+      <c r="B18" t="s">
+        <v>800</v>
+      </c>
+      <c r="C18" s="128" t="s">
+        <v>801</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>802</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>800</v>
+      </c>
+      <c r="C19" s="128" t="s">
+        <v>801</v>
+      </c>
+      <c r="D19" s="128" t="s">
+        <v>803</v>
+      </c>
+      <c r="E19" s="60">
+        <v>1</v>
+      </c>
+      <c r="G19" s="129"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>802</v>
+      </c>
+      <c r="B20" t="s">
+        <v>804</v>
+      </c>
+      <c r="C20" s="128" t="s">
+        <v>805</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="C21" s="130"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="130"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="C23" s="130"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" s="130"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="C25" s="130"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="C26" s="130"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" s="130"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="C28" s="130"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" s="130"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" s="130"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" s="130"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" s="130"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="130"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -12492,202 +12786,32 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="75">
+      <c r="A29" s="74">
         <v>13</v>
       </c>
-      <c r="B29" s="76" t="s">
-        <v>747</v>
+      <c r="B29" s="75" t="s">
+        <v>736</v>
       </c>
       <c r="C29" s="63">
         <v>1</v>
       </c>
-      <c r="D29" s="75">
-        <v>1</v>
-      </c>
-      <c r="E29" s="75"/>
+      <c r="D29" s="74">
+        <v>1</v>
+      </c>
+      <c r="E29" s="74"/>
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" s="76" t="s">
-        <v>748</v>
+      <c r="G29" s="75" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="75"/>
+      <c r="A30" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.5"/>
-    <col min="2" max="2" width="40.5"/>
-    <col min="3" max="3" width="12.83203125"/>
-    <col min="4" max="4" width="33"/>
-    <col min="5" max="1025" width="8.33203125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16">
-      <c r="A1" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>491</v>
-      </c>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>492</v>
-      </c>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="1:4" ht="16">
-      <c r="A3" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" ht="16">
-      <c r="A4" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:4" ht="16">
-      <c r="A5" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:4" ht="16">
-      <c r="A10" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>494</v>
-      </c>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:4" ht="16">
-      <c r="A14" s="30" t="s">
-        <v>495</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="60">
-        <v>1</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="C17" s="60">
-        <v>1</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>498</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -12779,219 +12903,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.5"/>
-    <col min="2" max="2" width="35.83203125"/>
-    <col min="3" max="3" width="17.83203125"/>
-    <col min="4" max="4" width="13.5"/>
-    <col min="5" max="5" width="12.83203125"/>
-    <col min="6" max="7" width="17"/>
-    <col min="8" max="1025" width="8.33203125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>499</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>500</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:7" ht="16">
-      <c r="A3" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" ht="16">
-      <c r="A4" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" ht="16">
-      <c r="A5" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="F5" s="24"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" ht="16">
-      <c r="A10" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>501</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>502</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" ht="16">
-      <c r="A14" s="30" t="s">
-        <v>495</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>503</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>504</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>506</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>507</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="60">
-        <v>1</v>
-      </c>
-      <c r="B17" s="64">
-        <v>1</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>509</v>
-      </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="60">
-        <v>1</v>
-      </c>
-      <c r="F17" s="26"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D94DE1-7D84-A341-BE73-C0E2285BF343}">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -13001,247 +12912,247 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="79" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="79" customWidth="1"/>
-    <col min="3" max="3" width="19" style="79" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="79" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="79" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="79" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" style="79" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="79" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="79" customWidth="1"/>
-    <col min="10" max="1025" width="8.6640625" style="79" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="79"/>
+    <col min="1" max="1" width="26.83203125" style="78" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="78" customWidth="1"/>
+    <col min="3" max="3" width="19" style="78" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="78" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="78" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="78" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="78" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="78" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="78" customWidth="1"/>
+    <col min="10" max="1025" width="8.6640625" style="78" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="79" t="s">
-        <v>760</v>
-      </c>
-      <c r="I1" s="80"/>
+      <c r="B1" s="78" t="s">
+        <v>749</v>
+      </c>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" ht="16">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="80" t="s">
-        <v>760</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
+      <c r="B2" s="79" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:9" ht="16">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="80" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="1:9" ht="16">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="80" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
     </row>
     <row r="5" spans="1:9" ht="16">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="81" t="s">
-        <v>761</v>
-      </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
+      <c r="B5" s="80" t="s">
+        <v>750</v>
+      </c>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="77" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="82"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="81"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="77" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
     </row>
     <row r="10" spans="1:9" ht="16">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="B10" s="82" t="s">
-        <v>762</v>
-      </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
+      <c r="B10" s="81" t="s">
+        <v>751</v>
+      </c>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="82" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="82" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="84" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="86" t="s">
-        <v>762</v>
-      </c>
-      <c r="B14" s="86" t="s">
-        <v>763</v>
-      </c>
-      <c r="C14" s="86" t="s">
+      <c r="A14" s="85" t="s">
+        <v>751</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>752</v>
+      </c>
+      <c r="C14" s="85" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86" t="s">
-        <v>764</v>
-      </c>
-      <c r="C15" s="86" t="s">
-        <v>765</v>
+      <c r="A15" s="85"/>
+      <c r="B15" s="85" t="s">
+        <v>753</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="86" t="s">
+        <v>758</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>757</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="78" t="s">
+        <v>755</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>757</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18">
+      <c r="A18" s="86" t="s">
+        <v>768</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>757</v>
+      </c>
+      <c r="C18" s="86" t="s">
         <v>769</v>
-      </c>
-      <c r="B16" s="79" t="s">
-        <v>768</v>
-      </c>
-      <c r="C16" s="79" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="79" t="s">
-        <v>766</v>
-      </c>
-      <c r="B17" s="79" t="s">
-        <v>768</v>
-      </c>
-      <c r="C17" s="79" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18">
-      <c r="A18" s="87" t="s">
-        <v>779</v>
-      </c>
-      <c r="B18" s="79" t="s">
-        <v>768</v>
-      </c>
-      <c r="C18" s="87" t="s">
-        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -13250,530 +13161,530 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F738335-AC28-1C46-8CB9-3FD930928117}">
   <dimension ref="A1:AMK33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="111" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="111" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="111" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="119" customWidth="1"/>
-    <col min="5" max="5" width="10" style="111" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="111" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="111" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="111" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" style="111" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="111" customWidth="1"/>
-    <col min="11" max="1025" width="7" style="111" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="119"/>
+    <col min="1" max="1" width="22.33203125" style="95" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="95" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="95" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="103" customWidth="1"/>
+    <col min="5" max="5" width="10" style="95" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="95" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="95" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="95" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="95" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="95" customWidth="1"/>
+    <col min="11" max="1025" width="7" style="95" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="103"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="94" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1" s="96"/>
+    </row>
+    <row r="2" spans="1:11" ht="16">
+      <c r="A2" s="93" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="97" t="s">
+        <v>771</v>
+      </c>
+      <c r="D2" s="96"/>
+    </row>
+    <row r="3" spans="1:11" ht="16">
+      <c r="A3" s="93" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="99"/>
+    </row>
+    <row r="4" spans="1:11" ht="16">
+      <c r="A4" s="93" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="99"/>
+    </row>
+    <row r="5" spans="1:11" ht="16">
+      <c r="A5" s="93" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>771</v>
+      </c>
+      <c r="D5" s="96"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="93" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="97"/>
+      <c r="D6" s="96"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="93" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="97"/>
+      <c r="D7" s="96"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="93" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="97"/>
+      <c r="D8" s="96"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="93" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="97"/>
+      <c r="D9" s="96"/>
+    </row>
+    <row r="10" spans="1:11" ht="16">
+      <c r="A10" s="93" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>772</v>
+      </c>
+      <c r="D10" s="96"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="100" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="96"/>
+      <c r="D11" s="96"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="100" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="101"/>
+      <c r="D12" s="96"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="100" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="101"/>
+      <c r="D13" s="96"/>
+    </row>
+    <row r="14" spans="1:11" ht="16">
+      <c r="A14" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>773</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>774</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>775</v>
+      </c>
+      <c r="E14" s="102" t="s">
+        <v>776</v>
+      </c>
+      <c r="F14" s="102" t="s">
+        <v>777</v>
+      </c>
+      <c r="G14" s="102" t="s">
+        <v>778</v>
+      </c>
+      <c r="H14" s="102" t="s">
+        <v>779</v>
+      </c>
+      <c r="I14" s="102" t="s">
+        <v>780</v>
+      </c>
+      <c r="J14" s="102" t="s">
         <v>781</v>
       </c>
-      <c r="D1" s="112"/>
-    </row>
-    <row r="2" spans="1:11" ht="16">
-      <c r="A2" s="109" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="113" t="s">
+      <c r="K14" s="102"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1">
+      <c r="A17" s="95">
+        <v>0</v>
+      </c>
+      <c r="B17" s="95" t="s">
         <v>782</v>
       </c>
-      <c r="D2" s="112"/>
-    </row>
-    <row r="3" spans="1:11" ht="16">
-      <c r="A3" s="109" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="114" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="115"/>
-    </row>
-    <row r="4" spans="1:11" ht="16">
-      <c r="A4" s="109" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="114" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="115"/>
-    </row>
-    <row r="5" spans="1:11" ht="16">
-      <c r="A5" s="109" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="113" t="s">
-        <v>782</v>
-      </c>
-      <c r="D5" s="112"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="109" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="113"/>
-      <c r="D6" s="112"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="109" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="113"/>
-      <c r="D7" s="112"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="109" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="113"/>
-      <c r="D8" s="112"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="113"/>
-      <c r="D9" s="112"/>
-    </row>
-    <row r="10" spans="1:11" ht="16">
-      <c r="A10" s="109" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" s="113" t="s">
+      <c r="C17" s="95" t="s">
         <v>783</v>
       </c>
-      <c r="D10" s="112"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="116" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="112"/>
-      <c r="D11" s="112"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="116" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="117"/>
-      <c r="D12" s="112"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="116" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="117"/>
-      <c r="D13" s="112"/>
-    </row>
-    <row r="14" spans="1:11" ht="16">
-      <c r="A14" s="118" t="s">
-        <v>350</v>
-      </c>
-      <c r="B14" s="118" t="s">
+      <c r="D17" s="95">
+        <v>371</v>
+      </c>
+      <c r="F17" s="95" t="s">
         <v>784</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="H17" s="95" t="s">
         <v>785</v>
       </c>
-      <c r="D14" s="118" t="s">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="95">
+        <v>0</v>
+      </c>
+      <c r="B18" s="95" t="s">
         <v>786</v>
       </c>
-      <c r="E14" s="118" t="s">
+      <c r="C18" s="95" t="s">
+        <v>783</v>
+      </c>
+      <c r="D18" s="95">
+        <v>371</v>
+      </c>
+      <c r="F18" s="95" t="s">
         <v>787</v>
       </c>
-      <c r="F14" s="118" t="s">
+      <c r="H18" s="95" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="95">
+        <v>0</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>786</v>
+      </c>
+      <c r="C19" s="95" t="s">
         <v>788</v>
       </c>
-      <c r="G14" s="118" t="s">
+      <c r="D19" s="95">
+        <v>371</v>
+      </c>
+      <c r="F19" s="95" t="s">
         <v>789</v>
       </c>
-      <c r="H14" s="118" t="s">
+      <c r="H19" s="95" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="95">
+        <v>0</v>
+      </c>
+      <c r="B20" s="95" t="s">
+        <v>786</v>
+      </c>
+      <c r="C20" s="95" t="s">
         <v>790</v>
       </c>
-      <c r="I14" s="118" t="s">
+      <c r="D20" s="95">
+        <v>371</v>
+      </c>
+      <c r="F20" s="95" t="s">
         <v>791</v>
       </c>
-      <c r="J14" s="118" t="s">
+      <c r="H20" s="95" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="95">
+        <v>0</v>
+      </c>
+      <c r="B21" s="95" t="s">
         <v>792</v>
       </c>
-      <c r="K14" s="118"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="118"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="118"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1">
-      <c r="A17" s="111">
+      <c r="C21" s="95" t="s">
+        <v>790</v>
+      </c>
+      <c r="D21" s="95">
+        <v>313</v>
+      </c>
+      <c r="F21" s="95" t="s">
+        <v>791</v>
+      </c>
+      <c r="H21" s="95" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="95">
         <v>0</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B22" s="95" t="s">
+        <v>792</v>
+      </c>
+      <c r="C22" s="95" t="s">
+        <v>783</v>
+      </c>
+      <c r="D22" s="95">
+        <v>313</v>
+      </c>
+      <c r="F22" s="95" t="s">
+        <v>787</v>
+      </c>
+      <c r="H22" s="95" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="95">
+        <v>0</v>
+      </c>
+      <c r="B23" s="95" t="s">
+        <v>792</v>
+      </c>
+      <c r="C23" s="95" t="s">
+        <v>788</v>
+      </c>
+      <c r="D23" s="95">
+        <v>313</v>
+      </c>
+      <c r="F23" s="95" t="s">
         <v>793</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="H23" s="95" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="95">
+        <v>0</v>
+      </c>
+      <c r="B24" s="95" t="s">
+        <v>792</v>
+      </c>
+      <c r="C24" s="95" t="s">
+        <v>790</v>
+      </c>
+      <c r="D24" s="95">
+        <v>712</v>
+      </c>
+      <c r="F24" s="95" t="s">
+        <v>791</v>
+      </c>
+      <c r="H24" s="95" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="95">
+        <v>0</v>
+      </c>
+      <c r="B25" s="95" t="s">
+        <v>792</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>783</v>
+      </c>
+      <c r="D25" s="95">
+        <v>712</v>
+      </c>
+      <c r="F25" s="95" t="s">
+        <v>787</v>
+      </c>
+      <c r="H25" s="95" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="95">
+        <v>0</v>
+      </c>
+      <c r="B26" s="95" t="s">
+        <v>792</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>788</v>
+      </c>
+      <c r="D26" s="95">
+        <v>712</v>
+      </c>
+      <c r="F26" s="95" t="s">
+        <v>793</v>
+      </c>
+      <c r="H26" s="95" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="95">
+        <v>0</v>
+      </c>
+      <c r="B27" s="95" t="s">
+        <v>792</v>
+      </c>
+      <c r="C27" s="95" t="s">
+        <v>783</v>
+      </c>
+      <c r="D27" s="95">
+        <v>316</v>
+      </c>
+      <c r="F27" s="95" t="s">
+        <v>787</v>
+      </c>
+      <c r="H27" s="95" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="95">
+        <v>0</v>
+      </c>
+      <c r="B28" s="95" t="s">
+        <v>792</v>
+      </c>
+      <c r="C28" s="95" t="s">
+        <v>788</v>
+      </c>
+      <c r="D28" s="95">
+        <v>316</v>
+      </c>
+      <c r="F28" s="105" t="s">
         <v>794</v>
       </c>
-      <c r="D17" s="111">
-        <v>371</v>
-      </c>
-      <c r="F17" s="111" t="s">
-        <v>795</v>
-      </c>
-      <c r="H17" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="111">
+      <c r="H28" s="95" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="95">
         <v>0</v>
       </c>
-      <c r="B18" s="111" t="s">
-        <v>797</v>
-      </c>
-      <c r="C18" s="111" t="s">
-        <v>794</v>
-      </c>
-      <c r="D18" s="111">
-        <v>371</v>
-      </c>
-      <c r="F18" s="111" t="s">
-        <v>798</v>
-      </c>
-      <c r="H18" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="111">
+      <c r="B29" s="95" t="s">
+        <v>792</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>790</v>
+      </c>
+      <c r="D29" s="95">
+        <v>316</v>
+      </c>
+      <c r="F29" s="95" t="s">
+        <v>791</v>
+      </c>
+      <c r="H29" s="95" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="95">
         <v>0</v>
       </c>
-      <c r="B19" s="111" t="s">
-        <v>797</v>
-      </c>
-      <c r="C19" s="111" t="s">
-        <v>799</v>
-      </c>
-      <c r="D19" s="111">
-        <v>371</v>
-      </c>
-      <c r="F19" s="111" t="s">
-        <v>800</v>
-      </c>
-      <c r="H19" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="111">
+      <c r="B30" s="95" t="s">
+        <v>792</v>
+      </c>
+      <c r="C30" s="95" t="s">
+        <v>790</v>
+      </c>
+      <c r="D30" s="95">
+        <v>321</v>
+      </c>
+      <c r="F30" s="95" t="s">
+        <v>791</v>
+      </c>
+      <c r="H30" s="95" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="95">
         <v>0</v>
       </c>
-      <c r="B20" s="111" t="s">
-        <v>797</v>
-      </c>
-      <c r="C20" s="111" t="s">
-        <v>801</v>
-      </c>
-      <c r="D20" s="111">
-        <v>371</v>
-      </c>
-      <c r="F20" s="111" t="s">
-        <v>802</v>
-      </c>
-      <c r="H20" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="111">
+      <c r="B31" s="95" t="s">
+        <v>792</v>
+      </c>
+      <c r="C31" s="95" t="s">
+        <v>783</v>
+      </c>
+      <c r="D31" s="95">
+        <v>321</v>
+      </c>
+      <c r="F31" s="95" t="s">
+        <v>787</v>
+      </c>
+      <c r="H31" s="95" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="95">
         <v>0</v>
       </c>
-      <c r="B21" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C21" s="111" t="s">
-        <v>801</v>
-      </c>
-      <c r="D21" s="111">
-        <v>313</v>
-      </c>
-      <c r="F21" s="111" t="s">
-        <v>802</v>
-      </c>
-      <c r="H21" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="111">
+      <c r="B32" s="95" t="s">
+        <v>792</v>
+      </c>
+      <c r="C32" s="95" t="s">
+        <v>788</v>
+      </c>
+      <c r="D32" s="95">
+        <v>321</v>
+      </c>
+      <c r="F32" s="95" t="s">
+        <v>793</v>
+      </c>
+      <c r="H32" s="95" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="95">
         <v>0</v>
       </c>
-      <c r="B22" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C22" s="111" t="s">
-        <v>794</v>
-      </c>
-      <c r="D22" s="111">
-        <v>313</v>
-      </c>
-      <c r="F22" s="111" t="s">
-        <v>798</v>
-      </c>
-      <c r="H22" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="111">
-        <v>0</v>
-      </c>
-      <c r="B23" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C23" s="111" t="s">
-        <v>799</v>
-      </c>
-      <c r="D23" s="111">
-        <v>313</v>
-      </c>
-      <c r="F23" s="111" t="s">
-        <v>804</v>
-      </c>
-      <c r="H23" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="111">
-        <v>0</v>
-      </c>
-      <c r="B24" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C24" s="111" t="s">
-        <v>801</v>
-      </c>
-      <c r="D24" s="111">
-        <v>712</v>
-      </c>
-      <c r="F24" s="111" t="s">
-        <v>802</v>
-      </c>
-      <c r="H24" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="111">
-        <v>0</v>
-      </c>
-      <c r="B25" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C25" s="111" t="s">
-        <v>794</v>
-      </c>
-      <c r="D25" s="111">
-        <v>712</v>
-      </c>
-      <c r="F25" s="111" t="s">
-        <v>798</v>
-      </c>
-      <c r="H25" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="111">
-        <v>0</v>
-      </c>
-      <c r="B26" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C26" s="111" t="s">
-        <v>799</v>
-      </c>
-      <c r="D26" s="111">
-        <v>712</v>
-      </c>
-      <c r="F26" s="111" t="s">
-        <v>804</v>
-      </c>
-      <c r="H26" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="111">
-        <v>0</v>
-      </c>
-      <c r="B27" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C27" s="111" t="s">
-        <v>794</v>
-      </c>
-      <c r="D27" s="111">
-        <v>316</v>
-      </c>
-      <c r="F27" s="111" t="s">
-        <v>798</v>
-      </c>
-      <c r="H27" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="111">
-        <v>0</v>
-      </c>
-      <c r="B28" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C28" s="111" t="s">
-        <v>799</v>
-      </c>
-      <c r="D28" s="111">
-        <v>316</v>
-      </c>
-      <c r="F28" s="121" t="s">
-        <v>805</v>
-      </c>
-      <c r="H28" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="111">
-        <v>0</v>
-      </c>
-      <c r="B29" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C29" s="111" t="s">
-        <v>801</v>
-      </c>
-      <c r="D29" s="111">
-        <v>316</v>
-      </c>
-      <c r="F29" s="111" t="s">
-        <v>802</v>
-      </c>
-      <c r="H29" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="111">
-        <v>0</v>
-      </c>
-      <c r="B30" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C30" s="111" t="s">
-        <v>801</v>
-      </c>
-      <c r="D30" s="111">
-        <v>321</v>
-      </c>
-      <c r="F30" s="111" t="s">
-        <v>802</v>
-      </c>
-      <c r="H30" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="111">
-        <v>0</v>
-      </c>
-      <c r="B31" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C31" s="111" t="s">
-        <v>794</v>
-      </c>
-      <c r="D31" s="111">
-        <v>321</v>
-      </c>
-      <c r="F31" s="111" t="s">
-        <v>798</v>
-      </c>
-      <c r="H31" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="111">
-        <v>0</v>
-      </c>
-      <c r="B32" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C32" s="111" t="s">
-        <v>799</v>
-      </c>
-      <c r="D32" s="111">
-        <v>321</v>
-      </c>
-      <c r="F32" s="111" t="s">
-        <v>804</v>
-      </c>
-      <c r="H32" s="111" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="111">
-        <v>0</v>
-      </c>
-      <c r="B33" s="111" t="s">
-        <v>803</v>
-      </c>
-      <c r="C33" s="111" t="s">
-        <v>799</v>
-      </c>
-      <c r="D33" s="119">
+      <c r="B33" s="95" t="s">
+        <v>792</v>
+      </c>
+      <c r="C33" s="95" t="s">
+        <v>788</v>
+      </c>
+      <c r="D33" s="103">
         <v>833</v>
       </c>
-      <c r="F33" s="120">
+      <c r="F33" s="104">
         <v>0.66666666666666696</v>
       </c>
-      <c r="H33" s="111" t="s">
-        <v>796</v>
+      <c r="H33" s="95" t="s">
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -15142,7 +15053,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16">
@@ -15159,7 +15070,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16">
@@ -15251,19 +15162,19 @@
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="90" t="s">
-        <v>773</v>
-      </c>
-      <c r="C24" s="91">
-        <v>1</v>
-      </c>
-      <c r="D24" s="92">
-        <v>1</v>
-      </c>
-      <c r="E24" s="90" t="s">
-        <v>774</v>
-      </c>
-      <c r="F24" s="89"/>
+      <c r="B24" s="89" t="s">
+        <v>762</v>
+      </c>
+      <c r="C24" s="90">
+        <v>1</v>
+      </c>
+      <c r="D24" s="91">
+        <v>1</v>
+      </c>
+      <c r="E24" s="89" t="s">
+        <v>763</v>
+      </c>
+      <c r="F24" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -15526,7 +15437,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -16375,7 +16286,7 @@
       </c>
       <c r="H17" s="45"/>
       <c r="I17" s="1" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="1"/>
@@ -16412,7 +16323,7 @@
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="46" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="1"/>
@@ -16449,7 +16360,7 @@
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="46" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="1"/>
@@ -16486,7 +16397,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="46" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="J20" s="26"/>
       <c r="K20" s="1"/>
@@ -16523,7 +16434,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="46" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="J21" s="26"/>
       <c r="K21" s="1"/>
@@ -16560,7 +16471,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="46" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="1"/>
@@ -16597,7 +16508,7 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="46" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="J23" s="26"/>
     </row>
@@ -16619,7 +16530,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="46" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="J24" s="26"/>
       <c r="K24" s="1"/>
@@ -16656,7 +16567,7 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="46" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="J25" s="26"/>
       <c r="K25" s="1"/>
@@ -16693,7 +16604,7 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="46" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="J26" s="26"/>
       <c r="K26" s="1"/>
@@ -16730,7 +16641,7 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="46" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="J27" s="26"/>
       <c r="K27" s="1"/>
@@ -16767,7 +16678,7 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="46" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="J28" s="26"/>
       <c r="K28" s="1"/>
@@ -16804,7 +16715,7 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="46" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="J29" s="26"/>
       <c r="K29" s="1"/>
@@ -16841,7 +16752,7 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="46" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="1"/>
@@ -16878,7 +16789,7 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="46" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="J31" s="26"/>
     </row>
@@ -16900,7 +16811,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="46" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="J32" s="26"/>
     </row>
@@ -16922,7 +16833,7 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="46" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="J33" s="26"/>
     </row>
@@ -16944,7 +16855,7 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="46" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="J34" s="26"/>
     </row>
@@ -16966,7 +16877,7 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="46" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="J35" s="26"/>
     </row>
@@ -16988,7 +16899,7 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="46" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="J36" s="26"/>
     </row>
@@ -17010,7 +16921,7 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="46" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="J37" s="26"/>
     </row>
@@ -17032,7 +16943,7 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="46" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="J38" s="26"/>
     </row>
@@ -17076,7 +16987,7 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="46" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="J40" s="48"/>
     </row>
@@ -17641,7 +17552,7 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="49" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B17" s="45">
         <v>101</v>
@@ -17650,7 +17561,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -17677,7 +17588,7 @@
     </row>
     <row r="18" spans="1:26" s="46" customFormat="1">
       <c r="A18" s="50" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="B18" s="45">
         <v>102</v>
@@ -17686,7 +17597,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="1"/>
@@ -17713,7 +17624,7 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="49" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="B19" s="45">
         <v>103</v>
@@ -17722,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -17749,7 +17660,7 @@
     </row>
     <row r="20" spans="1:26" ht="16">
       <c r="A20" s="51" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B20" s="46">
         <v>104</v>
@@ -17758,7 +17669,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="1"/>
@@ -17785,7 +17696,7 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="52" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="B21" s="46">
         <v>105</v>
@@ -17794,7 +17705,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="1"/>
@@ -17821,7 +17732,7 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="52" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B22" s="46">
         <v>106</v>
@@ -17830,7 +17741,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="1"/>
@@ -17857,7 +17768,7 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="52" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="B23" s="46">
         <v>107</v>
@@ -17866,7 +17777,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="1"/>
@@ -17893,7 +17804,7 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="52" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="B24" s="46">
         <v>108</v>
@@ -17902,7 +17813,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="1"/>
@@ -17929,7 +17840,7 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="52" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="B25" s="46">
         <v>109</v>
@@ -17938,7 +17849,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="1"/>
@@ -17965,7 +17876,7 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="52" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="B26" s="46">
         <v>110</v>
@@ -17974,7 +17885,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="1"/>
@@ -18001,7 +17912,7 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="52" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B27" s="46">
         <v>111</v>
@@ -18010,7 +17921,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="1"/>
@@ -18037,7 +17948,7 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="52" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B28" s="46">
         <v>112</v>
@@ -18046,7 +17957,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="1"/>
@@ -18073,7 +17984,7 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="52" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="B29" s="46">
         <v>113</v>
@@ -18082,7 +17993,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="1"/>
@@ -18109,7 +18020,7 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="52" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="B30" s="46">
         <v>114</v>
@@ -18118,7 +18029,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="1"/>
@@ -18145,7 +18056,7 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="52" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="B31" s="46">
         <v>115</v>
@@ -18154,7 +18065,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="1"/>
@@ -18181,7 +18092,7 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="52" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="B32" s="46">
         <v>116</v>
@@ -18190,7 +18101,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="1"/>
@@ -18217,7 +18128,7 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="52" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="B33" s="46">
         <v>117</v>
@@ -18226,7 +18137,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="1"/>
@@ -18253,7 +18164,7 @@
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="52" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B34" s="46">
         <v>118</v>
@@ -18262,7 +18173,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="1"/>
@@ -18289,7 +18200,7 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="52" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="B35" s="46">
         <v>119</v>
@@ -18298,7 +18209,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="1"/>
@@ -18325,7 +18236,7 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="52" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="B36" s="46">
         <v>120</v>
@@ -18334,7 +18245,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="1"/>
@@ -18361,7 +18272,7 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="52" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B37" s="46">
         <v>121</v>
@@ -18370,7 +18281,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="1"/>
@@ -18397,7 +18308,7 @@
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="52" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="B38" s="46">
         <v>122</v>
@@ -18406,7 +18317,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="1"/>
@@ -18442,7 +18353,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="1"/>
@@ -18478,7 +18389,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="1"/>
@@ -18609,7 +18520,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13" customHeight="1">
@@ -18617,7 +18528,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13" customHeight="1">
@@ -18641,7 +18552,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13" customHeight="1">
@@ -18673,7 +18584,7 @@
         <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13" customHeight="1">
@@ -18701,7 +18612,7 @@
         <v>292</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="13" customHeight="1">

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1EF5B0-6EFE-4B4B-A739-4E2C26DD22CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E764A4-078E-1842-AF81-B09B9DEA1B1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="820" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="820" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="805">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2330,9 +2330,6 @@
     <t>LINE_OF_CREDIT</t>
   </si>
   <si>
-    <t>CSV</t>
-  </si>
-  <si>
     <t>customer.account.roles.Business Signer RO</t>
   </si>
   <si>
@@ -2429,9 +2426,6 @@
     <t>23:57</t>
   </si>
   <si>
-    <t>23:57:00 AM</t>
-  </si>
-  <si>
     <t>DisclaimerTypeCode, DisclaimerVersion</t>
   </si>
   <si>
@@ -2463,6 +2457,9 @@
   </si>
   <si>
     <t>01-01-2020</t>
+  </si>
+  <si>
+    <t>CSV,QFX,QBO</t>
   </si>
 </sst>
 </file>
@@ -8040,7 +8037,7 @@
   <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:K92"/>
+      <selection activeCell="A90" sqref="A90:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9762,19 +9759,25 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87">
+      <c r="A87" s="87">
         <v>171</v>
       </c>
-      <c r="C87" t="s">
+      <c r="B87" s="87"/>
+      <c r="C87" s="87" t="s">
         <v>393</v>
       </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="D87" s="87"/>
+      <c r="E87" s="87">
+        <v>1</v>
+      </c>
+      <c r="F87" s="87" t="s">
         <v>706</v>
       </c>
-      <c r="K87" t="s">
+      <c r="G87" s="87"/>
+      <c r="H87" s="87"/>
+      <c r="I87" s="87"/>
+      <c r="J87" s="87"/>
+      <c r="K87" s="87" t="s">
         <v>619</v>
       </c>
     </row>
@@ -9795,88 +9798,88 @@
         <v>620</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89">
+    <row r="89" spans="1:11" s="87" customFormat="1">
+      <c r="A89" s="87">
         <v>173</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="87" t="s">
         <v>393</v>
       </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="E89" s="87">
+        <v>1</v>
+      </c>
+      <c r="F89" s="87" t="s">
         <v>708</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89" s="87" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90">
+    <row r="90" spans="1:11" s="87" customFormat="1">
+      <c r="A90" s="87">
         <v>174</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="87" t="s">
         <v>393</v>
       </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="E90" s="87">
+        <v>1</v>
+      </c>
+      <c r="F90" s="87" t="s">
         <v>709</v>
       </c>
-      <c r="K90" t="s">
+      <c r="K90" s="87" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91">
+    <row r="91" spans="1:11" s="87" customFormat="1">
+      <c r="A91" s="87">
         <v>175</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="87" t="s">
         <v>393</v>
       </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="E91" s="87">
+        <v>1</v>
+      </c>
+      <c r="F91" s="87" t="s">
         <v>710</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K91" s="87" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92">
+    <row r="92" spans="1:11" s="87" customFormat="1">
+      <c r="A92" s="87">
         <v>176</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="87" t="s">
         <v>393</v>
       </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="E92" s="87">
+        <v>1</v>
+      </c>
+      <c r="F92" s="87" t="s">
         <v>711</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K92" s="87" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93">
+    <row r="93" spans="1:11" s="87" customFormat="1">
+      <c r="A93" s="87">
         <v>177</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="87" t="s">
         <v>393</v>
       </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="E93" s="87">
+        <v>1</v>
+      </c>
+      <c r="F93" s="87" t="s">
         <v>712</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K93" s="87" t="s">
         <v>625</v>
       </c>
     </row>
@@ -9976,7 +9979,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11161,8 +11164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11832,7 +11835,7 @@
         <v>453</v>
       </c>
       <c r="B41">
-        <v>231379775</v>
+        <v>1571</v>
       </c>
       <c r="D41" s="57">
         <v>1</v>
@@ -11986,7 +11989,7 @@
         <v>501</v>
       </c>
       <c r="B48" t="s">
-        <v>761</v>
+        <v>804</v>
       </c>
       <c r="D48" s="57">
         <v>1</v>
@@ -12052,10 +12055,10 @@
     </row>
     <row r="51" spans="1:8" ht="18">
       <c r="A51" s="92" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B51" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D51" s="57">
         <v>1</v>
@@ -12070,7 +12073,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="86" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -12083,7 +12086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482A250D-1B80-8646-9883-5EADF94686E3}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -12186,7 +12189,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -12219,7 +12222,7 @@
     </row>
     <row r="14" spans="1:5" ht="16">
       <c r="A14" s="126" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B14" s="126" t="s">
         <v>494</v>
@@ -12250,16 +12253,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="60" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C17" s="128" t="s">
         <v>498</v>
       </c>
       <c r="D17" s="128" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E17" s="60">
         <v>1</v>
@@ -12267,13 +12270,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="60" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B18" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C18" s="128" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -12281,16 +12284,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C19" s="128" t="s">
+        <v>799</v>
+      </c>
+      <c r="D19" s="128" t="s">
         <v>801</v>
-      </c>
-      <c r="D19" s="128" t="s">
-        <v>803</v>
       </c>
       <c r="E19" s="60">
         <v>1</v>
@@ -12299,13 +12302,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
+        <v>800</v>
+      </c>
+      <c r="B20" t="s">
         <v>802</v>
       </c>
-      <c r="B20" t="s">
-        <v>804</v>
-      </c>
       <c r="C20" s="128" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -13146,13 +13149,13 @@
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18" s="86" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>757</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -13166,7 +13169,7 @@
   <dimension ref="A1:AMK33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13190,7 +13193,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="94" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D1" s="96"/>
     </row>
@@ -13199,7 +13202,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D2" s="96"/>
     </row>
@@ -13226,7 +13229,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D5" s="96"/>
     </row>
@@ -13263,7 +13266,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D10" s="96"/>
     </row>
@@ -13293,31 +13296,31 @@
         <v>350</v>
       </c>
       <c r="B14" s="102" t="s">
+        <v>772</v>
+      </c>
+      <c r="C14" s="102" t="s">
         <v>773</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="D14" s="102" t="s">
         <v>774</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="E14" s="102" t="s">
         <v>775</v>
       </c>
-      <c r="E14" s="102" t="s">
+      <c r="F14" s="102" t="s">
         <v>776</v>
       </c>
-      <c r="F14" s="102" t="s">
+      <c r="G14" s="102" t="s">
         <v>777</v>
       </c>
-      <c r="G14" s="102" t="s">
+      <c r="H14" s="102" t="s">
         <v>778</v>
       </c>
-      <c r="H14" s="102" t="s">
+      <c r="I14" s="102" t="s">
         <v>779</v>
       </c>
-      <c r="I14" s="102" t="s">
+      <c r="J14" s="102" t="s">
         <v>780</v>
-      </c>
-      <c r="J14" s="102" t="s">
-        <v>781</v>
       </c>
       <c r="K14" s="102"/>
     </row>
@@ -13352,19 +13355,19 @@
         <v>0</v>
       </c>
       <c r="B17" s="95" t="s">
+        <v>781</v>
+      </c>
+      <c r="C17" s="95" t="s">
         <v>782</v>
-      </c>
-      <c r="C17" s="95" t="s">
-        <v>783</v>
       </c>
       <c r="D17" s="95">
         <v>371</v>
       </c>
       <c r="F17" s="95" t="s">
+        <v>783</v>
+      </c>
+      <c r="H17" s="95" t="s">
         <v>784</v>
-      </c>
-      <c r="H17" s="95" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -13372,19 +13375,19 @@
         <v>0</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C18" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D18" s="95">
         <v>371</v>
       </c>
       <c r="F18" s="95" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H18" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -13392,19 +13395,19 @@
         <v>0</v>
       </c>
       <c r="B19" s="95" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C19" s="95" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D19" s="95">
         <v>371</v>
       </c>
       <c r="F19" s="95" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H19" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -13412,19 +13415,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C20" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D20" s="95">
         <v>371</v>
       </c>
       <c r="F20" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H20" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -13432,19 +13435,19 @@
         <v>0</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C21" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D21" s="95">
         <v>313</v>
       </c>
       <c r="F21" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H21" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -13452,19 +13455,19 @@
         <v>0</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C22" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D22" s="95">
         <v>313</v>
       </c>
       <c r="F22" s="95" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H22" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -13472,19 +13475,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C23" s="95" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D23" s="95">
         <v>313</v>
       </c>
       <c r="F23" s="95" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H23" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -13492,19 +13495,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C24" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D24" s="95">
         <v>712</v>
       </c>
       <c r="F24" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H24" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -13512,19 +13515,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C25" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D25" s="95">
         <v>712</v>
       </c>
       <c r="F25" s="95" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H25" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -13532,19 +13535,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C26" s="95" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D26" s="95">
         <v>712</v>
       </c>
       <c r="F26" s="95" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H26" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -13552,19 +13555,19 @@
         <v>0</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C27" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D27" s="95">
         <v>316</v>
       </c>
       <c r="F27" s="95" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H27" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -13572,19 +13575,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C28" s="95" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D28" s="95">
         <v>316</v>
       </c>
-      <c r="F28" s="105" t="s">
-        <v>794</v>
+      <c r="F28" s="105">
+        <v>0.99791666666666667</v>
       </c>
       <c r="H28" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -13592,19 +13595,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C29" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D29" s="95">
         <v>316</v>
       </c>
       <c r="F29" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H29" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -13612,19 +13615,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C30" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D30" s="95">
         <v>321</v>
       </c>
       <c r="F30" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H30" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -13632,19 +13635,19 @@
         <v>0</v>
       </c>
       <c r="B31" s="95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C31" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D31" s="95">
         <v>321</v>
       </c>
       <c r="F31" s="95" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H31" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -13652,19 +13655,19 @@
         <v>0</v>
       </c>
       <c r="B32" s="95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C32" s="95" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D32" s="95">
         <v>321</v>
       </c>
       <c r="F32" s="95" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H32" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -13672,10 +13675,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C33" s="95" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D33" s="103">
         <v>833</v>
@@ -13684,7 +13687,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="H33" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -15163,16 +15166,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="89" t="s">
+        <v>761</v>
+      </c>
+      <c r="C24" s="90">
+        <v>1</v>
+      </c>
+      <c r="D24" s="91">
+        <v>1</v>
+      </c>
+      <c r="E24" s="89" t="s">
         <v>762</v>
-      </c>
-      <c r="C24" s="90">
-        <v>1</v>
-      </c>
-      <c r="D24" s="91">
-        <v>1</v>
-      </c>
-      <c r="E24" s="89" t="s">
-        <v>763</v>
       </c>
       <c r="F24" s="88"/>
     </row>
@@ -15437,7 +15440,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E764A4-078E-1842-AF81-B09B9DEA1B1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76C1D12-11BD-424C-9461-B341051DEA05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="820" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2720" yWindow="4420" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="806">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2460,6 +2460,9 @@
   </si>
   <si>
     <t>CSV,QFX,QBO</t>
+  </si>
+  <si>
+    <t>16:00</t>
   </si>
 </sst>
 </file>
@@ -3048,35 +3051,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3095,24 +3087,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="4" xr:uid="{345D5794-06C6-344F-8A75-BED4E4ADCEFA}"/>
@@ -3732,22 +3735,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3757,66 +3760,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="117" t="s">
+      <c r="C8" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="117">
+      <c r="H8" s="116">
         <v>2</v>
       </c>
-      <c r="I8" s="117"/>
+      <c r="I8" s="116"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3834,325 +3837,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="114" t="s">
+      <c r="H13" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="114"/>
+      <c r="I13" s="120"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="112" t="s">
+      <c r="H14" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="112"/>
+      <c r="I14" s="121"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="112" t="s">
+      <c r="H15" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="112"/>
+      <c r="I15" s="121"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="112" t="s">
+      <c r="H16" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="112"/>
+      <c r="I16" s="121"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="112" t="s">
+      <c r="H17" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="112"/>
+      <c r="I17" s="121"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="112" t="s">
+      <c r="H18" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="112"/>
+      <c r="I18" s="121"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="113" t="s">
+      <c r="C19" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="112" t="s">
+      <c r="H19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="112"/>
+      <c r="I19" s="121"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="113" t="s">
+      <c r="C20" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="112" t="s">
+      <c r="H20" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="112"/>
+      <c r="I20" s="121"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="113" t="s">
+      <c r="C21" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="112" t="s">
+      <c r="H21" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="112"/>
+      <c r="I21" s="121"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="112" t="s">
+      <c r="H22" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="112"/>
+      <c r="I22" s="121"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="112" t="s">
+      <c r="C23" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="112" t="s">
+      <c r="H23" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="112"/>
+      <c r="I23" s="121"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="112" t="s">
+      <c r="C24" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="112" t="s">
+      <c r="H24" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="112"/>
+      <c r="I24" s="121"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="109" t="s">
+      <c r="H25" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="109"/>
+      <c r="I25" s="123"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="109" t="s">
+      <c r="H26" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="109"/>
+      <c r="I26" s="123"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="109" t="s">
+      <c r="H27" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="109"/>
+      <c r="I27" s="123"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="109" t="s">
+      <c r="C28" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="109" t="s">
+      <c r="H28" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="109"/>
+      <c r="I28" s="123"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="109" t="s">
+      <c r="C29" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="109" t="s">
+      <c r="H29" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="109"/>
+      <c r="I29" s="123"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="109" t="s">
+      <c r="C30" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4165,512 +4168,413 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="109" t="s">
+      <c r="C31" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="109" t="s">
+      <c r="H31" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="109"/>
+      <c r="I31" s="123"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="111" t="s">
+      <c r="C32" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="109" t="s">
+      <c r="H32" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="109"/>
+      <c r="I32" s="123"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="110" t="s">
+      <c r="C33" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="110" t="s">
+      <c r="H33" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="110"/>
+      <c r="I33" s="125"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="110" t="s">
+      <c r="C34" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="110" t="s">
+      <c r="H34" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="110"/>
+      <c r="I34" s="125"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="107" t="s">
+      <c r="C35" s="126" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="109" t="s">
+      <c r="H35" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="109"/>
+      <c r="I35" s="123"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="109"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="126"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="123"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="123"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="123"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="127"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="127"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="127"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="109"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="106"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
+      <c r="H46" s="123"/>
+      <c r="I46" s="123"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
+      <c r="H47" s="123"/>
+      <c r="I47" s="123"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="109"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="123"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
+      <c r="H49" s="123"/>
+      <c r="I49" s="123"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="108"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
+      <c r="H50" s="123"/>
+      <c r="I50" s="123"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="107"/>
+      <c r="H51" s="126"/>
+      <c r="I51" s="126"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="106"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="107"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="126"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="106"/>
-      <c r="E54" s="106"/>
-      <c r="F54" s="106"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="127"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="107"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="126"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="127"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="107"/>
+      <c r="H55" s="126"/>
+      <c r="I55" s="126"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="127"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="107"/>
-      <c r="I56" s="107"/>
+      <c r="H56" s="126"/>
+      <c r="I56" s="126"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="106"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="107"/>
+      <c r="H57" s="126"/>
+      <c r="I57" s="126"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="106"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="106"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="127"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="107"/>
+      <c r="H58" s="126"/>
+      <c r="I58" s="126"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="106"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="106"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="127"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="107"/>
+      <c r="H59" s="126"/>
+      <c r="I59" s="126"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="106"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="106"/>
+      <c r="C60" s="127"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="127"/>
+      <c r="F60" s="127"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="106"/>
-      <c r="I60" s="106"/>
+      <c r="H60" s="127"/>
+      <c r="I60" s="127"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="106"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106"/>
+      <c r="C61" s="127"/>
+      <c r="D61" s="127"/>
+      <c r="E61" s="127"/>
+      <c r="F61" s="127"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="106"/>
-      <c r="I61" s="106"/>
+      <c r="H61" s="127"/>
+      <c r="I61" s="127"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="106"/>
-      <c r="D62" s="106"/>
-      <c r="E62" s="106"/>
-      <c r="F62" s="106"/>
+      <c r="C62" s="127"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="127"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="106"/>
-      <c r="I62" s="106"/>
+      <c r="H62" s="127"/>
+      <c r="I62" s="127"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="106"/>
-      <c r="D63" s="106"/>
-      <c r="E63" s="106"/>
-      <c r="F63" s="106"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="127"/>
+      <c r="E63" s="127"/>
+      <c r="F63" s="127"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="106"/>
-      <c r="I63" s="106"/>
+      <c r="H63" s="127"/>
+      <c r="I63" s="127"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="106"/>
-      <c r="D64" s="106"/>
-      <c r="E64" s="106"/>
-      <c r="F64" s="106"/>
+      <c r="C64" s="127"/>
+      <c r="D64" s="127"/>
+      <c r="E64" s="127"/>
+      <c r="F64" s="127"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="106"/>
-      <c r="I64" s="106"/>
+      <c r="H64" s="127"/>
+      <c r="I64" s="127"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="106"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
-      <c r="F65" s="106"/>
+      <c r="C65" s="127"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="127"/>
+      <c r="F65" s="127"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="106"/>
-      <c r="I65" s="106"/>
+      <c r="H65" s="127"/>
+      <c r="I65" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4687,6 +4591,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -11164,7 +11167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -12106,59 +12109,59 @@
       <c r="A1" s="82" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="104" t="s">
         <v>491</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="82" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="105" t="s">
         <v>492</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
     </row>
     <row r="3" spans="1:5" ht="16">
       <c r="A3" s="82" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="106" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
     </row>
     <row r="4" spans="1:5" ht="16">
       <c r="A4" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="106" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
     </row>
     <row r="5" spans="1:5" ht="16">
       <c r="A5" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="106" t="s">
         <v>492</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="82" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="82" t="s">
@@ -12198,7 +12201,7 @@
       <c r="A11" s="82" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="121"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
     </row>
@@ -12206,7 +12209,7 @@
       <c r="A12" s="82" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="125"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
     </row>
@@ -12214,42 +12217,42 @@
       <c r="A13" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="108" t="s">
         <v>493</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
     </row>
     <row r="14" spans="1:5" ht="16">
-      <c r="A14" s="126" t="s">
+      <c r="A14" s="109" t="s">
         <v>794</v>
       </c>
-      <c r="B14" s="126" t="s">
+      <c r="B14" s="109" t="s">
         <v>494</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="110" t="s">
         <v>495</v>
       </c>
-      <c r="D14" s="127" t="s">
+      <c r="D14" s="110" t="s">
         <v>496</v>
       </c>
-      <c r="E14" s="126" t="s">
+      <c r="E14" s="109" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="126"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="126"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="60" t="s">
@@ -12258,10 +12261,10 @@
       <c r="B17" s="64" t="s">
         <v>796</v>
       </c>
-      <c r="C17" s="128" t="s">
+      <c r="C17" s="111" t="s">
         <v>498</v>
       </c>
-      <c r="D17" s="128" t="s">
+      <c r="D17" s="111" t="s">
         <v>797</v>
       </c>
       <c r="E17" s="60">
@@ -12275,7 +12278,7 @@
       <c r="B18" t="s">
         <v>798</v>
       </c>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="111" t="s">
         <v>799</v>
       </c>
       <c r="E18">
@@ -12289,16 +12292,16 @@
       <c r="B19" s="64" t="s">
         <v>798</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="111" t="s">
         <v>799</v>
       </c>
-      <c r="D19" s="128" t="s">
+      <c r="D19" s="111" t="s">
         <v>801</v>
       </c>
       <c r="E19" s="60">
         <v>1</v>
       </c>
-      <c r="G19" s="129"/>
+      <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -12307,7 +12310,7 @@
       <c r="B20" t="s">
         <v>802</v>
       </c>
-      <c r="C20" s="128" t="s">
+      <c r="C20" s="111" t="s">
         <v>803</v>
       </c>
       <c r="E20">
@@ -12315,43 +12318,43 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="C21" s="130"/>
+      <c r="C21" s="113"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="C22" s="130"/>
+      <c r="C22" s="113"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="C23" s="130"/>
+      <c r="C23" s="113"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="C24" s="130"/>
+      <c r="C24" s="113"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="C25" s="130"/>
+      <c r="C25" s="113"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="C26" s="130"/>
+      <c r="C26" s="113"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="C27" s="130"/>
+      <c r="C27" s="113"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="C28" s="130"/>
+      <c r="C28" s="113"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="C29" s="130"/>
+      <c r="C29" s="113"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="C30" s="130"/>
+      <c r="C30" s="113"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="C31" s="130"/>
+      <c r="C31" s="113"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="C32" s="130"/>
+      <c r="C32" s="113"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="130"/>
+      <c r="C33" s="113"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -13168,8 +13171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F738335-AC28-1C46-8CB9-3FD930928117}">
   <dimension ref="A1:AMK33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13583,8 +13586,8 @@
       <c r="D28" s="95">
         <v>316</v>
       </c>
-      <c r="F28" s="105">
-        <v>0.99791666666666667</v>
+      <c r="F28" s="129" t="s">
+        <v>792</v>
       </c>
       <c r="H28" s="95" t="s">
         <v>784</v>
@@ -13683,8 +13686,8 @@
       <c r="D33" s="103">
         <v>833</v>
       </c>
-      <c r="F33" s="104">
-        <v>0.66666666666666696</v>
+      <c r="F33" s="130" t="s">
+        <v>805</v>
       </c>
       <c r="H33" s="95" t="s">
         <v>784</v>

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76C1D12-11BD-424C-9461-B341051DEA05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1563AEA3-514C-B644-8AD0-3E877FFEE13C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="4420" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2720" yWindow="4420" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="ClientCategories" sheetId="15" r:id="rId19"/>
     <sheet name="FeatureToggle" sheetId="24" r:id="rId20"/>
     <sheet name="DateIntervalLimits" sheetId="25" r:id="rId21"/>
+    <sheet name="ClientTransactionStatusTypes" sheetId="27" r:id="rId22"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="830">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2463,6 +2464,78 @@
   </si>
   <si>
     <t>16:00</t>
+  </si>
+  <si>
+    <t>Request's (transactions) statuses</t>
+  </si>
+  <si>
+    <t>FINALSTATUS</t>
+  </si>
+  <si>
+    <t>SHORTTEXT</t>
+  </si>
+  <si>
+    <t>EN= Status ID</t>
+  </si>
+  <si>
+    <t>EN=Status</t>
+  </si>
+  <si>
+    <t>status ID</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>VERIF</t>
+  </si>
+  <si>
+    <t>Waiting for transferring to banking system</t>
+  </si>
+  <si>
+    <t>PASSING</t>
+  </si>
+  <si>
+    <t>Transferring to banking system</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>WAITDONE</t>
+  </si>
+  <si>
+    <t>Waiting for the completion of processing.</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>Rejected by the banking system</t>
+  </si>
+  <si>
+    <t>WAITMATUR</t>
+  </si>
+  <si>
+    <t>ACCOK</t>
+  </si>
+  <si>
+    <t>Successfully transferred to external system for processing.</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Awaiting Approval</t>
   </si>
 </sst>
 </file>
@@ -2474,7 +2547,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2683,6 +2756,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2826,7 +2911,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3069,6 +3154,35 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3087,35 +3201,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="4" xr:uid="{345D5794-06C6-344F-8A75-BED4E4ADCEFA}"/>
@@ -3337,6 +3438,449 @@
         </a:solidFill>
         <a:ln w="9360">
           <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3135240</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>134440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30ED9AD5-E4C1-6545-9029-3A5B2CF7D035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9218540" cy="11704140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3623400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>122200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7EDB7A-E08E-0E45-94F4-F5B300FE8C62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9706700" cy="11501400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3738240</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>122560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DA8B9F-9BA4-9A42-8DF8-08CC458148F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9821540" cy="11501760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3862440</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>122920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A94405C-B346-DC44-BE9B-2AF803F771F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9945740" cy="11502120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3795840</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6842E20-B7E7-894F-AB08-D67FF2B8E4B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9879140" cy="11502480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4122000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>64240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967FF5C6-CA31-6C42-9F3A-4F8A29C89A37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10205300" cy="10871940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>126720</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6EB24B0-261A-1B49-9BF2-75BA63A91677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13004520" cy="12420060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1267200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>174960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A449E75-C754-C34C-B93B-5EE23BC50D65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7350500" cy="9052260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3735,22 +4279,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3760,66 +4304,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="116">
+      <c r="H8" s="127">
         <v>2</v>
       </c>
-      <c r="I8" s="116"/>
+      <c r="I8" s="127"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3837,325 +4381,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="120" t="s">
+      <c r="C13" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="120" t="s">
+      <c r="H13" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="120"/>
+      <c r="I13" s="124"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="121" t="s">
+      <c r="H14" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="121"/>
+      <c r="I14" s="122"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="121" t="s">
+      <c r="H15" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="121"/>
+      <c r="I15" s="122"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="121" t="s">
+      <c r="H16" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="121"/>
+      <c r="I16" s="122"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="121" t="s">
+      <c r="H17" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="121"/>
+      <c r="I17" s="122"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="121" t="s">
+      <c r="H18" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="121"/>
+      <c r="I18" s="122"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="121" t="s">
+      <c r="H19" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="121"/>
+      <c r="I19" s="122"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="122" t="s">
+      <c r="C20" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="121" t="s">
+      <c r="H20" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="121"/>
+      <c r="I20" s="122"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C21" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="121" t="s">
+      <c r="H21" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="121"/>
+      <c r="I21" s="122"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="121" t="s">
+      <c r="C22" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="121" t="s">
+      <c r="H22" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="121"/>
+      <c r="I22" s="122"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="121" t="s">
+      <c r="H23" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="121"/>
+      <c r="I23" s="122"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="121" t="s">
+      <c r="H24" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="121"/>
+      <c r="I24" s="122"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="123" t="s">
+      <c r="C25" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="123" t="s">
+      <c r="H25" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="123"/>
+      <c r="I25" s="119"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="123" t="s">
+      <c r="C26" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="123" t="s">
+      <c r="H26" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="123"/>
+      <c r="I26" s="119"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="123" t="s">
+      <c r="C27" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="123" t="s">
+      <c r="H27" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="123"/>
+      <c r="I27" s="119"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="123" t="s">
+      <c r="H28" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="123"/>
+      <c r="I28" s="119"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="123" t="s">
+      <c r="C29" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="123" t="s">
+      <c r="H29" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="123"/>
+      <c r="I29" s="119"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="123" t="s">
+      <c r="C30" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4168,413 +4712,512 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="123" t="s">
+      <c r="C31" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="123" t="s">
+      <c r="H31" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="123"/>
+      <c r="I31" s="119"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="124" t="s">
+      <c r="C32" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="124"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="124"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="123" t="s">
+      <c r="H32" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="123"/>
+      <c r="I32" s="119"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="125" t="s">
+      <c r="H33" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="125"/>
+      <c r="I33" s="120"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="125" t="s">
+      <c r="C34" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="125" t="s">
+      <c r="H34" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="125"/>
+      <c r="I34" s="120"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="126" t="s">
+      <c r="C35" s="117" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="123" t="s">
+      <c r="H35" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="123"/>
+      <c r="I35" s="119"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="123"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="123"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="119"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="123"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="119"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="123"/>
+      <c r="H42" s="119"/>
+      <c r="I42" s="119"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="127"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="127"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="127"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="123"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="127"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="127"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="123"/>
-      <c r="I46" s="123"/>
+      <c r="H46" s="119"/>
+      <c r="I46" s="119"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="128"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="128"/>
-      <c r="F47" s="128"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="123"/>
-      <c r="I47" s="123"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="119"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="128"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="123"/>
+      <c r="H48" s="119"/>
+      <c r="I48" s="119"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="128"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="128"/>
-      <c r="F49" s="128"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="118"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="123"/>
-      <c r="I49" s="123"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="119"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="128"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="128"/>
-      <c r="F50" s="128"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="123"/>
-      <c r="I50" s="123"/>
+      <c r="H50" s="119"/>
+      <c r="I50" s="119"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="116"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="117"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="127"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="127"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
+      <c r="H52" s="117"/>
+      <c r="I52" s="117"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
+      <c r="H53" s="117"/>
+      <c r="I53" s="117"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="127"/>
-      <c r="E54" s="127"/>
-      <c r="F54" s="127"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="126"/>
-      <c r="I54" s="126"/>
+      <c r="H54" s="117"/>
+      <c r="I54" s="117"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="127"/>
-      <c r="E55" s="127"/>
-      <c r="F55" s="127"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="126"/>
-      <c r="I55" s="126"/>
+      <c r="H55" s="117"/>
+      <c r="I55" s="117"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="127"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="127"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
+      <c r="H56" s="117"/>
+      <c r="I56" s="117"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="126"/>
-      <c r="I57" s="126"/>
+      <c r="H57" s="117"/>
+      <c r="I57" s="117"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="127"/>
-      <c r="D58" s="127"/>
-      <c r="E58" s="127"/>
-      <c r="F58" s="127"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126"/>
+      <c r="H58" s="117"/>
+      <c r="I58" s="117"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="127"/>
-      <c r="D59" s="127"/>
-      <c r="E59" s="127"/>
-      <c r="F59" s="127"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="116"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
+      <c r="H59" s="117"/>
+      <c r="I59" s="117"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="127"/>
-      <c r="D60" s="127"/>
-      <c r="E60" s="127"/>
-      <c r="F60" s="127"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="116"/>
+      <c r="F60" s="116"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="127"/>
-      <c r="I60" s="127"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="127"/>
-      <c r="D61" s="127"/>
-      <c r="E61" s="127"/>
-      <c r="F61" s="127"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="116"/>
+      <c r="F61" s="116"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="127"/>
-      <c r="I61" s="127"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="116"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="127"/>
-      <c r="D62" s="127"/>
-      <c r="E62" s="127"/>
-      <c r="F62" s="127"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="116"/>
+      <c r="F62" s="116"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="127"/>
-      <c r="I62" s="127"/>
+      <c r="H62" s="116"/>
+      <c r="I62" s="116"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="127"/>
-      <c r="D63" s="127"/>
-      <c r="E63" s="127"/>
-      <c r="F63" s="127"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="116"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="127"/>
-      <c r="I63" s="127"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="116"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="127"/>
-      <c r="D64" s="127"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="127"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
+      <c r="E64" s="116"/>
+      <c r="F64" s="116"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="127"/>
-      <c r="I64" s="127"/>
+      <c r="H64" s="116"/>
+      <c r="I64" s="116"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="127"/>
-      <c r="D65" s="127"/>
-      <c r="E65" s="127"/>
-      <c r="F65" s="127"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="116"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="116"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="127"/>
-      <c r="I65" s="127"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4591,105 +5234,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -13171,7 +13715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F738335-AC28-1C46-8CB9-3FD930928117}">
   <dimension ref="A1:AMK33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -13586,7 +14130,7 @@
       <c r="D28" s="95">
         <v>316</v>
       </c>
-      <c r="F28" s="129" t="s">
+      <c r="F28" s="114" t="s">
         <v>792</v>
       </c>
       <c r="H28" s="95" t="s">
@@ -13686,7 +14230,7 @@
       <c r="D33" s="103">
         <v>833</v>
       </c>
-      <c r="F33" s="130" t="s">
+      <c r="F33" s="115" t="s">
         <v>805</v>
       </c>
       <c r="H33" s="95" t="s">
@@ -13696,6 +14240,378 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7FFDE4-6871-164E-A3DC-9C2170575FD3}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" style="103" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="103" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="103" customWidth="1"/>
+    <col min="4" max="4" width="89.1640625" style="103" customWidth="1"/>
+    <col min="5" max="1020" width="8.1640625" style="103" customWidth="1"/>
+    <col min="1021" max="1021" width="8.83203125" style="103" customWidth="1"/>
+    <col min="1022" max="16384" width="8.83203125" style="103"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1" s="100" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1" s="96"/>
+    </row>
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2" s="100" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="96"/>
+    </row>
+    <row r="3" spans="1:4" ht="16">
+      <c r="A3" s="100" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="99"/>
+    </row>
+    <row r="4" spans="1:4" ht="16">
+      <c r="A4" s="100" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="99"/>
+    </row>
+    <row r="5" spans="1:4" ht="16">
+      <c r="A5" s="100" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="96"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="100" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="100" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="100" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="100" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+    </row>
+    <row r="10" spans="1:4" ht="16">
+      <c r="A10" s="100" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>347</v>
+      </c>
+      <c r="C10" s="96"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="100" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="100" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="96"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="100" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="101"/>
+      <c r="C13" s="96"/>
+    </row>
+    <row r="14" spans="1:4" ht="16">
+      <c r="A14" s="102" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>807</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>808</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16">
+      <c r="A15" s="131" t="s">
+        <v>809</v>
+      </c>
+      <c r="B15" s="131" t="s">
+        <v>810</v>
+      </c>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16">
+      <c r="A16" s="132"/>
+      <c r="B16" s="132" t="s">
+        <v>811</v>
+      </c>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="133">
+        <v>100</v>
+      </c>
+      <c r="B17" s="133">
+        <v>0</v>
+      </c>
+      <c r="C17" s="103" t="s">
+        <v>812</v>
+      </c>
+      <c r="D17" s="103" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="133">
+        <v>140</v>
+      </c>
+      <c r="B18" s="133">
+        <v>0</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>814</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="133">
+        <v>141</v>
+      </c>
+      <c r="B19" s="133">
+        <v>0</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>816</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16">
+      <c r="A20" s="133">
+        <v>146</v>
+      </c>
+      <c r="B20" s="133">
+        <v>0</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>818</v>
+      </c>
+      <c r="D20" s="136" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="133">
+        <v>148</v>
+      </c>
+      <c r="B21" s="133">
+        <v>0</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>819</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="133">
+        <v>151</v>
+      </c>
+      <c r="B22" s="133">
+        <v>2</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>821</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16">
+      <c r="A23" s="133">
+        <v>155</v>
+      </c>
+      <c r="B23" s="133">
+        <v>0</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>823</v>
+      </c>
+      <c r="D23" s="136" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="133">
+        <v>160</v>
+      </c>
+      <c r="B24" s="133">
+        <v>1</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>824</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="133">
+        <v>189</v>
+      </c>
+      <c r="B25" s="133">
+        <v>2</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>826</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="133">
+        <v>190</v>
+      </c>
+      <c r="B26" s="133">
+        <v>1</v>
+      </c>
+      <c r="C26" s="103" t="s">
+        <v>824</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="134"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="134"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="134"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="134"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="134"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="134"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="134"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="134"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="134"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="134"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="134"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="134"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="134"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="134"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="134"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="134"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="134"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="134"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="134"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="134"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="134"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="134"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="134"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="134"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="134"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="135"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1563AEA3-514C-B644-8AD0-3E877FFEE13C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFBD134-8B8C-B546-8AD6-95301E4ACC99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="4420" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2493,9 +2493,6 @@
     <t>VERIF</t>
   </si>
   <si>
-    <t>Waiting for transferring to banking system</t>
-  </si>
-  <si>
     <t>PASSING</t>
   </si>
   <si>
@@ -2536,6 +2533,9 @@
   </si>
   <si>
     <t>Awaiting Approval</t>
+  </si>
+  <si>
+    <t>Processing Request</t>
   </si>
 </sst>
 </file>
@@ -3160,29 +3160,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3201,22 +3194,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="4" xr:uid="{345D5794-06C6-344F-8A75-BED4E4ADCEFA}"/>
@@ -4279,22 +4279,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4304,66 +4304,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="127">
+      <c r="H8" s="124">
         <v>2</v>
       </c>
-      <c r="I8" s="127"/>
+      <c r="I8" s="124"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4381,325 +4381,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="124" t="s">
+      <c r="C13" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="124" t="s">
+      <c r="H13" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="124"/>
+      <c r="I13" s="128"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="122" t="s">
+      <c r="H14" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="122"/>
+      <c r="I14" s="129"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="122" t="s">
+      <c r="H15" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="122"/>
+      <c r="I15" s="129"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="122" t="s">
+      <c r="H16" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="122"/>
+      <c r="I16" s="129"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="122" t="s">
+      <c r="C17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="122" t="s">
+      <c r="H17" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="122"/>
+      <c r="I17" s="129"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="122" t="s">
+      <c r="C18" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="122" t="s">
+      <c r="H18" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="122"/>
+      <c r="I18" s="129"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="122" t="s">
+      <c r="H19" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="122"/>
+      <c r="I19" s="129"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="122" t="s">
+      <c r="H20" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="122"/>
+      <c r="I20" s="129"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="122" t="s">
+      <c r="H21" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="122"/>
+      <c r="I21" s="129"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="122" t="s">
+      <c r="C22" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="122" t="s">
+      <c r="H22" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="122"/>
+      <c r="I22" s="129"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="122" t="s">
+      <c r="C23" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="122" t="s">
+      <c r="H23" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="122"/>
+      <c r="I23" s="129"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="122" t="s">
+      <c r="C24" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="122" t="s">
+      <c r="H24" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="122"/>
+      <c r="I24" s="129"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="119" t="s">
+      <c r="C25" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="119" t="s">
+      <c r="H25" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="119"/>
+      <c r="I25" s="131"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="119" t="s">
+      <c r="C26" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="119" t="s">
+      <c r="H26" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="119"/>
+      <c r="I26" s="131"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="119" t="s">
+      <c r="C27" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="119" t="s">
+      <c r="H27" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="119"/>
+      <c r="I27" s="131"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="119" t="s">
+      <c r="C28" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="119" t="s">
+      <c r="H28" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="119"/>
+      <c r="I28" s="131"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="119" t="s">
+      <c r="C29" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="119" t="s">
+      <c r="H29" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="119"/>
+      <c r="I29" s="131"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="119" t="s">
+      <c r="C30" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4712,512 +4712,413 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="119" t="s">
+      <c r="C31" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="119" t="s">
+      <c r="H31" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="119"/>
+      <c r="I31" s="131"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="121" t="s">
+      <c r="C32" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="119" t="s">
+      <c r="H32" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="119"/>
+      <c r="I32" s="131"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="120" t="s">
+      <c r="H33" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="120"/>
+      <c r="I33" s="133"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="120" t="s">
+      <c r="C34" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="120" t="s">
+      <c r="H34" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="120"/>
+      <c r="I34" s="133"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="117" t="s">
+      <c r="C35" s="134" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="119" t="s">
+      <c r="H35" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="119"/>
+      <c r="I35" s="131"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="119"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="117"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="135"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="119"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="131"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="135"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="116"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="119"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="131"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="135"/>
+      <c r="F42" s="135"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="119"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="131"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
+      <c r="H43" s="131"/>
+      <c r="I43" s="131"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="135"/>
+      <c r="F44" s="135"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="119"/>
+      <c r="H44" s="131"/>
+      <c r="I44" s="131"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="116"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="135"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="131"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="135"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
+      <c r="H46" s="131"/>
+      <c r="I46" s="131"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="118"/>
-      <c r="F48" s="118"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="119"/>
-      <c r="I48" s="119"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="118"/>
-      <c r="F49" s="118"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="119"/>
+      <c r="H49" s="131"/>
+      <c r="I49" s="131"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="118"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="131"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="116"/>
-      <c r="F51" s="116"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="135"/>
+      <c r="F51" s="135"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="117"/>
-      <c r="I51" s="117"/>
+      <c r="H51" s="134"/>
+      <c r="I51" s="134"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
-      <c r="E52" s="116"/>
-      <c r="F52" s="116"/>
+      <c r="C52" s="135"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="135"/>
+      <c r="F52" s="135"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="117"/>
-      <c r="I52" s="117"/>
+      <c r="H52" s="134"/>
+      <c r="I52" s="134"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
-      <c r="E53" s="116"/>
-      <c r="F53" s="116"/>
+      <c r="C53" s="135"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="135"/>
+      <c r="F53" s="135"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="117"/>
-      <c r="I53" s="117"/>
+      <c r="H53" s="134"/>
+      <c r="I53" s="134"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="116"/>
-      <c r="F54" s="116"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="135"/>
+      <c r="F54" s="135"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="117"/>
-      <c r="I54" s="117"/>
+      <c r="H54" s="134"/>
+      <c r="I54" s="134"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
-      <c r="E55" s="116"/>
-      <c r="F55" s="116"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="135"/>
+      <c r="F55" s="135"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="117"/>
-      <c r="I55" s="117"/>
+      <c r="H55" s="134"/>
+      <c r="I55" s="134"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="116"/>
+      <c r="C56" s="135"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="135"/>
+      <c r="F56" s="135"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="117"/>
-      <c r="I56" s="117"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
-      <c r="E57" s="116"/>
-      <c r="F57" s="116"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="135"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="117"/>
-      <c r="I57" s="117"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="116"/>
+      <c r="C58" s="135"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="135"/>
+      <c r="F58" s="135"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="117"/>
-      <c r="I58" s="117"/>
+      <c r="H58" s="134"/>
+      <c r="I58" s="134"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="116"/>
-      <c r="F59" s="116"/>
+      <c r="C59" s="135"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="135"/>
+      <c r="F59" s="135"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="117"/>
-      <c r="I59" s="117"/>
+      <c r="H59" s="134"/>
+      <c r="I59" s="134"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="116"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="135"/>
+      <c r="E60" s="135"/>
+      <c r="F60" s="135"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
+      <c r="H60" s="135"/>
+      <c r="I60" s="135"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="116"/>
+      <c r="C61" s="135"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="135"/>
+      <c r="F61" s="135"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="116"/>
+      <c r="H61" s="135"/>
+      <c r="I61" s="135"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="116"/>
-      <c r="F62" s="116"/>
+      <c r="C62" s="135"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="135"/>
+      <c r="F62" s="135"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="116"/>
-      <c r="I62" s="116"/>
+      <c r="H62" s="135"/>
+      <c r="I62" s="135"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
-      <c r="E63" s="116"/>
-      <c r="F63" s="116"/>
+      <c r="C63" s="135"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="135"/>
+      <c r="F63" s="135"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="116"/>
-      <c r="I63" s="116"/>
+      <c r="H63" s="135"/>
+      <c r="I63" s="135"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="116"/>
-      <c r="D64" s="116"/>
-      <c r="E64" s="116"/>
-      <c r="F64" s="116"/>
+      <c r="C64" s="135"/>
+      <c r="D64" s="135"/>
+      <c r="E64" s="135"/>
+      <c r="F64" s="135"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="116"/>
-      <c r="I64" s="116"/>
+      <c r="H64" s="135"/>
+      <c r="I64" s="135"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
-      <c r="E65" s="116"/>
-      <c r="F65" s="116"/>
+      <c r="C65" s="135"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="135"/>
+      <c r="F65" s="135"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="116"/>
+      <c r="H65" s="135"/>
+      <c r="I65" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5234,6 +5135,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -14248,7 +14248,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14382,32 +14382,32 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="16">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="116" t="s">
         <v>809</v>
       </c>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="116" t="s">
         <v>810</v>
       </c>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131" t="s">
+      <c r="C15" s="116"/>
+      <c r="D15" s="116" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16">
-      <c r="A16" s="132"/>
-      <c r="B16" s="132" t="s">
+      <c r="A16" s="117"/>
+      <c r="B16" s="117" t="s">
         <v>811</v>
       </c>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132" t="s">
+      <c r="C16" s="117"/>
+      <c r="D16" s="117" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="133">
+      <c r="A17" s="118">
         <v>100</v>
       </c>
-      <c r="B17" s="133">
+      <c r="B17" s="118">
         <v>0</v>
       </c>
       <c r="C17" s="103" t="s">
@@ -14418,195 +14418,195 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="133">
+      <c r="A18" s="118">
         <v>140</v>
       </c>
-      <c r="B18" s="133">
+      <c r="B18" s="118">
         <v>0</v>
       </c>
       <c r="C18" s="103" t="s">
         <v>814</v>
       </c>
       <c r="D18" s="103" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="118">
+        <v>141</v>
+      </c>
+      <c r="B19" s="118">
+        <v>0</v>
+      </c>
+      <c r="C19" s="103" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="133">
-        <v>141</v>
-      </c>
-      <c r="B19" s="133">
+      <c r="D19" s="103" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16">
+      <c r="A20" s="118">
+        <v>146</v>
+      </c>
+      <c r="B20" s="118">
         <v>0</v>
       </c>
-      <c r="C19" s="103" t="s">
-        <v>816</v>
-      </c>
-      <c r="D19" s="103" t="s">
+      <c r="C20" s="103" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16">
-      <c r="A20" s="133">
-        <v>146</v>
-      </c>
-      <c r="B20" s="133">
+      <c r="D20" s="121" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="118">
+        <v>148</v>
+      </c>
+      <c r="B21" s="118">
         <v>0</v>
       </c>
-      <c r="C20" s="103" t="s">
+      <c r="C21" s="103" t="s">
         <v>818</v>
       </c>
-      <c r="D20" s="136" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="133">
-        <v>148</v>
-      </c>
-      <c r="B21" s="133">
+      <c r="D21" s="103" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="118">
+        <v>151</v>
+      </c>
+      <c r="B22" s="118">
+        <v>2</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>820</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16">
+      <c r="A23" s="118">
+        <v>155</v>
+      </c>
+      <c r="B23" s="118">
         <v>0</v>
       </c>
-      <c r="C21" s="103" t="s">
-        <v>819</v>
-      </c>
-      <c r="D21" s="103" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="133">
-        <v>151</v>
-      </c>
-      <c r="B22" s="133">
+      <c r="C23" s="103" t="s">
+        <v>822</v>
+      </c>
+      <c r="D23" s="121" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="118">
+        <v>160</v>
+      </c>
+      <c r="B24" s="118">
+        <v>1</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>823</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="118">
+        <v>189</v>
+      </c>
+      <c r="B25" s="118">
         <v>2</v>
       </c>
-      <c r="C22" s="103" t="s">
-        <v>821</v>
-      </c>
-      <c r="D22" s="103" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16">
-      <c r="A23" s="133">
-        <v>155</v>
-      </c>
-      <c r="B23" s="133">
-        <v>0</v>
-      </c>
-      <c r="C23" s="103" t="s">
+      <c r="C25" s="103" t="s">
+        <v>825</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="118">
+        <v>190</v>
+      </c>
+      <c r="B26" s="118">
+        <v>1</v>
+      </c>
+      <c r="C26" s="103" t="s">
         <v>823</v>
       </c>
-      <c r="D23" s="136" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="133">
-        <v>160</v>
-      </c>
-      <c r="B24" s="133">
-        <v>1</v>
-      </c>
-      <c r="C24" s="103" t="s">
-        <v>824</v>
-      </c>
-      <c r="D24" s="103" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="133">
-        <v>189</v>
-      </c>
-      <c r="B25" s="133">
-        <v>2</v>
-      </c>
-      <c r="C25" s="103" t="s">
-        <v>826</v>
-      </c>
-      <c r="D25" s="103" t="s">
+      <c r="D26" s="103" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="133">
-        <v>190</v>
-      </c>
-      <c r="B26" s="133">
-        <v>1</v>
-      </c>
-      <c r="C26" s="103" t="s">
-        <v>824</v>
-      </c>
-      <c r="D26" s="103" t="s">
-        <v>828</v>
-      </c>
-    </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="134"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="134"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="119"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="134"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="134"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="119"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="134"/>
-      <c r="B29" s="135"/>
-      <c r="C29" s="134"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="119"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="134"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="134"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="119"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="134"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="134"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="119"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="134"/>
-      <c r="B32" s="135"/>
-      <c r="C32" s="134"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="120"/>
+      <c r="C32" s="119"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="134"/>
-      <c r="B33" s="135"/>
-      <c r="C33" s="134"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="119"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="134"/>
-      <c r="B34" s="135"/>
-      <c r="C34" s="134"/>
+      <c r="A34" s="119"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="119"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="134"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="134"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="119"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="134"/>
-      <c r="B36" s="135"/>
-      <c r="C36" s="134"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="119"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="134"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="134"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="119"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="134"/>
-      <c r="B38" s="135"/>
-      <c r="C38" s="134"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="119"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="134"/>
-      <c r="B39" s="135"/>
-      <c r="C39" s="135"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="120"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFBD134-8B8C-B546-8AD6-95301E4ACC99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC657A47-59F6-314E-B37B-6B7B8ED5F17D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="4420" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="4700" windowWidth="32920" windowHeight="18240" tabRatio="991" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="838">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2536,6 +2536,30 @@
   </si>
   <si>
     <t>Processing Request</t>
+  </si>
+  <si>
+    <t>internalMCHUser_OLB.Viewer</t>
+  </si>
+  <si>
+    <t>Internal MCH user created in OLB with view access to acc sensitive operations</t>
+  </si>
+  <si>
+    <t>internalMCHUser_OLB.Creator</t>
+  </si>
+  <si>
+    <t>Internal MCH user created in OLB. Create with all access to acc sensitive operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init Mask IX in OLB created user non-sensitive operations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init Mask X in OLB created user ñ passive account sensitive operations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init Mask XI in OLB created user ñ active account sensitive operations </t>
+  </si>
+  <si>
+    <t>Init mask XII with rights for user administration in OLB</t>
   </si>
 </sst>
 </file>
@@ -2547,7 +2571,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2768,6 +2792,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2911,7 +2956,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3176,6 +3221,29 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3194,29 +3262,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="4" xr:uid="{345D5794-06C6-344F-8A75-BED4E4ADCEFA}"/>
@@ -4279,22 +4333,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4304,66 +4358,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="124">
+      <c r="H8" s="133">
         <v>2</v>
       </c>
-      <c r="I8" s="124"/>
+      <c r="I8" s="133"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4381,325 +4435,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="128" t="s">
+      <c r="H13" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="128"/>
+      <c r="I13" s="130"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="129" t="s">
+      <c r="H14" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="129"/>
+      <c r="I14" s="128"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="129" t="s">
+      <c r="C15" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="129" t="s">
+      <c r="H15" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="129"/>
+      <c r="I15" s="128"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="129" t="s">
+      <c r="H16" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="129"/>
+      <c r="I16" s="128"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="129" t="s">
+      <c r="H17" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="129"/>
+      <c r="I17" s="128"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="129" t="s">
+      <c r="C18" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="129" t="s">
+      <c r="H18" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="129"/>
+      <c r="I18" s="128"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="129" t="s">
+      <c r="H19" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="129"/>
+      <c r="I19" s="128"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="129" t="s">
+      <c r="H20" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="129"/>
+      <c r="I20" s="128"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="129" t="s">
+      <c r="H21" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="129"/>
+      <c r="I21" s="128"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="129" t="s">
+      <c r="C22" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="129" t="s">
+      <c r="H22" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="129"/>
+      <c r="I22" s="128"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="129" t="s">
+      <c r="C23" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="129" t="s">
+      <c r="H23" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="129"/>
+      <c r="I23" s="128"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="129" t="s">
+      <c r="C24" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="129" t="s">
+      <c r="H24" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="129"/>
+      <c r="I24" s="128"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="131" t="s">
+      <c r="C25" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="131" t="s">
+      <c r="H25" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="131"/>
+      <c r="I25" s="125"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="131" t="s">
+      <c r="C26" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="131" t="s">
+      <c r="H26" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="131"/>
+      <c r="I26" s="125"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="131" t="s">
+      <c r="C27" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="131" t="s">
+      <c r="H27" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="131"/>
+      <c r="I27" s="125"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="131" t="s">
+      <c r="C28" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="131" t="s">
+      <c r="H28" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="131"/>
+      <c r="I28" s="125"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="131" t="s">
+      <c r="C29" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="131" t="s">
+      <c r="H29" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="131"/>
+      <c r="I29" s="125"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="131" t="s">
+      <c r="C30" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="131"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4712,413 +4766,512 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="131" t="s">
+      <c r="C31" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="131" t="s">
+      <c r="H31" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="131"/>
+      <c r="I31" s="125"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="132" t="s">
+      <c r="C32" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="131" t="s">
+      <c r="H32" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="131"/>
+      <c r="I32" s="125"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="133" t="s">
+      <c r="C33" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="133"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="133" t="s">
+      <c r="H33" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="133"/>
+      <c r="I33" s="126"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="133" t="s">
+      <c r="C34" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="133"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="133"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="133" t="s">
+      <c r="H34" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="133"/>
+      <c r="I34" s="126"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="134" t="s">
+      <c r="C35" s="123" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="131" t="s">
+      <c r="H35" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="131"/>
+      <c r="I35" s="125"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="131"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="131"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="135"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="122"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="131"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="135"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="135"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="131"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="122"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="131"/>
-      <c r="I41" s="131"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="131"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="131"/>
-      <c r="I43" s="131"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="135"/>
-      <c r="F44" s="135"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="131"/>
-      <c r="I44" s="131"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="135"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="135"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="131"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="135"/>
-      <c r="F46" s="135"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="131"/>
-      <c r="I46" s="131"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="124"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="131"/>
-      <c r="I47" s="131"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="131"/>
-      <c r="I48" s="131"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="125"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="131"/>
-      <c r="I49" s="131"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="125"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="131"/>
-      <c r="I50" s="131"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="135"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="135"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
+      <c r="H51" s="123"/>
+      <c r="I51" s="123"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="135"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="135"/>
-      <c r="F52" s="135"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="134"/>
-      <c r="I52" s="134"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="123"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="135"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="122"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="122"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="134"/>
-      <c r="I53" s="134"/>
+      <c r="H53" s="123"/>
+      <c r="I53" s="123"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="135"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="135"/>
-      <c r="F54" s="135"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="134"/>
-      <c r="I54" s="134"/>
+      <c r="H54" s="123"/>
+      <c r="I54" s="123"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="135"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="135"/>
-      <c r="F55" s="135"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="134"/>
-      <c r="I55" s="134"/>
+      <c r="H55" s="123"/>
+      <c r="I55" s="123"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="135"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="134"/>
-      <c r="I56" s="134"/>
+      <c r="H56" s="123"/>
+      <c r="I56" s="123"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="135"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="135"/>
-      <c r="F57" s="135"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="134"/>
-      <c r="I57" s="134"/>
+      <c r="H57" s="123"/>
+      <c r="I57" s="123"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="135"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="135"/>
-      <c r="F58" s="135"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="134"/>
-      <c r="I58" s="134"/>
+      <c r="H58" s="123"/>
+      <c r="I58" s="123"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="135"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="135"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="122"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="134"/>
-      <c r="I59" s="134"/>
+      <c r="H59" s="123"/>
+      <c r="I59" s="123"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="135"/>
-      <c r="D60" s="135"/>
-      <c r="E60" s="135"/>
-      <c r="F60" s="135"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="122"/>
+      <c r="F60" s="122"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="135"/>
-      <c r="I60" s="135"/>
+      <c r="H60" s="122"/>
+      <c r="I60" s="122"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="135"/>
-      <c r="D61" s="135"/>
-      <c r="E61" s="135"/>
-      <c r="F61" s="135"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="122"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="122"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="135"/>
-      <c r="I61" s="135"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="122"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="135"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="135"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
+      <c r="E62" s="122"/>
+      <c r="F62" s="122"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="135"/>
-      <c r="I62" s="135"/>
+      <c r="H62" s="122"/>
+      <c r="I62" s="122"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="135"/>
-      <c r="D63" s="135"/>
-      <c r="E63" s="135"/>
-      <c r="F63" s="135"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
+      <c r="E63" s="122"/>
+      <c r="F63" s="122"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="135"/>
-      <c r="I63" s="135"/>
+      <c r="H63" s="122"/>
+      <c r="I63" s="122"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="135"/>
-      <c r="D64" s="135"/>
-      <c r="E64" s="135"/>
-      <c r="F64" s="135"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="122"/>
+      <c r="E64" s="122"/>
+      <c r="F64" s="122"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="135"/>
-      <c r="I64" s="135"/>
+      <c r="H64" s="122"/>
+      <c r="I64" s="122"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="135"/>
-      <c r="D65" s="135"/>
-      <c r="E65" s="135"/>
-      <c r="F65" s="135"/>
+      <c r="C65" s="122"/>
+      <c r="D65" s="122"/>
+      <c r="E65" s="122"/>
+      <c r="F65" s="122"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="135"/>
-      <c r="I65" s="135"/>
+      <c r="H65" s="122"/>
+      <c r="I65" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5135,105 +5288,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -14247,7 +14301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7FFDE4-6871-164E-A3DC-9C2170575FD3}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -15755,10 +15809,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:E24"/>
+      <selection activeCell="A24" sqref="A24:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -16098,6 +16152,40 @@
       </c>
       <c r="F24" s="88"/>
     </row>
+    <row r="25" spans="1:6" ht="64">
+      <c r="A25" s="137">
+        <v>9</v>
+      </c>
+      <c r="B25" s="138" t="s">
+        <v>830</v>
+      </c>
+      <c r="C25" s="139">
+        <v>0</v>
+      </c>
+      <c r="D25" s="140">
+        <v>1</v>
+      </c>
+      <c r="E25" s="140" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="80">
+      <c r="A26" s="137">
+        <v>10</v>
+      </c>
+      <c r="B26" s="138" t="s">
+        <v>832</v>
+      </c>
+      <c r="C26" s="139">
+        <v>0</v>
+      </c>
+      <c r="D26" s="140">
+        <v>1</v>
+      </c>
+      <c r="E26" s="140" t="s">
+        <v>833</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -16106,10 +16194,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -16360,6 +16448,62 @@
       </c>
       <c r="D24" s="22" t="s">
         <v>763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="141">
+        <v>9</v>
+      </c>
+      <c r="B25" s="141">
+        <v>0</v>
+      </c>
+      <c r="C25" s="141">
+        <v>1</v>
+      </c>
+      <c r="D25" s="141" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="141">
+        <v>10</v>
+      </c>
+      <c r="B26" s="141">
+        <v>0</v>
+      </c>
+      <c r="C26" s="141">
+        <v>1</v>
+      </c>
+      <c r="D26" s="141" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="141">
+        <v>11</v>
+      </c>
+      <c r="B27" s="141">
+        <v>0</v>
+      </c>
+      <c r="C27" s="141">
+        <v>1</v>
+      </c>
+      <c r="D27" s="141" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>837</v>
       </c>
     </row>
   </sheetData>

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC657A47-59F6-314E-B37B-6B7B8ED5F17D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB3066E-9000-9B43-938E-36DA021D6370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="4700" windowWidth="32920" windowHeight="18240" tabRatio="991" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3221,29 +3221,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3262,15 +3248,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="4" xr:uid="{345D5794-06C6-344F-8A75-BED4E4ADCEFA}"/>
@@ -4333,22 +4333,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4358,66 +4358,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="133">
+      <c r="H8" s="129">
         <v>2</v>
       </c>
-      <c r="I8" s="133"/>
+      <c r="I8" s="129"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4435,325 +4435,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="130" t="s">
+      <c r="H13" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="130"/>
+      <c r="I13" s="133"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="128" t="s">
+      <c r="H14" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="128"/>
+      <c r="I14" s="134"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="128" t="s">
+      <c r="H15" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="128"/>
+      <c r="I15" s="134"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="128" t="s">
+      <c r="H16" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="128"/>
+      <c r="I16" s="134"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="128" t="s">
+      <c r="C17" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="128" t="s">
+      <c r="H17" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="128"/>
+      <c r="I17" s="134"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="128" t="s">
+      <c r="H18" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="128"/>
+      <c r="I18" s="134"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="128" t="s">
+      <c r="H19" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="128"/>
+      <c r="I19" s="134"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="128" t="s">
+      <c r="H20" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="128"/>
+      <c r="I20" s="134"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="128" t="s">
+      <c r="H21" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="128"/>
+      <c r="I21" s="134"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="128" t="s">
+      <c r="H22" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="128"/>
+      <c r="I22" s="134"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="128" t="s">
+      <c r="H23" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="128"/>
+      <c r="I23" s="134"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="128" t="s">
+      <c r="C24" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="128" t="s">
+      <c r="H24" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="128"/>
+      <c r="I24" s="134"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="125" t="s">
+      <c r="C25" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="125" t="s">
+      <c r="H25" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="125"/>
+      <c r="I25" s="136"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="125" t="s">
+      <c r="C26" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="125" t="s">
+      <c r="H26" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="125"/>
+      <c r="I26" s="136"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="125" t="s">
+      <c r="C27" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="125" t="s">
+      <c r="H27" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="125"/>
+      <c r="I27" s="136"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="125" t="s">
+      <c r="C28" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="125" t="s">
+      <c r="H28" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="125"/>
+      <c r="I28" s="136"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="125" t="s">
+      <c r="C29" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="125" t="s">
+      <c r="H29" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="125"/>
+      <c r="I29" s="136"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="125" t="s">
+      <c r="C30" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4766,512 +4766,413 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="125" t="s">
+      <c r="C31" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="125" t="s">
+      <c r="H31" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="125"/>
+      <c r="I31" s="136"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="127" t="s">
+      <c r="C32" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="125" t="s">
+      <c r="H32" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="125"/>
+      <c r="I32" s="136"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="126" t="s">
+      <c r="C33" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="126" t="s">
+      <c r="H33" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="126"/>
+      <c r="I33" s="138"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="126" t="s">
+      <c r="C34" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="126" t="s">
+      <c r="H34" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="126"/>
+      <c r="I34" s="138"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="123" t="s">
+      <c r="C35" s="139" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="125" t="s">
+      <c r="H35" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="125"/>
+      <c r="I35" s="136"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="140"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="123"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="136"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="139"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="125"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="136"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="122"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="140"/>
+      <c r="F39" s="140"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="125"/>
+      <c r="H39" s="136"/>
+      <c r="I39" s="136"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="140"/>
+      <c r="F40" s="140"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="125"/>
+      <c r="H40" s="136"/>
+      <c r="I40" s="136"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="122"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="140"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="122"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="140"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="122"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="122"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="140"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="125"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="140"/>
+      <c r="F44" s="140"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
+      <c r="H44" s="136"/>
+      <c r="I44" s="136"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="122"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="140"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="122"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="140"/>
+      <c r="F46" s="140"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="124"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="141"/>
+      <c r="E47" s="141"/>
+      <c r="F47" s="141"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="125"/>
+      <c r="H47" s="136"/>
+      <c r="I47" s="136"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
+      <c r="C48" s="141"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="141"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="125"/>
-      <c r="I48" s="125"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="136"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
+      <c r="C49" s="141"/>
+      <c r="D49" s="141"/>
+      <c r="E49" s="141"/>
+      <c r="F49" s="141"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="125"/>
-      <c r="I49" s="125"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="141"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="125"/>
+      <c r="H50" s="136"/>
+      <c r="I50" s="136"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="140"/>
+      <c r="F51" s="140"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="123"/>
+      <c r="H51" s="139"/>
+      <c r="I51" s="139"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="122"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="122"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="140"/>
+      <c r="F52" s="140"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
+      <c r="H52" s="139"/>
+      <c r="I52" s="139"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="122"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="140"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="123"/>
-      <c r="I53" s="123"/>
+      <c r="H53" s="139"/>
+      <c r="I53" s="139"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="122"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="122"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="140"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="123"/>
-      <c r="I54" s="123"/>
+      <c r="H54" s="139"/>
+      <c r="I54" s="139"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="122"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="140"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="123"/>
-      <c r="I55" s="123"/>
+      <c r="H55" s="139"/>
+      <c r="I55" s="139"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="122"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="122"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="140"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="123"/>
-      <c r="I56" s="123"/>
+      <c r="H56" s="139"/>
+      <c r="I56" s="139"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="122"/>
-      <c r="D57" s="122"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="140"/>
+      <c r="F57" s="140"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="123"/>
-      <c r="I57" s="123"/>
+      <c r="H57" s="139"/>
+      <c r="I57" s="139"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="122"/>
-      <c r="D58" s="122"/>
-      <c r="E58" s="122"/>
-      <c r="F58" s="122"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="140"/>
+      <c r="F58" s="140"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="123"/>
-      <c r="I58" s="123"/>
+      <c r="H58" s="139"/>
+      <c r="I58" s="139"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="122"/>
-      <c r="D59" s="122"/>
-      <c r="E59" s="122"/>
-      <c r="F59" s="122"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="140"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="123"/>
-      <c r="I59" s="123"/>
+      <c r="H59" s="139"/>
+      <c r="I59" s="139"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="122"/>
-      <c r="D60" s="122"/>
-      <c r="E60" s="122"/>
-      <c r="F60" s="122"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="140"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="122"/>
-      <c r="I60" s="122"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="140"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="122"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="140"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="122"/>
+      <c r="H61" s="140"/>
+      <c r="I61" s="140"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="122"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="122"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="140"/>
+      <c r="E62" s="140"/>
+      <c r="F62" s="140"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="122"/>
-      <c r="I62" s="122"/>
+      <c r="H62" s="140"/>
+      <c r="I62" s="140"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="122"/>
-      <c r="D63" s="122"/>
-      <c r="E63" s="122"/>
-      <c r="F63" s="122"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="140"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="122"/>
-      <c r="I63" s="122"/>
+      <c r="H63" s="140"/>
+      <c r="I63" s="140"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="122"/>
-      <c r="E64" s="122"/>
-      <c r="F64" s="122"/>
+      <c r="C64" s="140"/>
+      <c r="D64" s="140"/>
+      <c r="E64" s="140"/>
+      <c r="F64" s="140"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="122"/>
-      <c r="I64" s="122"/>
+      <c r="H64" s="140"/>
+      <c r="I64" s="140"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="122"/>
-      <c r="E65" s="122"/>
-      <c r="F65" s="122"/>
+      <c r="C65" s="140"/>
+      <c r="D65" s="140"/>
+      <c r="E65" s="140"/>
+      <c r="F65" s="140"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="122"/>
-      <c r="I65" s="122"/>
+      <c r="H65" s="140"/>
+      <c r="I65" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5288,6 +5189,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -16153,36 +16153,36 @@
       <c r="F24" s="88"/>
     </row>
     <row r="25" spans="1:6" ht="64">
-      <c r="A25" s="137">
+      <c r="A25" s="122">
         <v>9</v>
       </c>
-      <c r="B25" s="138" t="s">
+      <c r="B25" s="123" t="s">
         <v>830</v>
       </c>
-      <c r="C25" s="139">
+      <c r="C25" s="124">
         <v>0</v>
       </c>
-      <c r="D25" s="140">
-        <v>1</v>
-      </c>
-      <c r="E25" s="140" t="s">
+      <c r="D25" s="125">
+        <v>1</v>
+      </c>
+      <c r="E25" s="125" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="80">
-      <c r="A26" s="137">
+      <c r="A26" s="122">
         <v>10</v>
       </c>
-      <c r="B26" s="138" t="s">
+      <c r="B26" s="123" t="s">
         <v>832</v>
       </c>
-      <c r="C26" s="139">
+      <c r="C26" s="124">
         <v>0</v>
       </c>
-      <c r="D26" s="140">
-        <v>1</v>
-      </c>
-      <c r="E26" s="140" t="s">
+      <c r="D26" s="125">
+        <v>1</v>
+      </c>
+      <c r="E26" s="125" t="s">
         <v>833</v>
       </c>
     </row>
@@ -16451,44 +16451,44 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="141">
+      <c r="A25" s="126">
         <v>9</v>
       </c>
-      <c r="B25" s="141">
+      <c r="B25" s="126">
         <v>0</v>
       </c>
-      <c r="C25" s="141">
-        <v>1</v>
-      </c>
-      <c r="D25" s="141" t="s">
+      <c r="C25" s="126">
+        <v>1</v>
+      </c>
+      <c r="D25" s="126" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="141">
+      <c r="A26" s="126">
         <v>10</v>
       </c>
-      <c r="B26" s="141">
+      <c r="B26" s="126">
         <v>0</v>
       </c>
-      <c r="C26" s="141">
-        <v>1</v>
-      </c>
-      <c r="D26" s="141" t="s">
+      <c r="C26" s="126">
+        <v>1</v>
+      </c>
+      <c r="D26" s="126" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="141">
+      <c r="A27" s="126">
         <v>11</v>
       </c>
-      <c r="B27" s="141">
+      <c r="B27" s="126">
         <v>0</v>
       </c>
-      <c r="C27" s="141">
-        <v>1</v>
-      </c>
-      <c r="D27" s="141" t="s">
+      <c r="C27" s="126">
+        <v>1</v>
+      </c>
+      <c r="D27" s="126" t="s">
         <v>836</v>
       </c>
     </row>
@@ -16518,10 +16518,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="A30:G30"/>
+      <selection activeCell="A17" sqref="A17:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -17002,6 +17002,238 @@
       </c>
       <c r="G30">
         <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>24</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>25</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB3066E-9000-9B43-938E-36DA021D6370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B77DB7-4252-BC45-A7EC-6F9A8AB21758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4700" windowWidth="32920" windowHeight="18240" tabRatio="991" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9680" yWindow="820" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="841">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2328,9 +2328,6 @@
     <t>ATM Location</t>
   </si>
   <si>
-    <t>LINE_OF_CREDIT</t>
-  </si>
-  <si>
     <t>customer.account.roles.Business Signer RO</t>
   </si>
   <si>
@@ -2560,6 +2557,18 @@
   </si>
   <si>
     <t>Init mask XII with rights for user administration in OLB</t>
+  </si>
+  <si>
+    <t>popio</t>
+  </si>
+  <si>
+    <t>POPio virtual branch</t>
+  </si>
+  <si>
+    <t>CONSUMER_LOAN</t>
+  </si>
+  <si>
+    <t>VARIABLE_LOAN</t>
   </si>
 </sst>
 </file>
@@ -2956,7 +2965,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3230,6 +3239,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3248,29 +3280,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="4" xr:uid="{345D5794-06C6-344F-8A75-BED4E4ADCEFA}"/>
@@ -4333,22 +4343,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4358,66 +4368,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="129">
+      <c r="H8" s="138">
         <v>2</v>
       </c>
-      <c r="I8" s="129"/>
+      <c r="I8" s="138"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4435,325 +4445,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="133" t="s">
+      <c r="H13" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="133"/>
+      <c r="I13" s="135"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="134" t="s">
+      <c r="H14" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="134"/>
+      <c r="I14" s="133"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="134" t="s">
+      <c r="H15" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="134"/>
+      <c r="I15" s="133"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="134" t="s">
+      <c r="C16" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="134" t="s">
+      <c r="H16" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="134"/>
+      <c r="I16" s="133"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="134" t="s">
+      <c r="C17" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="134" t="s">
+      <c r="H17" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="134"/>
+      <c r="I17" s="133"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="134" t="s">
+      <c r="H18" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="134"/>
+      <c r="I18" s="133"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="134" t="s">
+      <c r="H19" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="134"/>
+      <c r="I19" s="133"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="134" t="s">
+      <c r="H20" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="134"/>
+      <c r="I20" s="133"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="134" t="s">
+      <c r="H21" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="134"/>
+      <c r="I21" s="133"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="134" t="s">
+      <c r="H22" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="134"/>
+      <c r="I22" s="133"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="134" t="s">
+      <c r="C23" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="134" t="s">
+      <c r="H23" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="134"/>
+      <c r="I23" s="133"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="134" t="s">
+      <c r="C24" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="134" t="s">
+      <c r="H24" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="134"/>
+      <c r="I24" s="133"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="136" t="s">
+      <c r="C25" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="136" t="s">
+      <c r="H25" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="136"/>
+      <c r="I25" s="130"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="136" t="s">
+      <c r="C26" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="136"/>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="136" t="s">
+      <c r="H26" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="136"/>
+      <c r="I26" s="130"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="136" t="s">
+      <c r="C27" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="136" t="s">
+      <c r="H27" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="136"/>
+      <c r="I27" s="130"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="136" t="s">
+      <c r="H28" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="136"/>
+      <c r="I28" s="130"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="136" t="s">
+      <c r="C29" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="136" t="s">
+      <c r="H29" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="136"/>
+      <c r="I29" s="130"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="136" t="s">
+      <c r="C30" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4766,413 +4776,512 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="136" t="s">
+      <c r="C31" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="136" t="s">
+      <c r="H31" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="136"/>
+      <c r="I31" s="130"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="137" t="s">
+      <c r="C32" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="136" t="s">
+      <c r="H32" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="136"/>
+      <c r="I32" s="130"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="138" t="s">
+      <c r="C33" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="138" t="s">
+      <c r="H33" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="138"/>
+      <c r="I33" s="131"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="138" t="s">
+      <c r="C34" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="138"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="138"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="138" t="s">
+      <c r="H34" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="138"/>
+      <c r="I34" s="131"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="139" t="s">
+      <c r="C35" s="128" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="136" t="s">
+      <c r="H35" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="136"/>
+      <c r="I35" s="130"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="140"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="136"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="130"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="136"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="130"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="136"/>
-      <c r="I38" s="136"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="140"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="140"/>
-      <c r="F39" s="140"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="136"/>
-      <c r="I39" s="136"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="140"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="136"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="136"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="140"/>
-      <c r="F42" s="140"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="130"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="140"/>
-      <c r="F43" s="140"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="127"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="136"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="140"/>
-      <c r="F44" s="140"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="127"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="136"/>
-      <c r="I44" s="136"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="127"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="140"/>
-      <c r="F46" s="140"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="136"/>
-      <c r="I46" s="136"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="141"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="129"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="136"/>
-      <c r="I47" s="136"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="130"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="136"/>
-      <c r="I48" s="136"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="130"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="141"/>
-      <c r="D49" s="141"/>
-      <c r="E49" s="141"/>
-      <c r="F49" s="141"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="141"/>
-      <c r="D50" s="141"/>
-      <c r="E50" s="141"/>
-      <c r="F50" s="141"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="136"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="140"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="140"/>
-      <c r="F51" s="140"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="139"/>
-      <c r="I51" s="139"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="128"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="140"/>
-      <c r="D52" s="140"/>
-      <c r="E52" s="140"/>
-      <c r="F52" s="140"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="139"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="128"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="140"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="140"/>
-      <c r="F53" s="140"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="139"/>
-      <c r="I53" s="139"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="128"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="140"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="140"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="127"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="139"/>
-      <c r="I54" s="139"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="128"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="140"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="140"/>
-      <c r="F55" s="140"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="127"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="139"/>
-      <c r="I55" s="139"/>
+      <c r="H55" s="128"/>
+      <c r="I55" s="128"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="140"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="140"/>
-      <c r="F56" s="140"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="127"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="139"/>
-      <c r="I56" s="139"/>
+      <c r="H56" s="128"/>
+      <c r="I56" s="128"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="140"/>
-      <c r="F57" s="140"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="139"/>
-      <c r="I57" s="139"/>
+      <c r="H57" s="128"/>
+      <c r="I57" s="128"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="140"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="140"/>
-      <c r="F58" s="140"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="127"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="139"/>
-      <c r="I58" s="139"/>
+      <c r="H58" s="128"/>
+      <c r="I58" s="128"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="140"/>
-      <c r="F59" s="140"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="127"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="139"/>
-      <c r="I59" s="139"/>
+      <c r="H59" s="128"/>
+      <c r="I59" s="128"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="140"/>
+      <c r="C60" s="127"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="127"/>
+      <c r="F60" s="127"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="140"/>
+      <c r="H60" s="127"/>
+      <c r="I60" s="127"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="140"/>
+      <c r="C61" s="127"/>
+      <c r="D61" s="127"/>
+      <c r="E61" s="127"/>
+      <c r="F61" s="127"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="140"/>
-      <c r="I61" s="140"/>
+      <c r="H61" s="127"/>
+      <c r="I61" s="127"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
+      <c r="C62" s="127"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="127"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="140"/>
+      <c r="H62" s="127"/>
+      <c r="I62" s="127"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="140"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="127"/>
+      <c r="E63" s="127"/>
+      <c r="F63" s="127"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="140"/>
-      <c r="I63" s="140"/>
+      <c r="H63" s="127"/>
+      <c r="I63" s="127"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="140"/>
-      <c r="E64" s="140"/>
-      <c r="F64" s="140"/>
+      <c r="C64" s="127"/>
+      <c r="D64" s="127"/>
+      <c r="E64" s="127"/>
+      <c r="F64" s="127"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="140"/>
-      <c r="I64" s="140"/>
+      <c r="H64" s="127"/>
+      <c r="I64" s="127"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="140"/>
-      <c r="D65" s="140"/>
-      <c r="E65" s="140"/>
-      <c r="F65" s="140"/>
+      <c r="C65" s="127"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="127"/>
+      <c r="F65" s="127"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="140"/>
-      <c r="I65" s="140"/>
+      <c r="H65" s="127"/>
+      <c r="I65" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5189,105 +5298,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8637,8 +8647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:XFD93"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10577,16 +10587,16 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF13EBBF-2D46-4C4B-8786-27077A6A9849}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="96">
@@ -10709,8 +10719,8 @@
       <c r="B17" s="73">
         <v>166</v>
       </c>
-      <c r="C17" s="73" t="s">
-        <v>760</v>
+      <c r="C17" s="142" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -10720,8 +10730,8 @@
       <c r="B18" s="73">
         <v>171</v>
       </c>
-      <c r="C18" s="73" t="s">
-        <v>760</v>
+      <c r="C18" s="142" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -10731,8 +10741,8 @@
       <c r="B19" s="73">
         <v>173</v>
       </c>
-      <c r="C19" s="73" t="s">
-        <v>760</v>
+      <c r="C19" s="142" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -10742,8 +10752,8 @@
       <c r="B20" s="73">
         <v>174</v>
       </c>
-      <c r="C20" s="73" t="s">
-        <v>760</v>
+      <c r="C20" s="142" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -10753,8 +10763,8 @@
       <c r="B21" s="73">
         <v>175</v>
       </c>
-      <c r="C21" s="73" t="s">
-        <v>760</v>
+      <c r="C21" s="142" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -10764,8 +10774,8 @@
       <c r="B22" s="73">
         <v>176</v>
       </c>
-      <c r="C22" s="73" t="s">
-        <v>760</v>
+      <c r="C22" s="142" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -10775,8 +10785,107 @@
       <c r="B23" s="73">
         <v>177</v>
       </c>
-      <c r="C23" s="73" t="s">
-        <v>760</v>
+      <c r="C23" s="142" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="73">
+        <v>163</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="73">
+        <v>164</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="73">
+        <v>165</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="73">
+        <v>167</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="73">
+        <v>168</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="73">
+        <v>169</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" s="73">
+        <v>170</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="73">
+        <v>172</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="73">
+        <v>178</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -11765,8 +11874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12590,7 +12699,7 @@
         <v>501</v>
       </c>
       <c r="B48" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D48" s="57">
         <v>1</v>
@@ -12656,10 +12765,10 @@
     </row>
     <row r="51" spans="1:8" ht="18">
       <c r="A51" s="92" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B51" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D51" s="57">
         <v>1</v>
@@ -12674,7 +12783,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="86" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -12790,7 +12899,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -12823,7 +12932,7 @@
     </row>
     <row r="14" spans="1:5" ht="16">
       <c r="A14" s="109" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B14" s="109" t="s">
         <v>494</v>
@@ -12854,16 +12963,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="60" t="s">
+        <v>794</v>
+      </c>
+      <c r="B17" s="64" t="s">
         <v>795</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>796</v>
       </c>
       <c r="C17" s="111" t="s">
         <v>498</v>
       </c>
       <c r="D17" s="111" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E17" s="60">
         <v>1</v>
@@ -12871,13 +12980,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="60" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B18" t="s">
+        <v>797</v>
+      </c>
+      <c r="C18" s="111" t="s">
         <v>798</v>
-      </c>
-      <c r="C18" s="111" t="s">
-        <v>799</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -12885,16 +12994,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>799</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>797</v>
+      </c>
+      <c r="C19" s="111" t="s">
+        <v>798</v>
+      </c>
+      <c r="D19" s="111" t="s">
         <v>800</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>798</v>
-      </c>
-      <c r="C19" s="111" t="s">
-        <v>799</v>
-      </c>
-      <c r="D19" s="111" t="s">
-        <v>801</v>
       </c>
       <c r="E19" s="60">
         <v>1</v>
@@ -12903,13 +13012,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B20" t="s">
+        <v>801</v>
+      </c>
+      <c r="C20" s="111" t="s">
         <v>802</v>
-      </c>
-      <c r="C20" s="111" t="s">
-        <v>803</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -13508,10 +13617,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D94DE1-7D84-A341-BE73-C0E2285BF343}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13750,13 +13859,24 @@
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18" s="86" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>757</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>768</v>
+        <v>767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18">
+      <c r="A19" s="86" t="s">
+        <v>837</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>757</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -13794,7 +13914,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="94" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D1" s="96"/>
     </row>
@@ -13803,7 +13923,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D2" s="96"/>
     </row>
@@ -13830,7 +13950,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D5" s="96"/>
     </row>
@@ -13867,7 +13987,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D10" s="96"/>
     </row>
@@ -13897,31 +14017,31 @@
         <v>350</v>
       </c>
       <c r="B14" s="102" t="s">
+        <v>771</v>
+      </c>
+      <c r="C14" s="102" t="s">
         <v>772</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="D14" s="102" t="s">
         <v>773</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="E14" s="102" t="s">
         <v>774</v>
       </c>
-      <c r="E14" s="102" t="s">
+      <c r="F14" s="102" t="s">
         <v>775</v>
       </c>
-      <c r="F14" s="102" t="s">
+      <c r="G14" s="102" t="s">
         <v>776</v>
       </c>
-      <c r="G14" s="102" t="s">
+      <c r="H14" s="102" t="s">
         <v>777</v>
       </c>
-      <c r="H14" s="102" t="s">
+      <c r="I14" s="102" t="s">
         <v>778</v>
       </c>
-      <c r="I14" s="102" t="s">
+      <c r="J14" s="102" t="s">
         <v>779</v>
-      </c>
-      <c r="J14" s="102" t="s">
-        <v>780</v>
       </c>
       <c r="K14" s="102"/>
     </row>
@@ -13956,19 +14076,19 @@
         <v>0</v>
       </c>
       <c r="B17" s="95" t="s">
+        <v>780</v>
+      </c>
+      <c r="C17" s="95" t="s">
         <v>781</v>
-      </c>
-      <c r="C17" s="95" t="s">
-        <v>782</v>
       </c>
       <c r="D17" s="95">
         <v>371</v>
       </c>
       <c r="F17" s="95" t="s">
+        <v>782</v>
+      </c>
+      <c r="H17" s="95" t="s">
         <v>783</v>
-      </c>
-      <c r="H17" s="95" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -13976,19 +14096,19 @@
         <v>0</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C18" s="95" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D18" s="95">
         <v>371</v>
       </c>
       <c r="F18" s="95" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H18" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -13996,19 +14116,19 @@
         <v>0</v>
       </c>
       <c r="B19" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C19" s="95" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D19" s="95">
         <v>371</v>
       </c>
       <c r="F19" s="95" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H19" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14016,19 +14136,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C20" s="95" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D20" s="95">
         <v>371</v>
       </c>
       <c r="F20" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H20" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14036,19 +14156,19 @@
         <v>0</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C21" s="95" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D21" s="95">
         <v>313</v>
       </c>
       <c r="F21" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H21" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14056,19 +14176,19 @@
         <v>0</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C22" s="95" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D22" s="95">
         <v>313</v>
       </c>
       <c r="F22" s="95" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H22" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14076,19 +14196,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C23" s="95" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D23" s="95">
         <v>313</v>
       </c>
       <c r="F23" s="95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H23" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14096,19 +14216,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C24" s="95" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D24" s="95">
         <v>712</v>
       </c>
       <c r="F24" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H24" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -14116,19 +14236,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C25" s="95" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D25" s="95">
         <v>712</v>
       </c>
       <c r="F25" s="95" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H25" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -14136,19 +14256,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C26" s="95" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D26" s="95">
         <v>712</v>
       </c>
       <c r="F26" s="95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H26" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14156,19 +14276,19 @@
         <v>0</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C27" s="95" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D27" s="95">
         <v>316</v>
       </c>
       <c r="F27" s="95" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H27" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14176,19 +14296,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C28" s="95" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D28" s="95">
         <v>316</v>
       </c>
       <c r="F28" s="114" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H28" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -14196,19 +14316,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C29" s="95" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D29" s="95">
         <v>316</v>
       </c>
       <c r="F29" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H29" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -14216,19 +14336,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C30" s="95" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D30" s="95">
         <v>321</v>
       </c>
       <c r="F30" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H30" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -14236,19 +14356,19 @@
         <v>0</v>
       </c>
       <c r="B31" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C31" s="95" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D31" s="95">
         <v>321</v>
       </c>
       <c r="F31" s="95" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H31" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -14256,19 +14376,19 @@
         <v>0</v>
       </c>
       <c r="B32" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C32" s="95" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D32" s="95">
         <v>321</v>
       </c>
       <c r="F32" s="95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H32" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -14276,19 +14396,19 @@
         <v>0</v>
       </c>
       <c r="B33" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C33" s="95" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D33" s="103">
         <v>833</v>
       </c>
       <c r="F33" s="115" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H33" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -14321,7 +14441,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="96" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C1" s="96"/>
     </row>
@@ -14426,10 +14546,10 @@
         <v>347</v>
       </c>
       <c r="B14" s="102" t="s">
+        <v>806</v>
+      </c>
+      <c r="C14" s="102" t="s">
         <v>807</v>
-      </c>
-      <c r="C14" s="102" t="s">
-        <v>808</v>
       </c>
       <c r="D14" s="102" t="s">
         <v>300</v>
@@ -14437,10 +14557,10 @@
     </row>
     <row r="15" spans="1:4" ht="16">
       <c r="A15" s="116" t="s">
+        <v>808</v>
+      </c>
+      <c r="B15" s="116" t="s">
         <v>809</v>
-      </c>
-      <c r="B15" s="116" t="s">
-        <v>810</v>
       </c>
       <c r="C15" s="116"/>
       <c r="D15" s="116" t="s">
@@ -14450,7 +14570,7 @@
     <row r="16" spans="1:4" ht="16">
       <c r="A16" s="117"/>
       <c r="B16" s="117" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C16" s="117"/>
       <c r="D16" s="117" t="s">
@@ -14465,10 +14585,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="103" t="s">
+        <v>811</v>
+      </c>
+      <c r="D17" s="103" t="s">
         <v>812</v>
-      </c>
-      <c r="D17" s="103" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -14479,10 +14599,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="103" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D18" s="103" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -14493,10 +14613,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="103" t="s">
+        <v>814</v>
+      </c>
+      <c r="D19" s="103" t="s">
         <v>815</v>
-      </c>
-      <c r="D19" s="103" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16">
@@ -14507,10 +14627,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="103" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D20" s="121" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -14521,10 +14641,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="103" t="s">
+        <v>817</v>
+      </c>
+      <c r="D21" s="103" t="s">
         <v>818</v>
-      </c>
-      <c r="D21" s="103" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -14535,10 +14655,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="103" t="s">
+        <v>819</v>
+      </c>
+      <c r="D22" s="103" t="s">
         <v>820</v>
-      </c>
-      <c r="D22" s="103" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16">
@@ -14549,10 +14669,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="103" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D23" s="121" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -14563,10 +14683,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="103" t="s">
+        <v>822</v>
+      </c>
+      <c r="D24" s="103" t="s">
         <v>823</v>
-      </c>
-      <c r="D24" s="103" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -14577,10 +14697,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="103" t="s">
+        <v>824</v>
+      </c>
+      <c r="D25" s="103" t="s">
         <v>825</v>
-      </c>
-      <c r="D25" s="103" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -14591,10 +14711,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="103" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D26" s="103" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -16139,16 +16259,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="89" t="s">
+        <v>760</v>
+      </c>
+      <c r="C24" s="90">
+        <v>1</v>
+      </c>
+      <c r="D24" s="91">
+        <v>1</v>
+      </c>
+      <c r="E24" s="89" t="s">
         <v>761</v>
-      </c>
-      <c r="C24" s="90">
-        <v>1</v>
-      </c>
-      <c r="D24" s="91">
-        <v>1</v>
-      </c>
-      <c r="E24" s="89" t="s">
-        <v>762</v>
       </c>
       <c r="F24" s="88"/>
     </row>
@@ -16157,7 +16277,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="123" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C25" s="124">
         <v>0</v>
@@ -16166,7 +16286,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="125" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="80">
@@ -16174,7 +16294,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="123" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C26" s="124">
         <v>0</v>
@@ -16183,7 +16303,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="125" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -16196,8 +16316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -16447,7 +16567,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -16461,7 +16581,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="126" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -16475,7 +16595,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="126" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -16489,7 +16609,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="126" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -16503,7 +16623,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B77DB7-4252-BC45-A7EC-6F9A8AB21758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39F95AE-21DA-6645-A362-55FE993F9950}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="820" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10360" yWindow="2020" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <sheet name="DateIntervalLimits" sheetId="25" r:id="rId21"/>
     <sheet name="ClientTransactionStatusTypes" sheetId="27" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="847">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2569,6 +2569,24 @@
   </si>
   <si>
     <t>VARIABLE_LOAN</t>
+  </si>
+  <si>
+    <t>DAILYLIMIT</t>
+  </si>
+  <si>
+    <t>WEEKLYLIMIT</t>
+  </si>
+  <si>
+    <t>MONTHLYLIMIT</t>
+  </si>
+  <si>
+    <t>EN = daily limit</t>
+  </si>
+  <si>
+    <t>EN = weekly limit</t>
+  </si>
+  <si>
+    <t>EN = monthly limit</t>
   </si>
 </sst>
 </file>
@@ -2580,7 +2598,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2822,6 +2840,13 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2965,7 +2990,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3239,29 +3264,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3280,7 +3283,45 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="4" xr:uid="{345D5794-06C6-344F-8A75-BED4E4ADCEFA}"/>
@@ -4343,22 +4384,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4368,66 +4409,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="138">
+      <c r="H8" s="130">
         <v>2</v>
       </c>
-      <c r="I8" s="138"/>
+      <c r="I8" s="130"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="138" t="s">
+      <c r="C9" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4445,325 +4486,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="135" t="s">
+      <c r="H13" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="135"/>
+      <c r="I13" s="134"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="133" t="s">
+      <c r="H14" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="133"/>
+      <c r="I14" s="135"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="133" t="s">
+      <c r="H15" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="133"/>
+      <c r="I15" s="135"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="133" t="s">
+      <c r="H16" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="133"/>
+      <c r="I16" s="135"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="133" t="s">
+      <c r="H17" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="133"/>
+      <c r="I17" s="135"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="133" t="s">
+      <c r="H18" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="133"/>
+      <c r="I18" s="135"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="133" t="s">
+      <c r="H19" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="133"/>
+      <c r="I19" s="135"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="133" t="s">
+      <c r="H20" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="133"/>
+      <c r="I20" s="135"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="134" t="s">
+      <c r="C21" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="133" t="s">
+      <c r="H21" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="133"/>
+      <c r="I21" s="135"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="133" t="s">
+      <c r="H22" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="133"/>
+      <c r="I22" s="135"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="133" t="s">
+      <c r="C23" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="133" t="s">
+      <c r="H23" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="133"/>
+      <c r="I23" s="135"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="133" t="s">
+      <c r="C24" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="133" t="s">
+      <c r="H24" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="133"/>
+      <c r="I24" s="135"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="130" t="s">
+      <c r="C25" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="130" t="s">
+      <c r="H25" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="130"/>
+      <c r="I25" s="137"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="130" t="s">
+      <c r="H26" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="130"/>
+      <c r="I26" s="137"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="130" t="s">
+      <c r="C27" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="130" t="s">
+      <c r="H27" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="130"/>
+      <c r="I27" s="137"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="130" t="s">
+      <c r="C28" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="130" t="s">
+      <c r="H28" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="130"/>
+      <c r="I28" s="137"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="130" t="s">
+      <c r="C29" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="130" t="s">
+      <c r="H29" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="130"/>
+      <c r="I29" s="137"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="130" t="s">
+      <c r="C30" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4776,512 +4817,413 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="130" t="s">
+      <c r="C31" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="130" t="s">
+      <c r="H31" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="130"/>
+      <c r="I31" s="137"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="132" t="s">
+      <c r="C32" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="130" t="s">
+      <c r="H32" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="130"/>
+      <c r="I32" s="137"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="131" t="s">
+      <c r="C33" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="131" t="s">
+      <c r="H33" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="131"/>
+      <c r="I33" s="139"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="131" t="s">
+      <c r="C34" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="131"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="131" t="s">
+      <c r="H34" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="131"/>
+      <c r="I34" s="139"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="128" t="s">
+      <c r="C35" s="140" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="140"/>
+      <c r="F35" s="140"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="130" t="s">
+      <c r="H35" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="130"/>
+      <c r="I35" s="137"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
+      <c r="C36" s="141"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="130"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="140"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="130"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="140"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="141"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
+      <c r="C42" s="141"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="141"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="130"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="127"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="127"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="141"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="141"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="130"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="127"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="141"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="130"/>
-      <c r="I44" s="130"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="137"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="127"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="130"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="127"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="141"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="141"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="130"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="129"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="129"/>
+      <c r="C47" s="142"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="142"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="130"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="129"/>
-      <c r="D48" s="129"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
+      <c r="C48" s="142"/>
+      <c r="D48" s="142"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="142"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="130"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="137"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="129"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="129"/>
+      <c r="C49" s="142"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="142"/>
+      <c r="F49" s="142"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="130"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="137"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="129"/>
-      <c r="D50" s="129"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="129"/>
+      <c r="C50" s="142"/>
+      <c r="D50" s="142"/>
+      <c r="E50" s="142"/>
+      <c r="F50" s="142"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="130"/>
-      <c r="I50" s="130"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
+      <c r="C51" s="141"/>
+      <c r="D51" s="141"/>
+      <c r="E51" s="141"/>
+      <c r="F51" s="141"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="128"/>
-      <c r="I51" s="128"/>
+      <c r="H51" s="140"/>
+      <c r="I51" s="140"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="127"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="127"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="141"/>
+      <c r="E52" s="141"/>
+      <c r="F52" s="141"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="128"/>
-      <c r="I52" s="128"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="140"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
+      <c r="C53" s="141"/>
+      <c r="D53" s="141"/>
+      <c r="E53" s="141"/>
+      <c r="F53" s="141"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="128"/>
-      <c r="I53" s="128"/>
+      <c r="H53" s="140"/>
+      <c r="I53" s="140"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="127"/>
-      <c r="E54" s="127"/>
-      <c r="F54" s="127"/>
+      <c r="C54" s="141"/>
+      <c r="D54" s="141"/>
+      <c r="E54" s="141"/>
+      <c r="F54" s="141"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="128"/>
-      <c r="I54" s="128"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="140"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="127"/>
-      <c r="E55" s="127"/>
-      <c r="F55" s="127"/>
+      <c r="C55" s="141"/>
+      <c r="D55" s="141"/>
+      <c r="E55" s="141"/>
+      <c r="F55" s="141"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="128"/>
-      <c r="I55" s="128"/>
+      <c r="H55" s="140"/>
+      <c r="I55" s="140"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="127"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="127"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="141"/>
+      <c r="F56" s="141"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="128"/>
-      <c r="I56" s="128"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="140"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="141"/>
+      <c r="F57" s="141"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="128"/>
-      <c r="I57" s="128"/>
+      <c r="H57" s="140"/>
+      <c r="I57" s="140"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="127"/>
-      <c r="D58" s="127"/>
-      <c r="E58" s="127"/>
-      <c r="F58" s="127"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="141"/>
+      <c r="E58" s="141"/>
+      <c r="F58" s="141"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="128"/>
-      <c r="I58" s="128"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="140"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="127"/>
-      <c r="D59" s="127"/>
-      <c r="E59" s="127"/>
-      <c r="F59" s="127"/>
+      <c r="C59" s="141"/>
+      <c r="D59" s="141"/>
+      <c r="E59" s="141"/>
+      <c r="F59" s="141"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="128"/>
-      <c r="I59" s="128"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="140"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="127"/>
-      <c r="D60" s="127"/>
-      <c r="E60" s="127"/>
-      <c r="F60" s="127"/>
+      <c r="C60" s="141"/>
+      <c r="D60" s="141"/>
+      <c r="E60" s="141"/>
+      <c r="F60" s="141"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="127"/>
-      <c r="I60" s="127"/>
+      <c r="H60" s="141"/>
+      <c r="I60" s="141"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="127"/>
-      <c r="D61" s="127"/>
-      <c r="E61" s="127"/>
-      <c r="F61" s="127"/>
+      <c r="C61" s="141"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="141"/>
+      <c r="F61" s="141"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="127"/>
-      <c r="I61" s="127"/>
+      <c r="H61" s="141"/>
+      <c r="I61" s="141"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="127"/>
-      <c r="D62" s="127"/>
-      <c r="E62" s="127"/>
-      <c r="F62" s="127"/>
+      <c r="C62" s="141"/>
+      <c r="D62" s="141"/>
+      <c r="E62" s="141"/>
+      <c r="F62" s="141"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="127"/>
-      <c r="I62" s="127"/>
+      <c r="H62" s="141"/>
+      <c r="I62" s="141"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="127"/>
-      <c r="D63" s="127"/>
-      <c r="E63" s="127"/>
-      <c r="F63" s="127"/>
+      <c r="C63" s="141"/>
+      <c r="D63" s="141"/>
+      <c r="E63" s="141"/>
+      <c r="F63" s="141"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="127"/>
-      <c r="I63" s="127"/>
+      <c r="H63" s="141"/>
+      <c r="I63" s="141"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="127"/>
-      <c r="D64" s="127"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="127"/>
+      <c r="C64" s="141"/>
+      <c r="D64" s="141"/>
+      <c r="E64" s="141"/>
+      <c r="F64" s="141"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="127"/>
-      <c r="I64" s="127"/>
+      <c r="H64" s="141"/>
+      <c r="I64" s="141"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="127"/>
-      <c r="D65" s="127"/>
-      <c r="E65" s="127"/>
-      <c r="F65" s="127"/>
+      <c r="C65" s="141"/>
+      <c r="D65" s="141"/>
+      <c r="E65" s="141"/>
+      <c r="F65" s="141"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="127"/>
-      <c r="I65" s="127"/>
+      <c r="H65" s="141"/>
+      <c r="I65" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5298,6 +5240,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5307,103 +5348,133 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740BCB29-5B66-CB48-AEE1-5C3E39398B41}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" ht="112">
+      <c r="A1" s="143" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="41" t="s">
         <v>744</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" ht="13" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" ht="32">
+      <c r="A2" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="41" t="s">
         <v>745</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" ht="13" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" spans="1:8" ht="16">
+      <c r="A3" s="143" t="s">
         <v>281</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" ht="13" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+    </row>
+    <row r="4" spans="1:8" ht="48">
+      <c r="A4" s="143" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="144" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:5" ht="13" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+    </row>
+    <row r="5" spans="1:8" ht="32">
+      <c r="A5" s="143" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="145" t="s">
         <v>745</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="1:5" ht="13" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="143" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" ht="13" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="143" t="s">
         <v>287</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:5" ht="13" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="143" t="s">
         <v>289</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" ht="13" customHeight="1">
-      <c r="A9" s="23" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="143" t="s">
         <v>290</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:5" ht="13" customHeight="1">
-      <c r="A10" s="23" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="143" t="s">
         <v>291</v>
       </c>
       <c r="B10" t="s">
@@ -5411,75 +5482,108 @@
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
-    </row>
-    <row r="11" spans="1:5" ht="13" customHeight="1">
-      <c r="A11" s="23" t="s">
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="143" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>746</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:5" ht="13" customHeight="1">
-      <c r="A12" s="23" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="143" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:5" ht="13" customHeight="1">
-      <c r="A13" s="23" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="143" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:5" ht="13" customHeight="1">
-      <c r="A14" s="29" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" ht="32">
+      <c r="A14" s="146" t="s">
         <v>743</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="146" t="s">
         <v>721</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="146" t="s">
         <v>347</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="147" t="s">
         <v>722</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="147" t="s">
+        <v>841</v>
+      </c>
+      <c r="F14" s="147" t="s">
+        <v>842</v>
+      </c>
+      <c r="G14" s="147" t="s">
+        <v>843</v>
+      </c>
+      <c r="H14" s="146" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29" t="s">
+    <row r="15" spans="1:8" ht="80">
+      <c r="A15" s="146"/>
+      <c r="B15" s="146" t="s">
         <v>724</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="146"/>
+      <c r="D15" s="147" t="s">
         <v>725</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="147" t="s">
+        <v>844</v>
+      </c>
+      <c r="F15" s="147" t="s">
+        <v>845</v>
+      </c>
+      <c r="G15" s="147" t="s">
+        <v>846</v>
+      </c>
+      <c r="H15" s="147" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="1:5" ht="13" customHeight="1">
+    <row r="16" spans="1:8">
+      <c r="A16" s="148"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5492,7 +5596,16 @@
       <c r="D17">
         <v>2500</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>2500</v>
+      </c>
+      <c r="F17">
+        <v>12500</v>
+      </c>
+      <c r="G17">
+        <v>25000</v>
+      </c>
+      <c r="H17" t="s">
         <v>748</v>
       </c>
     </row>
@@ -10589,7 +10702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF13EBBF-2D46-4C4B-8786-27077A6A9849}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -10719,7 +10832,7 @@
       <c r="B17" s="73">
         <v>166</v>
       </c>
-      <c r="C17" s="142" t="s">
+      <c r="C17" s="127" t="s">
         <v>840</v>
       </c>
     </row>
@@ -10730,7 +10843,7 @@
       <c r="B18" s="73">
         <v>171</v>
       </c>
-      <c r="C18" s="142" t="s">
+      <c r="C18" s="127" t="s">
         <v>840</v>
       </c>
     </row>
@@ -10741,7 +10854,7 @@
       <c r="B19" s="73">
         <v>173</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="127" t="s">
         <v>840</v>
       </c>
     </row>
@@ -10752,7 +10865,7 @@
       <c r="B20" s="73">
         <v>174</v>
       </c>
-      <c r="C20" s="142" t="s">
+      <c r="C20" s="127" t="s">
         <v>840</v>
       </c>
     </row>
@@ -10763,7 +10876,7 @@
       <c r="B21" s="73">
         <v>175</v>
       </c>
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="127" t="s">
         <v>840</v>
       </c>
     </row>
@@ -10774,7 +10887,7 @@
       <c r="B22" s="73">
         <v>176</v>
       </c>
-      <c r="C22" s="142" t="s">
+      <c r="C22" s="127" t="s">
         <v>840</v>
       </c>
     </row>
@@ -10785,7 +10898,7 @@
       <c r="B23" s="73">
         <v>177</v>
       </c>
-      <c r="C23" s="142" t="s">
+      <c r="C23" s="127" t="s">
         <v>840</v>
       </c>
     </row>

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39F95AE-21DA-6645-A362-55FE993F9950}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A6EB7F-BA6B-AA47-A0E5-596FC0FCAB90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="2020" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5480" yWindow="2020" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="848">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2587,6 +2587,9 @@
   </si>
   <si>
     <t>EN = monthly limit</t>
+  </si>
+  <si>
+    <t>LINE_OF_CREDIT</t>
   </si>
 </sst>
 </file>
@@ -3265,6 +3268,45 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3282,45 +3324,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4384,22 +4387,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4409,66 +4412,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="130">
+      <c r="H8" s="145">
         <v>2</v>
       </c>
-      <c r="I8" s="130"/>
+      <c r="I8" s="145"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4486,222 +4489,222 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="134" t="s">
+      <c r="H13" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="134"/>
+      <c r="I13" s="142"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="135" t="s">
+      <c r="C14" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="135" t="s">
+      <c r="H14" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="135"/>
+      <c r="I14" s="140"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="135" t="s">
+      <c r="H15" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="135"/>
+      <c r="I15" s="140"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="135" t="s">
+      <c r="H16" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="135"/>
+      <c r="I16" s="140"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="135" t="s">
+      <c r="H17" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="135"/>
+      <c r="I17" s="140"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="135" t="s">
+      <c r="H18" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="135"/>
+      <c r="I18" s="140"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="135" t="s">
+      <c r="H19" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="135"/>
+      <c r="I19" s="140"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="135" t="s">
+      <c r="H20" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="135"/>
+      <c r="I20" s="140"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="135" t="s">
+      <c r="H21" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="135"/>
+      <c r="I21" s="140"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="135" t="s">
+      <c r="C22" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="135" t="s">
+      <c r="H22" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="135"/>
+      <c r="I22" s="140"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="135" t="s">
+      <c r="C23" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="135" t="s">
+      <c r="H23" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="135"/>
+      <c r="I23" s="140"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="135" t="s">
+      <c r="C24" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="135" t="s">
+      <c r="H24" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="135"/>
+      <c r="I24" s="140"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
@@ -4835,12 +4838,12 @@
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="138" t="s">
+      <c r="C32" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="138"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="138"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
@@ -4853,48 +4856,48 @@
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="139" t="s">
+      <c r="C33" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="139"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="139" t="s">
+      <c r="H33" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="139"/>
+      <c r="I33" s="138"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="139" t="s">
+      <c r="C34" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="139" t="s">
+      <c r="H34" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="139"/>
+      <c r="I34" s="138"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="140" t="s">
+      <c r="C35" s="135" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="140"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="140"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
@@ -4905,50 +4908,50 @@
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
       <c r="G36" s="19"/>
       <c r="H36" s="137"/>
       <c r="I36" s="137"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="140"/>
-      <c r="F37" s="140"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
       <c r="G37" s="19"/>
       <c r="H37" s="137"/>
       <c r="I37" s="137"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="140"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="135"/>
       <c r="G38" s="19"/>
       <c r="H38" s="137"/>
       <c r="I38" s="137"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="141"/>
-      <c r="D39" s="141"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
       <c r="G39" s="19"/>
       <c r="H39" s="137"/>
       <c r="I39" s="137"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="141"/>
-      <c r="D40" s="141"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
       <c r="G40" s="19"/>
       <c r="H40" s="137"/>
       <c r="I40" s="137"/>
@@ -4956,70 +4959,70 @@
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
       <c r="G41" s="19"/>
       <c r="H41" s="137"/>
       <c r="I41" s="137"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="141"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
       <c r="G42" s="19"/>
       <c r="H42" s="137"/>
       <c r="I42" s="137"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="141"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
       <c r="G43" s="19"/>
       <c r="H43" s="137"/>
       <c r="I43" s="137"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="141"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
       <c r="G44" s="19"/>
       <c r="H44" s="137"/>
       <c r="I44" s="137"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
       <c r="G45" s="19"/>
       <c r="H45" s="137"/>
       <c r="I45" s="137"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="141"/>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
-      <c r="F46" s="141"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
       <c r="G46" s="19"/>
       <c r="H46" s="137"/>
       <c r="I46" s="137"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
       <c r="G47" s="19"/>
       <c r="H47" s="137"/>
       <c r="I47" s="137"/>
@@ -5027,10 +5030,10 @@
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="142"/>
-      <c r="D48" s="142"/>
-      <c r="E48" s="142"/>
-      <c r="F48" s="142"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
       <c r="G48" s="19"/>
       <c r="H48" s="137"/>
       <c r="I48" s="137"/>
@@ -5038,10 +5041,10 @@
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="142"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="142"/>
-      <c r="F49" s="142"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
       <c r="G49" s="19"/>
       <c r="H49" s="137"/>
       <c r="I49" s="137"/>
@@ -5049,10 +5052,10 @@
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="142"/>
-      <c r="E50" s="142"/>
-      <c r="F50" s="142"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
       <c r="G50" s="19"/>
       <c r="H50" s="137"/>
       <c r="I50" s="137"/>
@@ -5060,170 +5063,269 @@
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="141"/>
-      <c r="D51" s="141"/>
-      <c r="E51" s="141"/>
-      <c r="F51" s="141"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="140"/>
-      <c r="I51" s="140"/>
+      <c r="H51" s="135"/>
+      <c r="I51" s="135"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="141"/>
-      <c r="D52" s="141"/>
-      <c r="E52" s="141"/>
-      <c r="F52" s="141"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="134"/>
+      <c r="F52" s="134"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="140"/>
-      <c r="I52" s="140"/>
+      <c r="H52" s="135"/>
+      <c r="I52" s="135"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="141"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="141"/>
-      <c r="F53" s="141"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="140"/>
+      <c r="H53" s="135"/>
+      <c r="I53" s="135"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="141"/>
-      <c r="D54" s="141"/>
-      <c r="E54" s="141"/>
-      <c r="F54" s="141"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="140"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="135"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="141"/>
-      <c r="D55" s="141"/>
-      <c r="E55" s="141"/>
-      <c r="F55" s="141"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="134"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="134"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="140"/>
-      <c r="I55" s="140"/>
+      <c r="H55" s="135"/>
+      <c r="I55" s="135"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="141"/>
-      <c r="D56" s="141"/>
-      <c r="E56" s="141"/>
-      <c r="F56" s="141"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="140"/>
-      <c r="I56" s="140"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="135"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="141"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="134"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="140"/>
-      <c r="I57" s="140"/>
+      <c r="H57" s="135"/>
+      <c r="I57" s="135"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="141"/>
-      <c r="D58" s="141"/>
-      <c r="E58" s="141"/>
-      <c r="F58" s="141"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
+      <c r="H58" s="135"/>
+      <c r="I58" s="135"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="141"/>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="141"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140"/>
+      <c r="H59" s="135"/>
+      <c r="I59" s="135"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="141"/>
-      <c r="D60" s="141"/>
-      <c r="E60" s="141"/>
-      <c r="F60" s="141"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="134"/>
+      <c r="F60" s="134"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="141"/>
-      <c r="I60" s="141"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="141"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="141"/>
-      <c r="F61" s="141"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="141"/>
-      <c r="I61" s="141"/>
+      <c r="H61" s="134"/>
+      <c r="I61" s="134"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="141"/>
-      <c r="D62" s="141"/>
-      <c r="E62" s="141"/>
-      <c r="F62" s="141"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="134"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="141"/>
-      <c r="I62" s="141"/>
+      <c r="H62" s="134"/>
+      <c r="I62" s="134"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="141"/>
-      <c r="D63" s="141"/>
-      <c r="E63" s="141"/>
-      <c r="F63" s="141"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="141"/>
-      <c r="I63" s="141"/>
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="141"/>
-      <c r="D64" s="141"/>
-      <c r="E64" s="141"/>
-      <c r="F64" s="141"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="134"/>
+      <c r="E64" s="134"/>
+      <c r="F64" s="134"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="141"/>
-      <c r="I64" s="141"/>
+      <c r="H64" s="134"/>
+      <c r="I64" s="134"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="141"/>
-      <c r="D65" s="141"/>
-      <c r="E65" s="141"/>
-      <c r="F65" s="141"/>
+      <c r="C65" s="134"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="134"/>
+      <c r="F65" s="134"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="141"/>
-      <c r="I65" s="141"/>
+      <c r="H65" s="134"/>
+      <c r="I65" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5240,105 +5342,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5350,7 +5353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740BCB29-5B66-CB48-AEE1-5C3E39398B41}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -5364,8 +5367,8 @@
     <col min="8" max="8" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="112">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:8" ht="64">
+      <c r="A1" s="128" t="s">
         <v>278</v>
       </c>
       <c r="B1" s="41" t="s">
@@ -5378,7 +5381,7 @@
       <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="32">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="128" t="s">
         <v>280</v>
       </c>
       <c r="B2" s="41" t="s">
@@ -5391,46 +5394,46 @@
       <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="16">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="128" t="s">
         <v>281</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-    </row>
-    <row r="4" spans="1:8" ht="48">
-      <c r="A4" s="143" t="s">
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+    </row>
+    <row r="4" spans="1:8" ht="16">
+      <c r="A4" s="128" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="129" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
     </row>
     <row r="5" spans="1:8" ht="32">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="128" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="130" t="s">
         <v>745</v>
       </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="128" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="22"/>
@@ -5441,7 +5444,7 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="143" t="s">
+      <c r="A7" s="128" t="s">
         <v>287</v>
       </c>
       <c r="B7" s="22"/>
@@ -5452,7 +5455,7 @@
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="128" t="s">
         <v>289</v>
       </c>
       <c r="B8" s="22"/>
@@ -5463,7 +5466,7 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="128" t="s">
         <v>290</v>
       </c>
       <c r="B9" s="22"/>
@@ -5474,7 +5477,7 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="128" t="s">
         <v>291</v>
       </c>
       <c r="B10" t="s">
@@ -5487,7 +5490,7 @@
       <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="143" t="s">
+      <c r="A11" s="128" t="s">
         <v>293</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -5500,7 +5503,7 @@
       <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="128" t="s">
         <v>294</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -5513,7 +5516,7 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="128" t="s">
         <v>296</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -5526,62 +5529,62 @@
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="32">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="131" t="s">
         <v>743</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="131" t="s">
         <v>721</v>
       </c>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="131" t="s">
         <v>347</v>
       </c>
-      <c r="D14" s="147" t="s">
+      <c r="D14" s="132" t="s">
         <v>722</v>
       </c>
-      <c r="E14" s="147" t="s">
+      <c r="E14" s="132" t="s">
         <v>841</v>
       </c>
-      <c r="F14" s="147" t="s">
+      <c r="F14" s="132" t="s">
         <v>842</v>
       </c>
-      <c r="G14" s="147" t="s">
+      <c r="G14" s="132" t="s">
         <v>843</v>
       </c>
-      <c r="H14" s="146" t="s">
+      <c r="H14" s="131" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="80">
-      <c r="A15" s="146"/>
-      <c r="B15" s="146" t="s">
+    <row r="15" spans="1:8" ht="48">
+      <c r="A15" s="131"/>
+      <c r="B15" s="131" t="s">
         <v>724</v>
       </c>
-      <c r="C15" s="146"/>
-      <c r="D15" s="147" t="s">
+      <c r="C15" s="131"/>
+      <c r="D15" s="132" t="s">
         <v>725</v>
       </c>
-      <c r="E15" s="147" t="s">
+      <c r="E15" s="132" t="s">
         <v>844</v>
       </c>
-      <c r="F15" s="147" t="s">
+      <c r="F15" s="132" t="s">
         <v>845</v>
       </c>
-      <c r="G15" s="147" t="s">
+      <c r="G15" s="132" t="s">
         <v>846</v>
       </c>
-      <c r="H15" s="147" t="s">
+      <c r="H15" s="132" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="148"/>
-      <c r="B16" s="148"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
+      <c r="A16" s="133"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
@@ -6109,7 +6112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
@@ -10702,8 +10705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF13EBBF-2D46-4C4B-8786-27077A6A9849}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10833,7 +10836,7 @@
         <v>166</v>
       </c>
       <c r="C17" s="127" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -10899,7 +10902,7 @@
         <v>177</v>
       </c>
       <c r="C23" s="127" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
     </row>
     <row r="24" spans="1:3">

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A6EB7F-BA6B-AA47-A0E5-596FC0FCAB90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BCAAF8-6D63-1643-A88D-25AC87139FE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5480" yWindow="2020" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="848">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -3284,29 +3284,6 @@
     <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3324,6 +3301,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4387,22 +4387,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4412,66 +4412,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="145" t="s">
+      <c r="C8" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="145">
+      <c r="H8" s="136">
         <v>2</v>
       </c>
-      <c r="I8" s="145"/>
+      <c r="I8" s="136"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4489,325 +4489,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="142" t="s">
+      <c r="H13" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="142"/>
+      <c r="I13" s="140"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="140" t="s">
+      <c r="H14" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="140"/>
+      <c r="I14" s="141"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="140" t="s">
+      <c r="H15" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="140"/>
+      <c r="I15" s="141"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="140" t="s">
+      <c r="C16" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="140" t="s">
+      <c r="H16" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="140"/>
+      <c r="I16" s="141"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="140" t="s">
+      <c r="C17" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="140" t="s">
+      <c r="H17" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="140"/>
+      <c r="I17" s="141"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="140" t="s">
+      <c r="C18" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="140" t="s">
+      <c r="H18" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="140"/>
+      <c r="I18" s="141"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="140" t="s">
+      <c r="H19" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="140"/>
+      <c r="I19" s="141"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="141" t="s">
+      <c r="C20" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="140" t="s">
+      <c r="H20" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="140"/>
+      <c r="I20" s="141"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="141" t="s">
+      <c r="C21" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="140" t="s">
+      <c r="H21" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="140"/>
+      <c r="I21" s="141"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="140" t="s">
+      <c r="H22" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="140"/>
+      <c r="I22" s="141"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="140" t="s">
+      <c r="H23" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="140"/>
+      <c r="I23" s="141"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="140" t="s">
+      <c r="C24" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="140" t="s">
+      <c r="H24" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="140"/>
+      <c r="I24" s="141"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="137" t="s">
+      <c r="C25" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="137" t="s">
+      <c r="H25" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="137"/>
+      <c r="I25" s="143"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="137" t="s">
+      <c r="C26" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="137" t="s">
+      <c r="H26" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="137"/>
+      <c r="I26" s="143"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="137" t="s">
+      <c r="C27" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="137" t="s">
+      <c r="H27" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="137"/>
+      <c r="I27" s="143"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="137" t="s">
+      <c r="C28" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="137" t="s">
+      <c r="H28" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="137"/>
+      <c r="I28" s="143"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="137" t="s">
+      <c r="H29" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="137"/>
+      <c r="I29" s="143"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="137" t="s">
+      <c r="C30" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4820,512 +4820,413 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="137" t="s">
+      <c r="C31" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="137" t="s">
+      <c r="H31" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="137"/>
+      <c r="I31" s="143"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="139" t="s">
+      <c r="C32" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="137" t="s">
+      <c r="H32" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="137"/>
+      <c r="I32" s="143"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="138" t="s">
+      <c r="C33" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="138" t="s">
+      <c r="H33" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="138"/>
+      <c r="I33" s="145"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="138" t="s">
+      <c r="C34" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="138"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="138"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="138" t="s">
+      <c r="H34" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="138"/>
+      <c r="I34" s="145"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="135" t="s">
+      <c r="C35" s="146" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="137" t="s">
+      <c r="H35" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="137"/>
+      <c r="I35" s="143"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="137"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="134"/>
-      <c r="D40" s="134"/>
-      <c r="E40" s="134"/>
-      <c r="F40" s="134"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="134"/>
-      <c r="E41" s="134"/>
-      <c r="F41" s="134"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="143"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="134"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
+      <c r="H44" s="143"/>
+      <c r="I44" s="143"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="147"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="143"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
+      <c r="C47" s="148"/>
+      <c r="D47" s="148"/>
+      <c r="E47" s="148"/>
+      <c r="F47" s="148"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="143"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="143"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="148"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
+      <c r="H49" s="143"/>
+      <c r="I49" s="143"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
+      <c r="C50" s="148"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="148"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
+      <c r="H50" s="143"/>
+      <c r="I50" s="143"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="147"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="135"/>
-      <c r="I51" s="135"/>
+      <c r="H51" s="146"/>
+      <c r="I51" s="146"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="134"/>
-      <c r="F52" s="134"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="147"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="135"/>
-      <c r="I52" s="135"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="146"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="134"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134"/>
+      <c r="C53" s="147"/>
+      <c r="D53" s="147"/>
+      <c r="E53" s="147"/>
+      <c r="F53" s="147"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="135"/>
-      <c r="I53" s="135"/>
+      <c r="H53" s="146"/>
+      <c r="I53" s="146"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="134"/>
-      <c r="E54" s="134"/>
-      <c r="F54" s="134"/>
+      <c r="C54" s="147"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="147"/>
+      <c r="F54" s="147"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="135"/>
-      <c r="I54" s="135"/>
+      <c r="H54" s="146"/>
+      <c r="I54" s="146"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="134"/>
-      <c r="E55" s="134"/>
-      <c r="F55" s="134"/>
+      <c r="C55" s="147"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="147"/>
+      <c r="F55" s="147"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="135"/>
-      <c r="I55" s="135"/>
+      <c r="H55" s="146"/>
+      <c r="I55" s="146"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="134"/>
-      <c r="D56" s="134"/>
-      <c r="E56" s="134"/>
-      <c r="F56" s="134"/>
+      <c r="C56" s="147"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="147"/>
+      <c r="F56" s="147"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
+      <c r="H56" s="146"/>
+      <c r="I56" s="146"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="134"/>
-      <c r="D57" s="134"/>
-      <c r="E57" s="134"/>
-      <c r="F57" s="134"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="147"/>
+      <c r="E57" s="147"/>
+      <c r="F57" s="147"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="135"/>
-      <c r="I57" s="135"/>
+      <c r="H57" s="146"/>
+      <c r="I57" s="146"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="134"/>
-      <c r="E58" s="134"/>
-      <c r="F58" s="134"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="147"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="135"/>
-      <c r="I58" s="135"/>
+      <c r="H58" s="146"/>
+      <c r="I58" s="146"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="134"/>
-      <c r="D59" s="134"/>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
+      <c r="C59" s="147"/>
+      <c r="D59" s="147"/>
+      <c r="E59" s="147"/>
+      <c r="F59" s="147"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="135"/>
-      <c r="I59" s="135"/>
+      <c r="H59" s="146"/>
+      <c r="I59" s="146"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="134"/>
-      <c r="D60" s="134"/>
-      <c r="E60" s="134"/>
-      <c r="F60" s="134"/>
+      <c r="C60" s="147"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="147"/>
+      <c r="F60" s="147"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="134"/>
-      <c r="I60" s="134"/>
+      <c r="H60" s="147"/>
+      <c r="I60" s="147"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="134"/>
-      <c r="D61" s="134"/>
-      <c r="E61" s="134"/>
-      <c r="F61" s="134"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="147"/>
+      <c r="E61" s="147"/>
+      <c r="F61" s="147"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="134"/>
-      <c r="I61" s="134"/>
+      <c r="H61" s="147"/>
+      <c r="I61" s="147"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="134"/>
-      <c r="D62" s="134"/>
-      <c r="E62" s="134"/>
-      <c r="F62" s="134"/>
+      <c r="C62" s="147"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="147"/>
+      <c r="F62" s="147"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="134"/>
-      <c r="I62" s="134"/>
+      <c r="H62" s="147"/>
+      <c r="I62" s="147"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="134"/>
-      <c r="D63" s="134"/>
-      <c r="E63" s="134"/>
-      <c r="F63" s="134"/>
+      <c r="C63" s="147"/>
+      <c r="D63" s="147"/>
+      <c r="E63" s="147"/>
+      <c r="F63" s="147"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="134"/>
-      <c r="I63" s="134"/>
+      <c r="H63" s="147"/>
+      <c r="I63" s="147"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="134"/>
-      <c r="D64" s="134"/>
-      <c r="E64" s="134"/>
-      <c r="F64" s="134"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="147"/>
+      <c r="F64" s="147"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="134"/>
-      <c r="I64" s="134"/>
+      <c r="H64" s="147"/>
+      <c r="I64" s="147"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="134"/>
-      <c r="D65" s="134"/>
-      <c r="E65" s="134"/>
-      <c r="F65" s="134"/>
+      <c r="C65" s="147"/>
+      <c r="D65" s="147"/>
+      <c r="E65" s="147"/>
+      <c r="F65" s="147"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="134"/>
-      <c r="I65" s="134"/>
+      <c r="H65" s="147"/>
+      <c r="I65" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5342,6 +5243,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8764,7 +8764,7 @@
   <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:K94"/>
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10703,7 +10703,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF13EBBF-2D46-4C4B-8786-27077A6A9849}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
@@ -10828,7 +10828,7 @@
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:8">
       <c r="A17" s="67" t="s">
         <v>195</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:8">
       <c r="A18" s="67" t="s">
         <v>195</v>
       </c>
@@ -10847,10 +10847,10 @@
         <v>171</v>
       </c>
       <c r="C18" s="127" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="67" t="s">
         <v>195</v>
       </c>
@@ -10858,10 +10858,10 @@
         <v>173</v>
       </c>
       <c r="C19" s="127" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="67" t="s">
         <v>195</v>
       </c>
@@ -10869,10 +10869,10 @@
         <v>174</v>
       </c>
       <c r="C20" s="127" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="67" t="s">
         <v>195</v>
       </c>
@@ -10880,10 +10880,10 @@
         <v>175</v>
       </c>
       <c r="C21" s="127" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="67" t="s">
         <v>195</v>
       </c>
@@ -10891,10 +10891,10 @@
         <v>176</v>
       </c>
       <c r="C22" s="127" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="67" t="s">
         <v>195</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:8">
       <c r="A24" s="67" t="s">
         <v>195</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:8">
       <c r="A25" s="67" t="s">
         <v>195</v>
       </c>
@@ -10926,8 +10926,11 @@
       <c r="C25" s="26" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="H25" s="127" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="67" t="s">
         <v>195</v>
       </c>
@@ -10938,7 +10941,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:8">
       <c r="A27" s="67" t="s">
         <v>195</v>
       </c>
@@ -10949,7 +10952,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:8">
       <c r="A28" s="67" t="s">
         <v>195</v>
       </c>
@@ -10960,7 +10963,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:8">
       <c r="A29" s="67" t="s">
         <v>195</v>
       </c>
@@ -10971,7 +10974,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:8">
       <c r="A30" s="67" t="s">
         <v>195</v>
       </c>
@@ -10982,7 +10985,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:8">
       <c r="A31" s="67" t="s">
         <v>195</v>
       </c>
@@ -10993,7 +10996,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:8">
       <c r="A32" s="67" t="s">
         <v>195</v>
       </c>

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BCAAF8-6D63-1643-A88D-25AC87139FE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA35582-E21F-8545-B7C8-914ED411A3DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="2020" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5480" yWindow="2020" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -3284,6 +3284,29 @@
     <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3301,29 +3324,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4387,22 +4387,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4412,66 +4412,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="136">
+      <c r="H8" s="145">
         <v>2</v>
       </c>
-      <c r="I8" s="136"/>
+      <c r="I8" s="145"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4489,325 +4489,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="140" t="s">
+      <c r="H13" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="140"/>
+      <c r="I13" s="142"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="141" t="s">
+      <c r="H14" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="141"/>
+      <c r="I14" s="140"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="141" t="s">
+      <c r="H15" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="141"/>
+      <c r="I15" s="140"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="141" t="s">
+      <c r="H16" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="141"/>
+      <c r="I16" s="140"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="141" t="s">
+      <c r="C17" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="141" t="s">
+      <c r="H17" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="141"/>
+      <c r="I17" s="140"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="141" t="s">
+      <c r="C18" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="141" t="s">
+      <c r="H18" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="141"/>
+      <c r="I18" s="140"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="141" t="s">
+      <c r="H19" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="141"/>
+      <c r="I19" s="140"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="142" t="s">
+      <c r="C20" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="141" t="s">
+      <c r="H20" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="141"/>
+      <c r="I20" s="140"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="141" t="s">
+      <c r="H21" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="141"/>
+      <c r="I21" s="140"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="C22" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="141" t="s">
+      <c r="H22" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="141"/>
+      <c r="I22" s="140"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="141" t="s">
+      <c r="H23" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="141"/>
+      <c r="I23" s="140"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="141" t="s">
+      <c r="H24" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="141"/>
+      <c r="I24" s="140"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="143" t="s">
+      <c r="C25" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="143" t="s">
+      <c r="H25" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="143"/>
+      <c r="I25" s="137"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="143" t="s">
+      <c r="C26" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="143" t="s">
+      <c r="H26" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="143"/>
+      <c r="I26" s="137"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="143" t="s">
+      <c r="C27" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="143" t="s">
+      <c r="H27" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="143"/>
+      <c r="I27" s="137"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="143" t="s">
+      <c r="C28" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="143" t="s">
+      <c r="H28" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="143"/>
+      <c r="I28" s="137"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="143" t="s">
+      <c r="C29" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="143" t="s">
+      <c r="H29" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="143"/>
+      <c r="I29" s="137"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="143" t="s">
+      <c r="C30" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4820,413 +4820,512 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="143" t="s">
+      <c r="C31" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="143"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="143" t="s">
+      <c r="H31" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="143"/>
+      <c r="I31" s="137"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="143" t="s">
+      <c r="H32" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="143"/>
+      <c r="I32" s="137"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="145" t="s">
+      <c r="C33" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="145" t="s">
+      <c r="H33" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="145"/>
+      <c r="I33" s="138"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="145" t="s">
+      <c r="C34" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="145" t="s">
+      <c r="H34" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="145"/>
+      <c r="I34" s="138"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="146" t="s">
+      <c r="C35" s="135" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="143" t="s">
+      <c r="H35" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="143"/>
+      <c r="I35" s="137"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="143"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="146"/>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="135"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="147"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="147"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="143"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="147"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="143"/>
-      <c r="I44" s="143"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="137"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="147"/>
-      <c r="D45" s="147"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="147"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="143"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="148"/>
-      <c r="D47" s="148"/>
-      <c r="E47" s="148"/>
-      <c r="F47" s="148"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="143"/>
-      <c r="I47" s="143"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="148"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="148"/>
-      <c r="F48" s="148"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="143"/>
-      <c r="I48" s="143"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="137"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="148"/>
-      <c r="D49" s="148"/>
-      <c r="E49" s="148"/>
-      <c r="F49" s="148"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="143"/>
-      <c r="I49" s="143"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="137"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="148"/>
-      <c r="D50" s="148"/>
-      <c r="E50" s="148"/>
-      <c r="F50" s="148"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="143"/>
-      <c r="I50" s="143"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="147"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="146"/>
-      <c r="I51" s="146"/>
+      <c r="H51" s="135"/>
+      <c r="I51" s="135"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="147"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="134"/>
+      <c r="F52" s="134"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="146"/>
-      <c r="I52" s="146"/>
+      <c r="H52" s="135"/>
+      <c r="I52" s="135"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="147"/>
-      <c r="D53" s="147"/>
-      <c r="E53" s="147"/>
-      <c r="F53" s="147"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="146"/>
-      <c r="I53" s="146"/>
+      <c r="H53" s="135"/>
+      <c r="I53" s="135"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="147"/>
-      <c r="D54" s="147"/>
-      <c r="E54" s="147"/>
-      <c r="F54" s="147"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="146"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="135"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="147"/>
-      <c r="D55" s="147"/>
-      <c r="E55" s="147"/>
-      <c r="F55" s="147"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="134"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="134"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="146"/>
-      <c r="I55" s="146"/>
+      <c r="H55" s="135"/>
+      <c r="I55" s="135"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="147"/>
-      <c r="D56" s="147"/>
-      <c r="E56" s="147"/>
-      <c r="F56" s="147"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="146"/>
-      <c r="I56" s="146"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="135"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="147"/>
-      <c r="D57" s="147"/>
-      <c r="E57" s="147"/>
-      <c r="F57" s="147"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="134"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="146"/>
-      <c r="I57" s="146"/>
+      <c r="H57" s="135"/>
+      <c r="I57" s="135"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="147"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="146"/>
-      <c r="I58" s="146"/>
+      <c r="H58" s="135"/>
+      <c r="I58" s="135"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="147"/>
-      <c r="D59" s="147"/>
-      <c r="E59" s="147"/>
-      <c r="F59" s="147"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="146"/>
-      <c r="I59" s="146"/>
+      <c r="H59" s="135"/>
+      <c r="I59" s="135"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="147"/>
-      <c r="D60" s="147"/>
-      <c r="E60" s="147"/>
-      <c r="F60" s="147"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="134"/>
+      <c r="F60" s="134"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="147"/>
-      <c r="I60" s="147"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="147"/>
-      <c r="D61" s="147"/>
-      <c r="E61" s="147"/>
-      <c r="F61" s="147"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="147"/>
-      <c r="I61" s="147"/>
+      <c r="H61" s="134"/>
+      <c r="I61" s="134"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="147"/>
-      <c r="D62" s="147"/>
-      <c r="E62" s="147"/>
-      <c r="F62" s="147"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="134"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="147"/>
-      <c r="I62" s="147"/>
+      <c r="H62" s="134"/>
+      <c r="I62" s="134"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="147"/>
-      <c r="E63" s="147"/>
-      <c r="F63" s="147"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="147"/>
-      <c r="I63" s="147"/>
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="147"/>
-      <c r="E64" s="147"/>
-      <c r="F64" s="147"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="134"/>
+      <c r="E64" s="134"/>
+      <c r="F64" s="134"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="147"/>
-      <c r="I64" s="147"/>
+      <c r="H64" s="134"/>
+      <c r="I64" s="134"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="147"/>
-      <c r="D65" s="147"/>
-      <c r="E65" s="147"/>
-      <c r="F65" s="147"/>
+      <c r="C65" s="134"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="134"/>
+      <c r="F65" s="134"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="147"/>
-      <c r="I65" s="147"/>
+      <c r="H65" s="134"/>
+      <c r="I65" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5243,105 +5342,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10705,7 +10705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF13EBBF-2D46-4C4B-8786-27077A6A9849}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -14540,7 +14540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7FFDE4-6871-164E-A3DC-9C2170575FD3}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA35582-E21F-8545-B7C8-914ED411A3DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA152FA8-BF6B-7644-AE84-C81879260680}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="2020" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5480" yWindow="2020" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="852">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2590,6 +2590,18 @@
   </si>
   <si>
     <t>LINE_OF_CREDIT</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>Business LOC interest Only</t>
+  </si>
+  <si>
+    <t>Business LOC P&amp;I</t>
   </si>
 </sst>
 </file>
@@ -3284,29 +3296,6 @@
     <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3324,6 +3313,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4387,22 +4399,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4412,66 +4424,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="145" t="s">
+      <c r="C8" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="145">
+      <c r="H8" s="136">
         <v>2</v>
       </c>
-      <c r="I8" s="145"/>
+      <c r="I8" s="136"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4489,325 +4501,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="142" t="s">
+      <c r="H13" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="142"/>
+      <c r="I13" s="140"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="140" t="s">
+      <c r="H14" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="140"/>
+      <c r="I14" s="141"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="140" t="s">
+      <c r="H15" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="140"/>
+      <c r="I15" s="141"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="140" t="s">
+      <c r="C16" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="140" t="s">
+      <c r="H16" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="140"/>
+      <c r="I16" s="141"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="140" t="s">
+      <c r="C17" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="140" t="s">
+      <c r="H17" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="140"/>
+      <c r="I17" s="141"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="140" t="s">
+      <c r="C18" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="140" t="s">
+      <c r="H18" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="140"/>
+      <c r="I18" s="141"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="140" t="s">
+      <c r="H19" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="140"/>
+      <c r="I19" s="141"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="141" t="s">
+      <c r="C20" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="140" t="s">
+      <c r="H20" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="140"/>
+      <c r="I20" s="141"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="141" t="s">
+      <c r="C21" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="140" t="s">
+      <c r="H21" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="140"/>
+      <c r="I21" s="141"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="140" t="s">
+      <c r="H22" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="140"/>
+      <c r="I22" s="141"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="140" t="s">
+      <c r="H23" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="140"/>
+      <c r="I23" s="141"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="140" t="s">
+      <c r="C24" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="140" t="s">
+      <c r="H24" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="140"/>
+      <c r="I24" s="141"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="137" t="s">
+      <c r="C25" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="137" t="s">
+      <c r="H25" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="137"/>
+      <c r="I25" s="143"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="137" t="s">
+      <c r="C26" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="137" t="s">
+      <c r="H26" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="137"/>
+      <c r="I26" s="143"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="137" t="s">
+      <c r="C27" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="137" t="s">
+      <c r="H27" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="137"/>
+      <c r="I27" s="143"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="137" t="s">
+      <c r="C28" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="137" t="s">
+      <c r="H28" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="137"/>
+      <c r="I28" s="143"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="137" t="s">
+      <c r="H29" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="137"/>
+      <c r="I29" s="143"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="137" t="s">
+      <c r="C30" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4820,512 +4832,413 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="137" t="s">
+      <c r="C31" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="137" t="s">
+      <c r="H31" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="137"/>
+      <c r="I31" s="143"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="139" t="s">
+      <c r="C32" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="137" t="s">
+      <c r="H32" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="137"/>
+      <c r="I32" s="143"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="138" t="s">
+      <c r="C33" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="138" t="s">
+      <c r="H33" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="138"/>
+      <c r="I33" s="145"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="138" t="s">
+      <c r="C34" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="138"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="138"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="138" t="s">
+      <c r="H34" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="138"/>
+      <c r="I34" s="145"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="135" t="s">
+      <c r="C35" s="146" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="137" t="s">
+      <c r="H35" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="137"/>
+      <c r="I35" s="143"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="137"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="134"/>
-      <c r="D40" s="134"/>
-      <c r="E40" s="134"/>
-      <c r="F40" s="134"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="134"/>
-      <c r="E41" s="134"/>
-      <c r="F41" s="134"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="143"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="134"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
+      <c r="H44" s="143"/>
+      <c r="I44" s="143"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="147"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="143"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
+      <c r="C47" s="148"/>
+      <c r="D47" s="148"/>
+      <c r="E47" s="148"/>
+      <c r="F47" s="148"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="143"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="143"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="148"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
+      <c r="H49" s="143"/>
+      <c r="I49" s="143"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
+      <c r="C50" s="148"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="148"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
+      <c r="H50" s="143"/>
+      <c r="I50" s="143"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="147"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="135"/>
-      <c r="I51" s="135"/>
+      <c r="H51" s="146"/>
+      <c r="I51" s="146"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="134"/>
-      <c r="F52" s="134"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="147"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="135"/>
-      <c r="I52" s="135"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="146"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="134"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134"/>
+      <c r="C53" s="147"/>
+      <c r="D53" s="147"/>
+      <c r="E53" s="147"/>
+      <c r="F53" s="147"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="135"/>
-      <c r="I53" s="135"/>
+      <c r="H53" s="146"/>
+      <c r="I53" s="146"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="134"/>
-      <c r="E54" s="134"/>
-      <c r="F54" s="134"/>
+      <c r="C54" s="147"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="147"/>
+      <c r="F54" s="147"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="135"/>
-      <c r="I54" s="135"/>
+      <c r="H54" s="146"/>
+      <c r="I54" s="146"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="134"/>
-      <c r="E55" s="134"/>
-      <c r="F55" s="134"/>
+      <c r="C55" s="147"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="147"/>
+      <c r="F55" s="147"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="135"/>
-      <c r="I55" s="135"/>
+      <c r="H55" s="146"/>
+      <c r="I55" s="146"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="134"/>
-      <c r="D56" s="134"/>
-      <c r="E56" s="134"/>
-      <c r="F56" s="134"/>
+      <c r="C56" s="147"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="147"/>
+      <c r="F56" s="147"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
+      <c r="H56" s="146"/>
+      <c r="I56" s="146"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="134"/>
-      <c r="D57" s="134"/>
-      <c r="E57" s="134"/>
-      <c r="F57" s="134"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="147"/>
+      <c r="E57" s="147"/>
+      <c r="F57" s="147"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="135"/>
-      <c r="I57" s="135"/>
+      <c r="H57" s="146"/>
+      <c r="I57" s="146"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="134"/>
-      <c r="E58" s="134"/>
-      <c r="F58" s="134"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="147"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="135"/>
-      <c r="I58" s="135"/>
+      <c r="H58" s="146"/>
+      <c r="I58" s="146"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="134"/>
-      <c r="D59" s="134"/>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
+      <c r="C59" s="147"/>
+      <c r="D59" s="147"/>
+      <c r="E59" s="147"/>
+      <c r="F59" s="147"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="135"/>
-      <c r="I59" s="135"/>
+      <c r="H59" s="146"/>
+      <c r="I59" s="146"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="134"/>
-      <c r="D60" s="134"/>
-      <c r="E60" s="134"/>
-      <c r="F60" s="134"/>
+      <c r="C60" s="147"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="147"/>
+      <c r="F60" s="147"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="134"/>
-      <c r="I60" s="134"/>
+      <c r="H60" s="147"/>
+      <c r="I60" s="147"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="134"/>
-      <c r="D61" s="134"/>
-      <c r="E61" s="134"/>
-      <c r="F61" s="134"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="147"/>
+      <c r="E61" s="147"/>
+      <c r="F61" s="147"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="134"/>
-      <c r="I61" s="134"/>
+      <c r="H61" s="147"/>
+      <c r="I61" s="147"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="134"/>
-      <c r="D62" s="134"/>
-      <c r="E62" s="134"/>
-      <c r="F62" s="134"/>
+      <c r="C62" s="147"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="147"/>
+      <c r="F62" s="147"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="134"/>
-      <c r="I62" s="134"/>
+      <c r="H62" s="147"/>
+      <c r="I62" s="147"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="134"/>
-      <c r="D63" s="134"/>
-      <c r="E63" s="134"/>
-      <c r="F63" s="134"/>
+      <c r="C63" s="147"/>
+      <c r="D63" s="147"/>
+      <c r="E63" s="147"/>
+      <c r="F63" s="147"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="134"/>
-      <c r="I63" s="134"/>
+      <c r="H63" s="147"/>
+      <c r="I63" s="147"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="134"/>
-      <c r="D64" s="134"/>
-      <c r="E64" s="134"/>
-      <c r="F64" s="134"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="147"/>
+      <c r="F64" s="147"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="134"/>
-      <c r="I64" s="134"/>
+      <c r="H64" s="147"/>
+      <c r="I64" s="147"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="134"/>
-      <c r="D65" s="134"/>
-      <c r="E65" s="134"/>
-      <c r="F65" s="134"/>
+      <c r="C65" s="147"/>
+      <c r="D65" s="147"/>
+      <c r="E65" s="147"/>
+      <c r="F65" s="147"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="134"/>
-      <c r="I65" s="134"/>
+      <c r="H65" s="147"/>
+      <c r="I65" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5342,6 +5255,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6110,10 +6122,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Z98"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8215,6 +8227,28 @@
       </c>
       <c r="C98" t="s">
         <v>397</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>182</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>183</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -8761,10 +8795,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95:K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10629,58 +10663,58 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>739</v>
+        <v>393</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>394</v>
+        <v>848</v>
       </c>
       <c r="K95" t="s">
-        <v>627</v>
+        <v>850</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C96" t="s">
-        <v>738</v>
+        <v>393</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>395</v>
+        <v>849</v>
       </c>
       <c r="K96" t="s">
-        <v>395</v>
+        <v>851</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="C97" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K97" t="s">
-        <v>396</v>
+        <v>627</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C98" t="s">
         <v>738</v>
@@ -10689,9 +10723,43 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
+        <v>395</v>
+      </c>
+      <c r="K98" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>180</v>
+      </c>
+      <c r="C99" t="s">
+        <v>738</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>396</v>
+      </c>
+      <c r="K99" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>181</v>
+      </c>
+      <c r="C100" t="s">
+        <v>738</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
         <v>397</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K100" t="s">
         <v>397</v>
       </c>
     </row>
@@ -10703,10 +10771,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF13EBBF-2D46-4C4B-8786-27077A6A9849}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10910,10 +10978,10 @@
         <v>195</v>
       </c>
       <c r="B24" s="73">
-        <v>163</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>839</v>
+        <v>182</v>
+      </c>
+      <c r="C24" s="127" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -10921,13 +10989,10 @@
         <v>195</v>
       </c>
       <c r="B25" s="73">
-        <v>164</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>839</v>
-      </c>
-      <c r="H25" s="127" t="s">
-        <v>840</v>
+        <v>183</v>
+      </c>
+      <c r="C25" s="127" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -10935,7 +11000,7 @@
         <v>195</v>
       </c>
       <c r="B26" s="73">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>839</v>
@@ -10946,10 +11011,13 @@
         <v>195</v>
       </c>
       <c r="B27" s="73">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>839</v>
+      </c>
+      <c r="H27" s="127" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -10957,7 +11025,7 @@
         <v>195</v>
       </c>
       <c r="B28" s="73">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>839</v>
@@ -10968,7 +11036,7 @@
         <v>195</v>
       </c>
       <c r="B29" s="73">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>839</v>
@@ -10979,7 +11047,7 @@
         <v>195</v>
       </c>
       <c r="B30" s="73">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>839</v>
@@ -10990,7 +11058,7 @@
         <v>195</v>
       </c>
       <c r="B31" s="73">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>839</v>
@@ -11001,9 +11069,31 @@
         <v>195</v>
       </c>
       <c r="B32" s="73">
+        <v>170</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="73">
+        <v>172</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="73">
         <v>178</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C34" s="26" t="s">
         <v>839</v>
       </c>
     </row>
@@ -11022,10 +11112,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11980,6 +12070,22 @@
         <v>181</v>
       </c>
       <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>182</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>183</v>
+      </c>
+      <c r="B100">
         <v>1</v>
       </c>
     </row>
@@ -12915,7 +13021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482A250D-1B80-8646-9883-5EADF94686E3}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -13738,7 +13844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D94DE1-7D84-A341-BE73-C0E2285BF343}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
@@ -14540,8 +14646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7FFDE4-6871-164E-A3DC-9C2170575FD3}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA152FA8-BF6B-7644-AE84-C81879260680}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00870BF-A205-3D4B-BF84-DBDA3CD808B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="2020" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5480" yWindow="2020" windowWidth="32920" windowHeight="18240" tabRatio="991" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="872">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2142,9 +2142,6 @@
     <t>3000000068</t>
   </si>
   <si>
-    <t>401</t>
-  </si>
-  <si>
     <t>402</t>
   </si>
   <si>
@@ -2602,6 +2599,69 @@
   </si>
   <si>
     <t>Business LOC P&amp;I</t>
+  </si>
+  <si>
+    <t>3000000069</t>
+  </si>
+  <si>
+    <t>3000000070</t>
+  </si>
+  <si>
+    <t>3000000071</t>
+  </si>
+  <si>
+    <t>3000000072</t>
+  </si>
+  <si>
+    <t>3000000073</t>
+  </si>
+  <si>
+    <t>3000000074</t>
+  </si>
+  <si>
+    <t>3000000075</t>
+  </si>
+  <si>
+    <t>3000000076</t>
+  </si>
+  <si>
+    <t>3000000077</t>
+  </si>
+  <si>
+    <t>3000000078</t>
+  </si>
+  <si>
+    <t>3000000079</t>
+  </si>
+  <si>
+    <t>Relationship 13 Month Regular Certificate</t>
+  </si>
+  <si>
+    <t>Relationship 13 Month Coverdell Certificate</t>
+  </si>
+  <si>
+    <t>Relationship 13 Month Roth IRA Certificate</t>
+  </si>
+  <si>
+    <t>Relationship 13 Month Traditional IRA Certificate</t>
+  </si>
+  <si>
+    <t>Business Relationship 13 Month Regular Cert.</t>
+  </si>
+  <si>
+    <t>Business Relationship 30 Month Regular Cert.</t>
+  </si>
+  <si>
+    <t>Relationship 30 Month Coverdell Certificate</t>
+  </si>
+  <si>
+    <t>Relationship 30 Month Regular Certificate</t>
+  </si>
+  <si>
+    <t>Relationship 30 Month Roth IRA Certificate</t>
+  </si>
+  <si>
+    <t>Relationship 30 Month Traditional IRA Certificate</t>
   </si>
 </sst>
 </file>
@@ -3296,6 +3356,29 @@
     <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3313,29 +3396,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4399,22 +4459,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4424,66 +4484,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="136">
+      <c r="H8" s="145">
         <v>2</v>
       </c>
-      <c r="I8" s="136"/>
+      <c r="I8" s="145"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4501,325 +4561,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="140" t="s">
+      <c r="H13" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="140"/>
+      <c r="I13" s="142"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="141" t="s">
+      <c r="H14" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="141"/>
+      <c r="I14" s="140"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="141" t="s">
+      <c r="H15" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="141"/>
+      <c r="I15" s="140"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="141" t="s">
+      <c r="H16" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="141"/>
+      <c r="I16" s="140"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="141" t="s">
+      <c r="C17" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="141" t="s">
+      <c r="H17" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="141"/>
+      <c r="I17" s="140"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="141" t="s">
+      <c r="C18" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="141" t="s">
+      <c r="H18" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="141"/>
+      <c r="I18" s="140"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="141" t="s">
+      <c r="H19" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="141"/>
+      <c r="I19" s="140"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="142" t="s">
+      <c r="C20" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="141" t="s">
+      <c r="H20" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="141"/>
+      <c r="I20" s="140"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="141" t="s">
+      <c r="H21" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="141"/>
+      <c r="I21" s="140"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="C22" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="141" t="s">
+      <c r="H22" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="141"/>
+      <c r="I22" s="140"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="141" t="s">
+      <c r="H23" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="141"/>
+      <c r="I23" s="140"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="141" t="s">
+      <c r="H24" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="141"/>
+      <c r="I24" s="140"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="143" t="s">
+      <c r="C25" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="143" t="s">
+      <c r="H25" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="143"/>
+      <c r="I25" s="137"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="143" t="s">
+      <c r="C26" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="143" t="s">
+      <c r="H26" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="143"/>
+      <c r="I26" s="137"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="143" t="s">
+      <c r="C27" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="143" t="s">
+      <c r="H27" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="143"/>
+      <c r="I27" s="137"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="143" t="s">
+      <c r="C28" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="143" t="s">
+      <c r="H28" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="143"/>
+      <c r="I28" s="137"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="143" t="s">
+      <c r="C29" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="143" t="s">
+      <c r="H29" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="143"/>
+      <c r="I29" s="137"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="143" t="s">
+      <c r="C30" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4832,413 +4892,512 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="143" t="s">
+      <c r="C31" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="143"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="143" t="s">
+      <c r="H31" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="143"/>
+      <c r="I31" s="137"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="143" t="s">
+      <c r="H32" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="143"/>
+      <c r="I32" s="137"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="145" t="s">
+      <c r="C33" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="145" t="s">
+      <c r="H33" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="145"/>
+      <c r="I33" s="138"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="145" t="s">
+      <c r="C34" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="145" t="s">
+      <c r="H34" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="145"/>
+      <c r="I34" s="138"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="146" t="s">
+      <c r="C35" s="135" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="143" t="s">
+      <c r="H35" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="143"/>
+      <c r="I35" s="137"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="143"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="146"/>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="135"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="147"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="147"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="143"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="147"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="143"/>
-      <c r="I44" s="143"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="137"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="147"/>
-      <c r="D45" s="147"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="147"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="143"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="148"/>
-      <c r="D47" s="148"/>
-      <c r="E47" s="148"/>
-      <c r="F47" s="148"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="143"/>
-      <c r="I47" s="143"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="148"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="148"/>
-      <c r="F48" s="148"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="143"/>
-      <c r="I48" s="143"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="137"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="148"/>
-      <c r="D49" s="148"/>
-      <c r="E49" s="148"/>
-      <c r="F49" s="148"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="143"/>
-      <c r="I49" s="143"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="137"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="148"/>
-      <c r="D50" s="148"/>
-      <c r="E50" s="148"/>
-      <c r="F50" s="148"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="143"/>
-      <c r="I50" s="143"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="147"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="146"/>
-      <c r="I51" s="146"/>
+      <c r="H51" s="135"/>
+      <c r="I51" s="135"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="147"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="134"/>
+      <c r="F52" s="134"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="146"/>
-      <c r="I52" s="146"/>
+      <c r="H52" s="135"/>
+      <c r="I52" s="135"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="147"/>
-      <c r="D53" s="147"/>
-      <c r="E53" s="147"/>
-      <c r="F53" s="147"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="146"/>
-      <c r="I53" s="146"/>
+      <c r="H53" s="135"/>
+      <c r="I53" s="135"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="147"/>
-      <c r="D54" s="147"/>
-      <c r="E54" s="147"/>
-      <c r="F54" s="147"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="146"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="135"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="147"/>
-      <c r="D55" s="147"/>
-      <c r="E55" s="147"/>
-      <c r="F55" s="147"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="134"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="134"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="146"/>
-      <c r="I55" s="146"/>
+      <c r="H55" s="135"/>
+      <c r="I55" s="135"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="147"/>
-      <c r="D56" s="147"/>
-      <c r="E56" s="147"/>
-      <c r="F56" s="147"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="146"/>
-      <c r="I56" s="146"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="135"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="147"/>
-      <c r="D57" s="147"/>
-      <c r="E57" s="147"/>
-      <c r="F57" s="147"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="134"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="146"/>
-      <c r="I57" s="146"/>
+      <c r="H57" s="135"/>
+      <c r="I57" s="135"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="147"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="146"/>
-      <c r="I58" s="146"/>
+      <c r="H58" s="135"/>
+      <c r="I58" s="135"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="147"/>
-      <c r="D59" s="147"/>
-      <c r="E59" s="147"/>
-      <c r="F59" s="147"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="146"/>
-      <c r="I59" s="146"/>
+      <c r="H59" s="135"/>
+      <c r="I59" s="135"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="147"/>
-      <c r="D60" s="147"/>
-      <c r="E60" s="147"/>
-      <c r="F60" s="147"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="134"/>
+      <c r="F60" s="134"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="147"/>
-      <c r="I60" s="147"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="147"/>
-      <c r="D61" s="147"/>
-      <c r="E61" s="147"/>
-      <c r="F61" s="147"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="147"/>
-      <c r="I61" s="147"/>
+      <c r="H61" s="134"/>
+      <c r="I61" s="134"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="147"/>
-      <c r="D62" s="147"/>
-      <c r="E62" s="147"/>
-      <c r="F62" s="147"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="134"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="147"/>
-      <c r="I62" s="147"/>
+      <c r="H62" s="134"/>
+      <c r="I62" s="134"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="147"/>
-      <c r="E63" s="147"/>
-      <c r="F63" s="147"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="147"/>
-      <c r="I63" s="147"/>
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="147"/>
-      <c r="E64" s="147"/>
-      <c r="F64" s="147"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="134"/>
+      <c r="E64" s="134"/>
+      <c r="F64" s="134"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="147"/>
-      <c r="I64" s="147"/>
+      <c r="H64" s="134"/>
+      <c r="I64" s="134"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="147"/>
-      <c r="D65" s="147"/>
-      <c r="E65" s="147"/>
-      <c r="F65" s="147"/>
+      <c r="C65" s="134"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="134"/>
+      <c r="F65" s="134"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="147"/>
-      <c r="I65" s="147"/>
+      <c r="H65" s="134"/>
+      <c r="I65" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5255,105 +5414,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5384,7 +5444,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
@@ -5397,7 +5457,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -5436,7 +5496,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="130" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C5" s="130"/>
       <c r="D5" s="130"/>
@@ -5493,7 +5553,7 @@
         <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -5506,7 +5566,7 @@
         <v>293</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
@@ -5542,50 +5602,50 @@
     </row>
     <row r="14" spans="1:8" ht="32">
       <c r="A14" s="131" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B14" s="131" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C14" s="131" t="s">
         <v>347</v>
       </c>
       <c r="D14" s="132" t="s">
+        <v>721</v>
+      </c>
+      <c r="E14" s="132" t="s">
+        <v>840</v>
+      </c>
+      <c r="F14" s="132" t="s">
+        <v>841</v>
+      </c>
+      <c r="G14" s="132" t="s">
+        <v>842</v>
+      </c>
+      <c r="H14" s="131" t="s">
         <v>722</v>
-      </c>
-      <c r="E14" s="132" t="s">
-        <v>841</v>
-      </c>
-      <c r="F14" s="132" t="s">
-        <v>842</v>
-      </c>
-      <c r="G14" s="132" t="s">
-        <v>843</v>
-      </c>
-      <c r="H14" s="131" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="48">
       <c r="A15" s="131"/>
       <c r="B15" s="131" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C15" s="131"/>
       <c r="D15" s="132" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E15" s="132" t="s">
+        <v>843</v>
+      </c>
+      <c r="F15" s="132" t="s">
         <v>844</v>
       </c>
-      <c r="F15" s="132" t="s">
+      <c r="G15" s="132" t="s">
         <v>845</v>
       </c>
-      <c r="G15" s="132" t="s">
-        <v>846</v>
-      </c>
       <c r="H15" s="132" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5621,7 +5681,7 @@
         <v>25000</v>
       </c>
       <c r="H17" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -5779,7 +5839,7 @@
         <v>101</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5879,7 +5939,7 @@
         <v>108</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
@@ -6122,17 +6182,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:Z110"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.5"/>
     <col min="2" max="2" width="31.6640625"/>
-    <col min="3" max="3" width="32.1640625"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="26" width="8.33203125"/>
     <col min="27" max="1025" width="8.5"/>
   </cols>
@@ -8017,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -8072,7 +8132,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -8094,7 +8154,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -8237,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -8248,7 +8308,117 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>851</v>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>184</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>185</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>186</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>187</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>188</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>189</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>190</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>191</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>192</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>193</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>871</v>
       </c>
     </row>
   </sheetData>
@@ -8462,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -8560,7 +8730,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -8795,10 +8965,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95:K96"/>
+    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79:K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9968,7 +10138,7 @@
       <c r="E54" s="1">
         <v>1</v>
       </c>
-      <c r="F54" s="47" t="s">
+      <c r="F54" s="56" t="s">
         <v>673</v>
       </c>
       <c r="K54" s="53" t="s">
@@ -9985,7 +10155,7 @@
       <c r="E55" s="1">
         <v>1</v>
       </c>
-      <c r="F55" s="47" t="s">
+      <c r="F55" s="56" t="s">
         <v>674</v>
       </c>
       <c r="K55" s="53" t="s">
@@ -10002,7 +10172,7 @@
       <c r="E56" s="1">
         <v>1</v>
       </c>
-      <c r="F56" s="47" t="s">
+      <c r="F56" s="56" t="s">
         <v>675</v>
       </c>
       <c r="K56" s="53" t="s">
@@ -10385,234 +10555,228 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C79" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>698</v>
+        <v>851</v>
       </c>
       <c r="K79" t="s">
-        <v>733</v>
+        <v>862</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C80" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>699</v>
+        <v>852</v>
       </c>
       <c r="K80" t="s">
-        <v>614</v>
+        <v>863</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="C81" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>700</v>
+        <v>853</v>
       </c>
       <c r="K81" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="87" customFormat="1">
-      <c r="A82" s="87">
-        <v>166</v>
-      </c>
-      <c r="C82" s="87" t="s">
-        <v>393</v>
-      </c>
-      <c r="E82" s="87">
-        <v>1</v>
-      </c>
-      <c r="F82" s="87" t="s">
-        <v>701</v>
-      </c>
-      <c r="K82" s="87" t="s">
-        <v>616</v>
+        <v>864</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>187</v>
+      </c>
+      <c r="C82" t="s">
+        <v>392</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>854</v>
+      </c>
+      <c r="K82" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="C83" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>702</v>
+        <v>855</v>
       </c>
       <c r="K83" t="s">
-        <v>617</v>
+        <v>866</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C84" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>703</v>
+        <v>856</v>
       </c>
       <c r="K84" t="s">
-        <v>734</v>
+        <v>867</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="C85" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>704</v>
+        <v>857</v>
       </c>
       <c r="K85" t="s">
-        <v>618</v>
+        <v>868</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C86" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>705</v>
+        <v>858</v>
       </c>
       <c r="K86" t="s">
-        <v>735</v>
+        <v>869</v>
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="87">
-        <v>171</v>
-      </c>
-      <c r="B87" s="87"/>
-      <c r="C87" s="87" t="s">
-        <v>393</v>
-      </c>
-      <c r="D87" s="87"/>
-      <c r="E87" s="87">
-        <v>1</v>
-      </c>
-      <c r="F87" s="87" t="s">
-        <v>706</v>
-      </c>
-      <c r="G87" s="87"/>
-      <c r="H87" s="87"/>
-      <c r="I87" s="87"/>
-      <c r="J87" s="87"/>
-      <c r="K87" s="87" t="s">
-        <v>619</v>
+      <c r="A87">
+        <v>192</v>
+      </c>
+      <c r="C87" t="s">
+        <v>392</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>859</v>
+      </c>
+      <c r="K87" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C88" t="s">
+        <v>392</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>860</v>
+      </c>
+      <c r="K88" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>163</v>
+      </c>
+      <c r="C89" t="s">
         <v>393</v>
       </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88" t="s">
-        <v>707</v>
-      </c>
-      <c r="K88" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="87" customFormat="1">
-      <c r="A89" s="87">
-        <v>173</v>
-      </c>
-      <c r="C89" s="87" t="s">
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>861</v>
+      </c>
+      <c r="K89" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>164</v>
+      </c>
+      <c r="C90" t="s">
         <v>393</v>
       </c>
-      <c r="E89" s="87">
-        <v>1</v>
-      </c>
-      <c r="F89" s="87" t="s">
-        <v>708</v>
-      </c>
-      <c r="K89" s="87" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="87" customFormat="1">
-      <c r="A90" s="87">
-        <v>174</v>
-      </c>
-      <c r="C90" s="87" t="s">
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>698</v>
+      </c>
+      <c r="K90" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>165</v>
+      </c>
+      <c r="C91" t="s">
         <v>393</v>
       </c>
-      <c r="E90" s="87">
-        <v>1</v>
-      </c>
-      <c r="F90" s="87" t="s">
-        <v>709</v>
-      </c>
-      <c r="K90" s="87" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="87" customFormat="1">
-      <c r="A91" s="87">
-        <v>175</v>
-      </c>
-      <c r="C91" s="87" t="s">
-        <v>393</v>
-      </c>
-      <c r="E91" s="87">
-        <v>1</v>
-      </c>
-      <c r="F91" s="87" t="s">
-        <v>710</v>
-      </c>
-      <c r="K91" s="87" t="s">
-        <v>623</v>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>699</v>
+      </c>
+      <c r="K91" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="92" spans="1:11" s="87" customFormat="1">
       <c r="A92" s="87">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C92" s="87" t="s">
         <v>393</v>
@@ -10621,32 +10785,32 @@
         <v>1</v>
       </c>
       <c r="F92" s="87" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="K92" s="87" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" s="87" customFormat="1">
-      <c r="A93" s="87">
-        <v>177</v>
-      </c>
-      <c r="C93" s="87" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>167</v>
+      </c>
+      <c r="C93" t="s">
         <v>393</v>
       </c>
-      <c r="E93" s="87">
-        <v>1</v>
-      </c>
-      <c r="F93" s="87" t="s">
-        <v>712</v>
-      </c>
-      <c r="K93" s="87" t="s">
-        <v>625</v>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>701</v>
+      </c>
+      <c r="K93" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C94" t="s">
         <v>393</v>
@@ -10655,15 +10819,15 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="K94" t="s">
-        <v>626</v>
+        <v>733</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C95" t="s">
         <v>393</v>
@@ -10672,15 +10836,15 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>848</v>
+        <v>703</v>
       </c>
       <c r="K95" t="s">
-        <v>850</v>
+        <v>618</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C96" t="s">
         <v>393</v>
@@ -10689,77 +10853,253 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>849</v>
+        <v>704</v>
       </c>
       <c r="K96" t="s">
-        <v>851</v>
+        <v>734</v>
       </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97">
-        <v>64</v>
-      </c>
-      <c r="C97" t="s">
-        <v>739</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97" t="s">
-        <v>394</v>
-      </c>
-      <c r="K97" t="s">
-        <v>627</v>
+      <c r="A97" s="87">
+        <v>171</v>
+      </c>
+      <c r="B97" s="87"/>
+      <c r="C97" s="87" t="s">
+        <v>393</v>
+      </c>
+      <c r="D97" s="87"/>
+      <c r="E97" s="87">
+        <v>1</v>
+      </c>
+      <c r="F97" s="87" t="s">
+        <v>705</v>
+      </c>
+      <c r="G97" s="87"/>
+      <c r="H97" s="87"/>
+      <c r="I97" s="87"/>
+      <c r="J97" s="87"/>
+      <c r="K97" s="87" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98">
+        <v>172</v>
+      </c>
+      <c r="C98" t="s">
+        <v>393</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>706</v>
+      </c>
+      <c r="K98" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="87" customFormat="1">
+      <c r="A99" s="87">
+        <v>173</v>
+      </c>
+      <c r="C99" s="87" t="s">
+        <v>393</v>
+      </c>
+      <c r="E99" s="87">
+        <v>1</v>
+      </c>
+      <c r="F99" s="87" t="s">
+        <v>707</v>
+      </c>
+      <c r="K99" s="87" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="87" customFormat="1">
+      <c r="A100" s="87">
+        <v>174</v>
+      </c>
+      <c r="C100" s="87" t="s">
+        <v>393</v>
+      </c>
+      <c r="E100" s="87">
+        <v>1</v>
+      </c>
+      <c r="F100" s="87" t="s">
+        <v>708</v>
+      </c>
+      <c r="K100" s="87" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="87" customFormat="1">
+      <c r="A101" s="87">
+        <v>175</v>
+      </c>
+      <c r="C101" s="87" t="s">
+        <v>393</v>
+      </c>
+      <c r="E101" s="87">
+        <v>1</v>
+      </c>
+      <c r="F101" s="87" t="s">
+        <v>709</v>
+      </c>
+      <c r="K101" s="87" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="87" customFormat="1">
+      <c r="A102" s="87">
+        <v>176</v>
+      </c>
+      <c r="C102" s="87" t="s">
+        <v>393</v>
+      </c>
+      <c r="E102" s="87">
+        <v>1</v>
+      </c>
+      <c r="F102" s="87" t="s">
+        <v>710</v>
+      </c>
+      <c r="K102" s="87" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="87" customFormat="1">
+      <c r="A103" s="87">
+        <v>177</v>
+      </c>
+      <c r="C103" s="87" t="s">
+        <v>393</v>
+      </c>
+      <c r="E103" s="87">
+        <v>1</v>
+      </c>
+      <c r="F103" s="87" t="s">
+        <v>711</v>
+      </c>
+      <c r="K103" s="87" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>178</v>
+      </c>
+      <c r="C104" t="s">
+        <v>393</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>712</v>
+      </c>
+      <c r="K104" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>182</v>
+      </c>
+      <c r="C105" t="s">
+        <v>393</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>847</v>
+      </c>
+      <c r="K105" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>183</v>
+      </c>
+      <c r="C106" t="s">
+        <v>393</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>848</v>
+      </c>
+      <c r="K106" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>64</v>
+      </c>
+      <c r="C107" t="s">
+        <v>738</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>394</v>
+      </c>
+      <c r="K107" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
         <v>179</v>
       </c>
-      <c r="C98" t="s">
-        <v>738</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="C108" t="s">
+        <v>737</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
         <v>395</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K108" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
-      <c r="A99">
+    <row r="109" spans="1:11">
+      <c r="A109">
         <v>180</v>
       </c>
-      <c r="C99" t="s">
-        <v>738</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="C109" t="s">
+        <v>737</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
         <v>396</v>
       </c>
-      <c r="K99" t="s">
+      <c r="K109" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100">
+    <row r="110" spans="1:11">
+      <c r="A110">
         <v>181</v>
       </c>
-      <c r="C100" t="s">
-        <v>738</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="C110" t="s">
+        <v>737</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
         <v>397</v>
       </c>
-      <c r="K100" t="s">
+      <c r="K110" t="s">
         <v>397</v>
       </c>
     </row>
@@ -10788,7 +11128,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48">
@@ -10796,7 +11136,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
@@ -10820,7 +11160,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -10852,7 +11192,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16">
@@ -10877,13 +11217,13 @@
     </row>
     <row r="14" spans="1:3" ht="32">
       <c r="A14" s="68" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -10904,7 +11244,7 @@
         <v>166</v>
       </c>
       <c r="C17" s="127" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -10915,7 +11255,7 @@
         <v>171</v>
       </c>
       <c r="C18" s="127" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -10926,7 +11266,7 @@
         <v>173</v>
       </c>
       <c r="C19" s="127" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -10937,7 +11277,7 @@
         <v>174</v>
       </c>
       <c r="C20" s="127" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -10948,7 +11288,7 @@
         <v>175</v>
       </c>
       <c r="C21" s="127" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -10959,7 +11299,7 @@
         <v>176</v>
       </c>
       <c r="C22" s="127" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -10970,7 +11310,7 @@
         <v>177</v>
       </c>
       <c r="C23" s="127" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -10981,7 +11321,7 @@
         <v>182</v>
       </c>
       <c r="C24" s="127" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -10992,7 +11332,7 @@
         <v>183</v>
       </c>
       <c r="C25" s="127" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -11003,7 +11343,7 @@
         <v>163</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -11014,10 +11354,10 @@
         <v>164</v>
       </c>
       <c r="C27" s="26" t="s">
+        <v>838</v>
+      </c>
+      <c r="H27" s="127" t="s">
         <v>839</v>
-      </c>
-      <c r="H27" s="127" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -11028,7 +11368,7 @@
         <v>165</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -11039,7 +11379,7 @@
         <v>167</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -11050,7 +11390,7 @@
         <v>168</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -11061,7 +11401,7 @@
         <v>169</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -11072,7 +11412,7 @@
         <v>170</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -11083,7 +11423,7 @@
         <v>172</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -11094,7 +11434,7 @@
         <v>178</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -11112,10 +11452,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12086,6 +12426,86 @@
         <v>183</v>
       </c>
       <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>184</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>185</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>186</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>187</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>188</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>189</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>190</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>191</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>192</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>193</v>
+      </c>
+      <c r="B110">
         <v>1</v>
       </c>
     </row>
@@ -12298,7 +12718,7 @@
         <v>414</v>
       </c>
       <c r="B18" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D18" s="57">
         <v>1</v>
@@ -12924,7 +13344,7 @@
         <v>501</v>
       </c>
       <c r="B48" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D48" s="57">
         <v>1</v>
@@ -12944,7 +13364,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B49">
         <v>40.2301</v>
@@ -12962,12 +13382,12 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B50">
         <v>74.915499999999994</v>
@@ -12985,15 +13405,15 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18">
       <c r="A51" s="92" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B51" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D51" s="57">
         <v>1</v>
@@ -13008,7 +13428,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="86" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -13021,7 +13441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482A250D-1B80-8646-9883-5EADF94686E3}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -13124,7 +13544,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -13157,7 +13577,7 @@
     </row>
     <row r="14" spans="1:5" ht="16">
       <c r="A14" s="109" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B14" s="109" t="s">
         <v>494</v>
@@ -13188,16 +13608,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="60" t="s">
+        <v>793</v>
+      </c>
+      <c r="B17" s="64" t="s">
         <v>794</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>795</v>
       </c>
       <c r="C17" s="111" t="s">
         <v>498</v>
       </c>
       <c r="D17" s="111" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E17" s="60">
         <v>1</v>
@@ -13205,13 +13625,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="60" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B18" t="s">
+        <v>796</v>
+      </c>
+      <c r="C18" s="111" t="s">
         <v>797</v>
-      </c>
-      <c r="C18" s="111" t="s">
-        <v>798</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -13219,16 +13639,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>798</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>796</v>
+      </c>
+      <c r="C19" s="111" t="s">
+        <v>797</v>
+      </c>
+      <c r="D19" s="111" t="s">
         <v>799</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>797</v>
-      </c>
-      <c r="C19" s="111" t="s">
-        <v>798</v>
-      </c>
-      <c r="D19" s="111" t="s">
-        <v>800</v>
       </c>
       <c r="E19" s="60">
         <v>1</v>
@@ -13237,13 +13657,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B20" t="s">
+        <v>800</v>
+      </c>
+      <c r="C20" s="111" t="s">
         <v>801</v>
-      </c>
-      <c r="C20" s="111" t="s">
-        <v>802</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -13728,7 +14148,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C29" s="63">
         <v>1</v>
@@ -13741,7 +14161,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="75" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -13844,7 +14264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D94DE1-7D84-A341-BE73-C0E2285BF343}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
@@ -13868,7 +14288,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I1" s="79"/>
     </row>
@@ -13877,7 +14297,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
@@ -13922,7 +14342,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
@@ -13989,7 +14409,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C10" s="81"/>
       <c r="D10" s="81"/>
@@ -14042,10 +14462,10 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="85" t="s">
+        <v>750</v>
+      </c>
+      <c r="B14" s="85" t="s">
         <v>751</v>
-      </c>
-      <c r="B14" s="85" t="s">
-        <v>752</v>
       </c>
       <c r="C14" s="85" t="s">
         <v>300</v>
@@ -14054,54 +14474,54 @@
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="85"/>
       <c r="B15" s="85" t="s">
+        <v>752</v>
+      </c>
+      <c r="C15" s="85" t="s">
         <v>753</v>
-      </c>
-      <c r="C15" s="85" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18">
       <c r="A16" s="86" t="s">
+        <v>757</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>756</v>
+      </c>
+      <c r="C16" s="78" t="s">
         <v>758</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>757</v>
-      </c>
-      <c r="C16" s="78" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="78" t="s">
+        <v>754</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>756</v>
+      </c>
+      <c r="C17" s="78" t="s">
         <v>755</v>
-      </c>
-      <c r="B17" s="78" t="s">
-        <v>757</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18" s="86" t="s">
+        <v>765</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>756</v>
+      </c>
+      <c r="C18" s="86" t="s">
         <v>766</v>
-      </c>
-      <c r="B18" s="78" t="s">
-        <v>757</v>
-      </c>
-      <c r="C18" s="86" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
       <c r="A19" s="86" t="s">
+        <v>836</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>756</v>
+      </c>
+      <c r="C19" s="86" t="s">
         <v>837</v>
-      </c>
-      <c r="B19" s="78" t="s">
-        <v>757</v>
-      </c>
-      <c r="C19" s="86" t="s">
-        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -14139,7 +14559,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="94" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D1" s="96"/>
     </row>
@@ -14148,7 +14568,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D2" s="96"/>
     </row>
@@ -14175,7 +14595,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D5" s="96"/>
     </row>
@@ -14212,7 +14632,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D10" s="96"/>
     </row>
@@ -14242,31 +14662,31 @@
         <v>350</v>
       </c>
       <c r="B14" s="102" t="s">
+        <v>770</v>
+      </c>
+      <c r="C14" s="102" t="s">
         <v>771</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="D14" s="102" t="s">
         <v>772</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="E14" s="102" t="s">
         <v>773</v>
       </c>
-      <c r="E14" s="102" t="s">
+      <c r="F14" s="102" t="s">
         <v>774</v>
       </c>
-      <c r="F14" s="102" t="s">
+      <c r="G14" s="102" t="s">
         <v>775</v>
       </c>
-      <c r="G14" s="102" t="s">
+      <c r="H14" s="102" t="s">
         <v>776</v>
       </c>
-      <c r="H14" s="102" t="s">
+      <c r="I14" s="102" t="s">
         <v>777</v>
       </c>
-      <c r="I14" s="102" t="s">
+      <c r="J14" s="102" t="s">
         <v>778</v>
-      </c>
-      <c r="J14" s="102" t="s">
-        <v>779</v>
       </c>
       <c r="K14" s="102"/>
     </row>
@@ -14301,19 +14721,19 @@
         <v>0</v>
       </c>
       <c r="B17" s="95" t="s">
+        <v>779</v>
+      </c>
+      <c r="C17" s="95" t="s">
         <v>780</v>
-      </c>
-      <c r="C17" s="95" t="s">
-        <v>781</v>
       </c>
       <c r="D17" s="95">
         <v>371</v>
       </c>
       <c r="F17" s="95" t="s">
+        <v>781</v>
+      </c>
+      <c r="H17" s="95" t="s">
         <v>782</v>
-      </c>
-      <c r="H17" s="95" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14321,19 +14741,19 @@
         <v>0</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C18" s="95" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D18" s="95">
         <v>371</v>
       </c>
       <c r="F18" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H18" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14341,19 +14761,19 @@
         <v>0</v>
       </c>
       <c r="B19" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C19" s="95" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D19" s="95">
         <v>371</v>
       </c>
       <c r="F19" s="95" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H19" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14361,19 +14781,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C20" s="95" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D20" s="95">
         <v>371</v>
       </c>
       <c r="F20" s="95" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H20" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14381,19 +14801,19 @@
         <v>0</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C21" s="95" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D21" s="95">
         <v>313</v>
       </c>
       <c r="F21" s="95" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H21" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14401,19 +14821,19 @@
         <v>0</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C22" s="95" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D22" s="95">
         <v>313</v>
       </c>
       <c r="F22" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H22" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14421,19 +14841,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C23" s="95" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D23" s="95">
         <v>313</v>
       </c>
       <c r="F23" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H23" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14441,19 +14861,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C24" s="95" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D24" s="95">
         <v>712</v>
       </c>
       <c r="F24" s="95" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H24" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -14461,19 +14881,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C25" s="95" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D25" s="95">
         <v>712</v>
       </c>
       <c r="F25" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H25" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -14481,19 +14901,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C26" s="95" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D26" s="95">
         <v>712</v>
       </c>
       <c r="F26" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H26" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14501,19 +14921,19 @@
         <v>0</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C27" s="95" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D27" s="95">
         <v>316</v>
       </c>
       <c r="F27" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H27" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14521,19 +14941,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C28" s="95" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D28" s="95">
         <v>316</v>
       </c>
       <c r="F28" s="114" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H28" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -14541,19 +14961,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C29" s="95" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D29" s="95">
         <v>316</v>
       </c>
       <c r="F29" s="95" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H29" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -14561,19 +14981,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C30" s="95" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D30" s="95">
         <v>321</v>
       </c>
       <c r="F30" s="95" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H30" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -14581,19 +15001,19 @@
         <v>0</v>
       </c>
       <c r="B31" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C31" s="95" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D31" s="95">
         <v>321</v>
       </c>
       <c r="F31" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H31" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -14601,19 +15021,19 @@
         <v>0</v>
       </c>
       <c r="B32" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C32" s="95" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D32" s="95">
         <v>321</v>
       </c>
       <c r="F32" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H32" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -14621,19 +15041,19 @@
         <v>0</v>
       </c>
       <c r="B33" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C33" s="95" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D33" s="103">
         <v>833</v>
       </c>
       <c r="F33" s="115" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H33" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -14666,7 +15086,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="96" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C1" s="96"/>
     </row>
@@ -14771,10 +15191,10 @@
         <v>347</v>
       </c>
       <c r="B14" s="102" t="s">
+        <v>805</v>
+      </c>
+      <c r="C14" s="102" t="s">
         <v>806</v>
-      </c>
-      <c r="C14" s="102" t="s">
-        <v>807</v>
       </c>
       <c r="D14" s="102" t="s">
         <v>300</v>
@@ -14782,10 +15202,10 @@
     </row>
     <row r="15" spans="1:4" ht="16">
       <c r="A15" s="116" t="s">
+        <v>807</v>
+      </c>
+      <c r="B15" s="116" t="s">
         <v>808</v>
-      </c>
-      <c r="B15" s="116" t="s">
-        <v>809</v>
       </c>
       <c r="C15" s="116"/>
       <c r="D15" s="116" t="s">
@@ -14795,7 +15215,7 @@
     <row r="16" spans="1:4" ht="16">
       <c r="A16" s="117"/>
       <c r="B16" s="117" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C16" s="117"/>
       <c r="D16" s="117" t="s">
@@ -14810,10 +15230,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="103" t="s">
+        <v>810</v>
+      </c>
+      <c r="D17" s="103" t="s">
         <v>811</v>
-      </c>
-      <c r="D17" s="103" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -14824,10 +15244,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="103" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D18" s="103" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -14838,10 +15258,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="103" t="s">
+        <v>813</v>
+      </c>
+      <c r="D19" s="103" t="s">
         <v>814</v>
-      </c>
-      <c r="D19" s="103" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16">
@@ -14852,10 +15272,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="103" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D20" s="121" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -14866,10 +15286,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="103" t="s">
+        <v>816</v>
+      </c>
+      <c r="D21" s="103" t="s">
         <v>817</v>
-      </c>
-      <c r="D21" s="103" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -14880,10 +15300,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="103" t="s">
+        <v>818</v>
+      </c>
+      <c r="D22" s="103" t="s">
         <v>819</v>
-      </c>
-      <c r="D22" s="103" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16">
@@ -14894,10 +15314,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="103" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D23" s="121" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -14908,10 +15328,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="103" t="s">
+        <v>821</v>
+      </c>
+      <c r="D24" s="103" t="s">
         <v>822</v>
-      </c>
-      <c r="D24" s="103" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -14922,10 +15342,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="103" t="s">
+        <v>823</v>
+      </c>
+      <c r="D25" s="103" t="s">
         <v>824</v>
-      </c>
-      <c r="D25" s="103" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -14936,10 +15356,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="103" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D26" s="103" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -16484,16 +16904,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="89" t="s">
+        <v>759</v>
+      </c>
+      <c r="C24" s="90">
+        <v>1</v>
+      </c>
+      <c r="D24" s="91">
+        <v>1</v>
+      </c>
+      <c r="E24" s="89" t="s">
         <v>760</v>
-      </c>
-      <c r="C24" s="90">
-        <v>1</v>
-      </c>
-      <c r="D24" s="91">
-        <v>1</v>
-      </c>
-      <c r="E24" s="89" t="s">
-        <v>761</v>
       </c>
       <c r="F24" s="88"/>
     </row>
@@ -16502,7 +16922,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="123" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C25" s="124">
         <v>0</v>
@@ -16511,7 +16931,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="125" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="80">
@@ -16519,7 +16939,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="123" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C26" s="124">
         <v>0</v>
@@ -16528,7 +16948,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="125" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -16792,7 +17212,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -16806,7 +17226,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="126" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -16820,7 +17240,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="126" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -16834,7 +17254,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="126" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -16848,7 +17268,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -17929,7 +18349,7 @@
       </c>
       <c r="H17" s="45"/>
       <c r="I17" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="1"/>
@@ -18173,7 +18593,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="46" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J24" s="26"/>
       <c r="K24" s="1"/>
@@ -18681,7 +19101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -20163,7 +20583,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13" customHeight="1">
@@ -20171,7 +20591,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13" customHeight="1">
@@ -20195,7 +20615,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13" customHeight="1">
@@ -20227,7 +20647,7 @@
         <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13" customHeight="1">
@@ -20255,7 +20675,7 @@
         <v>292</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="13" customHeight="1">

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00870BF-A205-3D4B-BF84-DBDA3CD808B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71F9907-9868-7346-B249-0060931358C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="2020" windowWidth="32920" windowHeight="18240" tabRatio="991" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5480" yWindow="2020" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -3065,7 +3065,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3356,29 +3356,6 @@
     <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3396,6 +3373,35 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4459,22 +4465,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4484,66 +4490,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="145" t="s">
+      <c r="C8" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="145">
+      <c r="H8" s="136">
         <v>2</v>
       </c>
-      <c r="I8" s="145"/>
+      <c r="I8" s="136"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4561,325 +4567,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="142" t="s">
+      <c r="H13" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="142"/>
+      <c r="I13" s="140"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="140" t="s">
+      <c r="H14" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="140"/>
+      <c r="I14" s="141"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="140" t="s">
+      <c r="H15" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="140"/>
+      <c r="I15" s="141"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="140" t="s">
+      <c r="C16" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="140" t="s">
+      <c r="H16" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="140"/>
+      <c r="I16" s="141"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="140" t="s">
+      <c r="C17" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="140" t="s">
+      <c r="H17" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="140"/>
+      <c r="I17" s="141"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="140" t="s">
+      <c r="C18" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="140" t="s">
+      <c r="H18" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="140"/>
+      <c r="I18" s="141"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="140" t="s">
+      <c r="H19" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="140"/>
+      <c r="I19" s="141"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="141" t="s">
+      <c r="C20" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="140" t="s">
+      <c r="H20" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="140"/>
+      <c r="I20" s="141"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="141" t="s">
+      <c r="C21" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="140" t="s">
+      <c r="H21" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="140"/>
+      <c r="I21" s="141"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="140" t="s">
+      <c r="H22" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="140"/>
+      <c r="I22" s="141"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="140" t="s">
+      <c r="H23" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="140"/>
+      <c r="I23" s="141"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="140" t="s">
+      <c r="C24" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="140" t="s">
+      <c r="H24" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="140"/>
+      <c r="I24" s="141"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="137" t="s">
+      <c r="C25" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="137" t="s">
+      <c r="H25" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="137"/>
+      <c r="I25" s="143"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="137" t="s">
+      <c r="C26" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="137" t="s">
+      <c r="H26" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="137"/>
+      <c r="I26" s="143"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="137" t="s">
+      <c r="C27" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="137" t="s">
+      <c r="H27" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="137"/>
+      <c r="I27" s="143"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="137" t="s">
+      <c r="C28" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="137" t="s">
+      <c r="H28" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="137"/>
+      <c r="I28" s="143"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="137" t="s">
+      <c r="H29" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="137"/>
+      <c r="I29" s="143"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="137" t="s">
+      <c r="C30" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4892,512 +4898,413 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="137" t="s">
+      <c r="C31" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="137" t="s">
+      <c r="H31" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="137"/>
+      <c r="I31" s="143"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="139" t="s">
+      <c r="C32" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="137" t="s">
+      <c r="H32" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="137"/>
+      <c r="I32" s="143"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="138" t="s">
+      <c r="C33" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="138" t="s">
+      <c r="H33" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="138"/>
+      <c r="I33" s="145"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="138" t="s">
+      <c r="C34" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="138"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="138"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="138" t="s">
+      <c r="H34" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="138"/>
+      <c r="I34" s="145"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="135" t="s">
+      <c r="C35" s="146" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="137" t="s">
+      <c r="H35" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="137"/>
+      <c r="I35" s="143"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="137"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="134"/>
-      <c r="D40" s="134"/>
-      <c r="E40" s="134"/>
-      <c r="F40" s="134"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="134"/>
-      <c r="E41" s="134"/>
-      <c r="F41" s="134"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="143"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="134"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
+      <c r="H44" s="143"/>
+      <c r="I44" s="143"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="147"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="143"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
+      <c r="C47" s="148"/>
+      <c r="D47" s="148"/>
+      <c r="E47" s="148"/>
+      <c r="F47" s="148"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="143"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="143"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="148"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
+      <c r="H49" s="143"/>
+      <c r="I49" s="143"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
+      <c r="C50" s="148"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="148"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
+      <c r="H50" s="143"/>
+      <c r="I50" s="143"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="147"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="135"/>
-      <c r="I51" s="135"/>
+      <c r="H51" s="146"/>
+      <c r="I51" s="146"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="134"/>
-      <c r="F52" s="134"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="147"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="135"/>
-      <c r="I52" s="135"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="146"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="134"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134"/>
+      <c r="C53" s="147"/>
+      <c r="D53" s="147"/>
+      <c r="E53" s="147"/>
+      <c r="F53" s="147"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="135"/>
-      <c r="I53" s="135"/>
+      <c r="H53" s="146"/>
+      <c r="I53" s="146"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="134"/>
-      <c r="E54" s="134"/>
-      <c r="F54" s="134"/>
+      <c r="C54" s="147"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="147"/>
+      <c r="F54" s="147"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="135"/>
-      <c r="I54" s="135"/>
+      <c r="H54" s="146"/>
+      <c r="I54" s="146"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="134"/>
-      <c r="E55" s="134"/>
-      <c r="F55" s="134"/>
+      <c r="C55" s="147"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="147"/>
+      <c r="F55" s="147"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="135"/>
-      <c r="I55" s="135"/>
+      <c r="H55" s="146"/>
+      <c r="I55" s="146"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="134"/>
-      <c r="D56" s="134"/>
-      <c r="E56" s="134"/>
-      <c r="F56" s="134"/>
+      <c r="C56" s="147"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="147"/>
+      <c r="F56" s="147"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
+      <c r="H56" s="146"/>
+      <c r="I56" s="146"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="134"/>
-      <c r="D57" s="134"/>
-      <c r="E57" s="134"/>
-      <c r="F57" s="134"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="147"/>
+      <c r="E57" s="147"/>
+      <c r="F57" s="147"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="135"/>
-      <c r="I57" s="135"/>
+      <c r="H57" s="146"/>
+      <c r="I57" s="146"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="134"/>
-      <c r="E58" s="134"/>
-      <c r="F58" s="134"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="147"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="135"/>
-      <c r="I58" s="135"/>
+      <c r="H58" s="146"/>
+      <c r="I58" s="146"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="134"/>
-      <c r="D59" s="134"/>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
+      <c r="C59" s="147"/>
+      <c r="D59" s="147"/>
+      <c r="E59" s="147"/>
+      <c r="F59" s="147"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="135"/>
-      <c r="I59" s="135"/>
+      <c r="H59" s="146"/>
+      <c r="I59" s="146"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="134"/>
-      <c r="D60" s="134"/>
-      <c r="E60" s="134"/>
-      <c r="F60" s="134"/>
+      <c r="C60" s="147"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="147"/>
+      <c r="F60" s="147"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="134"/>
-      <c r="I60" s="134"/>
+      <c r="H60" s="147"/>
+      <c r="I60" s="147"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="134"/>
-      <c r="D61" s="134"/>
-      <c r="E61" s="134"/>
-      <c r="F61" s="134"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="147"/>
+      <c r="E61" s="147"/>
+      <c r="F61" s="147"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="134"/>
-      <c r="I61" s="134"/>
+      <c r="H61" s="147"/>
+      <c r="I61" s="147"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="134"/>
-      <c r="D62" s="134"/>
-      <c r="E62" s="134"/>
-      <c r="F62" s="134"/>
+      <c r="C62" s="147"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="147"/>
+      <c r="F62" s="147"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="134"/>
-      <c r="I62" s="134"/>
+      <c r="H62" s="147"/>
+      <c r="I62" s="147"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="134"/>
-      <c r="D63" s="134"/>
-      <c r="E63" s="134"/>
-      <c r="F63" s="134"/>
+      <c r="C63" s="147"/>
+      <c r="D63" s="147"/>
+      <c r="E63" s="147"/>
+      <c r="F63" s="147"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="134"/>
-      <c r="I63" s="134"/>
+      <c r="H63" s="147"/>
+      <c r="I63" s="147"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="134"/>
-      <c r="D64" s="134"/>
-      <c r="E64" s="134"/>
-      <c r="F64" s="134"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="147"/>
+      <c r="F64" s="147"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="134"/>
-      <c r="I64" s="134"/>
+      <c r="H64" s="147"/>
+      <c r="I64" s="147"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="134"/>
-      <c r="D65" s="134"/>
-      <c r="E65" s="134"/>
-      <c r="F65" s="134"/>
+      <c r="C65" s="147"/>
+      <c r="D65" s="147"/>
+      <c r="E65" s="147"/>
+      <c r="F65" s="147"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="134"/>
-      <c r="I65" s="134"/>
+      <c r="H65" s="147"/>
+      <c r="I65" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5414,6 +5321,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6185,7 +6191,7 @@
   <dimension ref="A1:Z110"/>
   <sheetViews>
     <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8967,8 +8973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79:K88"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -16577,7 +16583,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:E26"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -17286,7 +17292,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G41"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -17457,7 +17463,7 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="149">
         <v>1</v>
       </c>
       <c r="C17" s="22">
@@ -17661,7 +17667,7 @@
       <c r="A26">
         <v>10</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="150">
         <v>1</v>
       </c>
       <c r="C26" s="37">
@@ -19101,7 +19107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71F9907-9868-7346-B249-0060931358C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA81F199-C4B3-C64F-AB9D-8A8CA3026DB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5480" yWindow="2020" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="871">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2629,9 +2629,6 @@
   </si>
   <si>
     <t>3000000078</t>
-  </si>
-  <si>
-    <t>3000000079</t>
   </si>
   <si>
     <t>Relationship 13 Month Regular Certificate</t>
@@ -3356,6 +3353,35 @@
     <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3373,35 +3399,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4465,22 +4462,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4490,66 +4487,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="136">
+      <c r="H8" s="147">
         <v>2</v>
       </c>
-      <c r="I8" s="136"/>
+      <c r="I8" s="147"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4567,325 +4564,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="140" t="s">
+      <c r="H13" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="140"/>
+      <c r="I13" s="144"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="141" t="s">
+      <c r="H14" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="141"/>
+      <c r="I14" s="142"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="141" t="s">
+      <c r="H15" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="141"/>
+      <c r="I15" s="142"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="141" t="s">
+      <c r="H16" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="141"/>
+      <c r="I16" s="142"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="141" t="s">
+      <c r="C17" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="141" t="s">
+      <c r="H17" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="141"/>
+      <c r="I17" s="142"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="141" t="s">
+      <c r="C18" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="141" t="s">
+      <c r="H18" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="141"/>
+      <c r="I18" s="142"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="141" t="s">
+      <c r="H19" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="141"/>
+      <c r="I19" s="142"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="142" t="s">
+      <c r="C20" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="141" t="s">
+      <c r="H20" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="141"/>
+      <c r="I20" s="142"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="141" t="s">
+      <c r="H21" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="141"/>
+      <c r="I21" s="142"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="C22" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="141" t="s">
+      <c r="H22" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="141"/>
+      <c r="I22" s="142"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="141" t="s">
+      <c r="H23" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="141"/>
+      <c r="I23" s="142"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="141" t="s">
+      <c r="H24" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="141"/>
+      <c r="I24" s="142"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="143" t="s">
+      <c r="C25" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="143" t="s">
+      <c r="H25" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="143"/>
+      <c r="I25" s="139"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="143" t="s">
+      <c r="C26" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="143" t="s">
+      <c r="H26" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="143"/>
+      <c r="I26" s="139"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="143" t="s">
+      <c r="C27" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="143" t="s">
+      <c r="H27" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="143"/>
+      <c r="I27" s="139"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="143" t="s">
+      <c r="C28" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="143" t="s">
+      <c r="H28" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="143"/>
+      <c r="I28" s="139"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="143" t="s">
+      <c r="C29" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="143" t="s">
+      <c r="H29" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="143"/>
+      <c r="I29" s="139"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="143" t="s">
+      <c r="C30" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4898,413 +4895,512 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="143" t="s">
+      <c r="C31" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="143"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="143" t="s">
+      <c r="H31" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="143"/>
+      <c r="I31" s="139"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="143" t="s">
+      <c r="H32" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="143"/>
+      <c r="I32" s="139"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="145" t="s">
+      <c r="C33" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="145" t="s">
+      <c r="H33" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="145"/>
+      <c r="I33" s="140"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="145" t="s">
+      <c r="C34" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="145" t="s">
+      <c r="H34" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="145"/>
+      <c r="I34" s="140"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="146" t="s">
+      <c r="C35" s="137" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="143" t="s">
+      <c r="H35" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="143"/>
+      <c r="I35" s="139"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="139"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="143"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="146"/>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="139"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="147"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
+      <c r="H39" s="139"/>
+      <c r="I39" s="139"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="147"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="136"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="136"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="139"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="143"/>
+      <c r="H41" s="139"/>
+      <c r="I41" s="139"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="147"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="139"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
+      <c r="H43" s="139"/>
+      <c r="I43" s="139"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="136"/>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="143"/>
-      <c r="I44" s="143"/>
+      <c r="H44" s="139"/>
+      <c r="I44" s="139"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="147"/>
-      <c r="D45" s="147"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="147"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="143"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="139"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="148"/>
-      <c r="D47" s="148"/>
-      <c r="E47" s="148"/>
-      <c r="F47" s="148"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="138"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="143"/>
-      <c r="I47" s="143"/>
+      <c r="H47" s="139"/>
+      <c r="I47" s="139"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="148"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="148"/>
-      <c r="F48" s="148"/>
+      <c r="C48" s="138"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="138"/>
+      <c r="F48" s="138"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="143"/>
-      <c r="I48" s="143"/>
+      <c r="H48" s="139"/>
+      <c r="I48" s="139"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="148"/>
-      <c r="D49" s="148"/>
-      <c r="E49" s="148"/>
-      <c r="F49" s="148"/>
+      <c r="C49" s="138"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="138"/>
+      <c r="F49" s="138"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="143"/>
-      <c r="I49" s="143"/>
+      <c r="H49" s="139"/>
+      <c r="I49" s="139"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="148"/>
-      <c r="D50" s="148"/>
-      <c r="E50" s="148"/>
-      <c r="F50" s="148"/>
+      <c r="C50" s="138"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="138"/>
+      <c r="F50" s="138"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="143"/>
-      <c r="I50" s="143"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="139"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="147"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="146"/>
-      <c r="I51" s="146"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="137"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="147"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
+      <c r="F52" s="136"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="146"/>
-      <c r="I52" s="146"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="147"/>
-      <c r="D53" s="147"/>
-      <c r="E53" s="147"/>
-      <c r="F53" s="147"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="136"/>
+      <c r="F53" s="136"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="146"/>
-      <c r="I53" s="146"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="137"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="147"/>
-      <c r="D54" s="147"/>
-      <c r="E54" s="147"/>
-      <c r="F54" s="147"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="136"/>
+      <c r="E54" s="136"/>
+      <c r="F54" s="136"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="146"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="137"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="147"/>
-      <c r="D55" s="147"/>
-      <c r="E55" s="147"/>
-      <c r="F55" s="147"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="136"/>
+      <c r="E55" s="136"/>
+      <c r="F55" s="136"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="146"/>
-      <c r="I55" s="146"/>
+      <c r="H55" s="137"/>
+      <c r="I55" s="137"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="147"/>
-      <c r="D56" s="147"/>
-      <c r="E56" s="147"/>
-      <c r="F56" s="147"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="136"/>
+      <c r="F56" s="136"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="146"/>
-      <c r="I56" s="146"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="137"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="147"/>
-      <c r="D57" s="147"/>
-      <c r="E57" s="147"/>
-      <c r="F57" s="147"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="136"/>
+      <c r="E57" s="136"/>
+      <c r="F57" s="136"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="146"/>
-      <c r="I57" s="146"/>
+      <c r="H57" s="137"/>
+      <c r="I57" s="137"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="147"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="136"/>
+      <c r="E58" s="136"/>
+      <c r="F58" s="136"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="146"/>
-      <c r="I58" s="146"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="137"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="147"/>
-      <c r="D59" s="147"/>
-      <c r="E59" s="147"/>
-      <c r="F59" s="147"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="136"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="146"/>
-      <c r="I59" s="146"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="137"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="147"/>
-      <c r="D60" s="147"/>
-      <c r="E60" s="147"/>
-      <c r="F60" s="147"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="136"/>
+      <c r="F60" s="136"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="147"/>
-      <c r="I60" s="147"/>
+      <c r="H60" s="136"/>
+      <c r="I60" s="136"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="147"/>
-      <c r="D61" s="147"/>
-      <c r="E61" s="147"/>
-      <c r="F61" s="147"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="136"/>
+      <c r="F61" s="136"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="147"/>
-      <c r="I61" s="147"/>
+      <c r="H61" s="136"/>
+      <c r="I61" s="136"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="147"/>
-      <c r="D62" s="147"/>
-      <c r="E62" s="147"/>
-      <c r="F62" s="147"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="136"/>
+      <c r="F62" s="136"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="147"/>
-      <c r="I62" s="147"/>
+      <c r="H62" s="136"/>
+      <c r="I62" s="136"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="147"/>
-      <c r="E63" s="147"/>
-      <c r="F63" s="147"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="136"/>
+      <c r="E63" s="136"/>
+      <c r="F63" s="136"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="147"/>
-      <c r="I63" s="147"/>
+      <c r="H63" s="136"/>
+      <c r="I63" s="136"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="147"/>
-      <c r="E64" s="147"/>
-      <c r="F64" s="147"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="136"/>
+      <c r="E64" s="136"/>
+      <c r="F64" s="136"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="147"/>
-      <c r="I64" s="147"/>
+      <c r="H64" s="136"/>
+      <c r="I64" s="136"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="147"/>
-      <c r="D65" s="147"/>
-      <c r="E65" s="147"/>
-      <c r="F65" s="147"/>
+      <c r="C65" s="136"/>
+      <c r="D65" s="136"/>
+      <c r="E65" s="136"/>
+      <c r="F65" s="136"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="147"/>
-      <c r="I65" s="147"/>
+      <c r="H65" s="136"/>
+      <c r="I65" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5321,105 +5417,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8325,7 +8322,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -8336,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -8347,7 +8344,7 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -8358,7 +8355,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -8369,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -8380,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -8391,7 +8388,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -8402,7 +8399,7 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -8413,7 +8410,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -8424,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -8974,7 +8971,7 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10573,7 +10570,7 @@
         <v>851</v>
       </c>
       <c r="K79" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -10590,7 +10587,7 @@
         <v>852</v>
       </c>
       <c r="K80" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -10607,7 +10604,7 @@
         <v>853</v>
       </c>
       <c r="K81" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -10624,7 +10621,7 @@
         <v>854</v>
       </c>
       <c r="K82" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -10641,7 +10638,7 @@
         <v>855</v>
       </c>
       <c r="K83" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -10658,7 +10655,7 @@
         <v>856</v>
       </c>
       <c r="K84" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -10675,7 +10672,7 @@
         <v>857</v>
       </c>
       <c r="K85" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -10692,7 +10689,7 @@
         <v>858</v>
       </c>
       <c r="K86" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -10709,7 +10706,7 @@
         <v>859</v>
       </c>
       <c r="K87" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -10726,7 +10723,7 @@
         <v>860</v>
       </c>
       <c r="K88" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -10739,8 +10736,8 @@
       <c r="E89">
         <v>1</v>
       </c>
-      <c r="F89" t="s">
-        <v>861</v>
+      <c r="F89" s="67">
+        <v>401</v>
       </c>
       <c r="K89" t="s">
         <v>732</v>
@@ -17463,7 +17460,7 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="149">
+      <c r="B17" s="134">
         <v>1</v>
       </c>
       <c r="C17" s="22">
@@ -17667,7 +17664,7 @@
       <c r="A26">
         <v>10</v>
       </c>
-      <c r="B26" s="150">
+      <c r="B26" s="135">
         <v>1</v>
       </c>
       <c r="C26" s="37">

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA81F199-C4B3-C64F-AB9D-8A8CA3026DB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E873BCA8-4233-F148-8A6D-7B4E5912E09E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="2020" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5480" yWindow="2020" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <sheet name="DateIntervalLimits" sheetId="25" r:id="rId21"/>
     <sheet name="ClientTransactionStatusTypes" sheetId="27" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="880">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2659,6 +2659,33 @@
   </si>
   <si>
     <t>Relationship 30 Month Traditional IRA Certificate</t>
+  </si>
+  <si>
+    <t>IOLTA Checking</t>
+  </si>
+  <si>
+    <t>Business Standalone Membership account</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyday Checking </t>
+  </si>
+  <si>
+    <t>Fresh Start Checking</t>
+  </si>
+  <si>
+    <t>Round Up Savings</t>
+  </si>
+  <si>
+    <t>Finish Line Mortgage</t>
+  </si>
+  <si>
+    <t>Home Equity First</t>
   </si>
 </sst>
 </file>
@@ -2670,7 +2697,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2919,6 +2946,36 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3062,7 +3119,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3359,29 +3416,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3399,6 +3433,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4462,22 +4535,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4487,66 +4560,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="147" t="s">
+      <c r="C8" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="147">
+      <c r="H8" s="138">
         <v>2</v>
       </c>
-      <c r="I8" s="147"/>
+      <c r="I8" s="138"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="149" t="s">
+      <c r="C11" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4564,325 +4637,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="144" t="s">
+      <c r="C13" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="144" t="s">
+      <c r="H13" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="144"/>
+      <c r="I13" s="142"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="142" t="s">
+      <c r="H14" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="142"/>
+      <c r="I14" s="143"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="142" t="s">
+      <c r="H15" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="142"/>
+      <c r="I15" s="143"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="142" t="s">
+      <c r="C16" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="142" t="s">
+      <c r="H16" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="142"/>
+      <c r="I16" s="143"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="142" t="s">
+      <c r="C17" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="142" t="s">
+      <c r="H17" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="142"/>
+      <c r="I17" s="143"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="142" t="s">
+      <c r="C18" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="142" t="s">
+      <c r="H18" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="142"/>
+      <c r="I18" s="143"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="143" t="s">
+      <c r="C19" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="142" t="s">
+      <c r="H19" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="142"/>
+      <c r="I19" s="143"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="142" t="s">
+      <c r="H20" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="142"/>
+      <c r="I20" s="143"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="143" t="s">
+      <c r="C21" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="142" t="s">
+      <c r="H21" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="142"/>
+      <c r="I21" s="143"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="142" t="s">
+      <c r="C22" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="142" t="s">
+      <c r="H22" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="142"/>
+      <c r="I22" s="143"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="142" t="s">
+      <c r="C23" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="142" t="s">
+      <c r="H23" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="142"/>
+      <c r="I23" s="143"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="142" t="s">
+      <c r="C24" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="142" t="s">
+      <c r="H24" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="142"/>
+      <c r="I24" s="143"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="139" t="s">
+      <c r="C25" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="139"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="139" t="s">
+      <c r="H25" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="139"/>
+      <c r="I25" s="145"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="139" t="s">
+      <c r="C26" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="139" t="s">
+      <c r="H26" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="139"/>
+      <c r="I26" s="145"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="139" t="s">
+      <c r="C27" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="139" t="s">
+      <c r="H27" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="139"/>
+      <c r="I27" s="145"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="139" t="s">
+      <c r="H28" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="139"/>
+      <c r="I28" s="145"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="139" t="s">
+      <c r="C29" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="139" t="s">
+      <c r="H29" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="139"/>
+      <c r="I29" s="145"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="139" t="s">
+      <c r="C30" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4895,512 +4968,413 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="139" t="s">
+      <c r="C31" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="139" t="s">
+      <c r="H31" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="139"/>
+      <c r="I31" s="145"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="141" t="s">
+      <c r="C32" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="139" t="s">
+      <c r="H32" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="139"/>
+      <c r="I32" s="145"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="140" t="s">
+      <c r="C33" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="140" t="s">
+      <c r="H33" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="140"/>
+      <c r="I33" s="147"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="140" t="s">
+      <c r="C34" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="140" t="s">
+      <c r="H34" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="140"/>
+      <c r="I34" s="147"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="137" t="s">
+      <c r="C35" s="148" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="137"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="139" t="s">
+      <c r="H35" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="139"/>
+      <c r="I35" s="145"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="136"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="139"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="137"/>
-      <c r="F38" s="137"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="136"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="139"/>
-      <c r="I39" s="139"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="136"/>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="139"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="139"/>
-      <c r="I41" s="139"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="136"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="139"/>
-      <c r="I43" s="139"/>
+      <c r="H43" s="145"/>
+      <c r="I43" s="145"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="149"/>
+      <c r="F44" s="149"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="145"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="149"/>
+      <c r="F45" s="149"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="145"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="149"/>
+      <c r="F46" s="149"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="139"/>
-      <c r="I46" s="139"/>
+      <c r="H46" s="145"/>
+      <c r="I46" s="145"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="138"/>
+      <c r="C47" s="150"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="150"/>
+      <c r="F47" s="150"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="139"/>
-      <c r="I47" s="139"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="145"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="150"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="150"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="139"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="145"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="138"/>
-      <c r="F49" s="138"/>
+      <c r="C49" s="150"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="139"/>
-      <c r="I49" s="139"/>
+      <c r="H49" s="145"/>
+      <c r="I49" s="145"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="138"/>
-      <c r="F50" s="138"/>
+      <c r="C50" s="150"/>
+      <c r="D50" s="150"/>
+      <c r="E50" s="150"/>
+      <c r="F50" s="150"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="139"/>
-      <c r="I50" s="139"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="145"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
+      <c r="C51" s="149"/>
+      <c r="D51" s="149"/>
+      <c r="E51" s="149"/>
+      <c r="F51" s="149"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="137"/>
+      <c r="H51" s="148"/>
+      <c r="I51" s="148"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="136"/>
-      <c r="D52" s="136"/>
-      <c r="E52" s="136"/>
-      <c r="F52" s="136"/>
+      <c r="C52" s="149"/>
+      <c r="D52" s="149"/>
+      <c r="E52" s="149"/>
+      <c r="F52" s="149"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="137"/>
+      <c r="H52" s="148"/>
+      <c r="I52" s="148"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="136"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="136"/>
-      <c r="F53" s="136"/>
+      <c r="C53" s="149"/>
+      <c r="D53" s="149"/>
+      <c r="E53" s="149"/>
+      <c r="F53" s="149"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="137"/>
-      <c r="I53" s="137"/>
+      <c r="H53" s="148"/>
+      <c r="I53" s="148"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="136"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
+      <c r="C54" s="149"/>
+      <c r="D54" s="149"/>
+      <c r="E54" s="149"/>
+      <c r="F54" s="149"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="137"/>
+      <c r="H54" s="148"/>
+      <c r="I54" s="148"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="136"/>
+      <c r="C55" s="149"/>
+      <c r="D55" s="149"/>
+      <c r="E55" s="149"/>
+      <c r="F55" s="149"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="137"/>
-      <c r="I55" s="137"/>
+      <c r="H55" s="148"/>
+      <c r="I55" s="148"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
+      <c r="C56" s="149"/>
+      <c r="D56" s="149"/>
+      <c r="E56" s="149"/>
+      <c r="F56" s="149"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="137"/>
+      <c r="H56" s="148"/>
+      <c r="I56" s="148"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="136"/>
-      <c r="D57" s="136"/>
-      <c r="E57" s="136"/>
-      <c r="F57" s="136"/>
+      <c r="C57" s="149"/>
+      <c r="D57" s="149"/>
+      <c r="E57" s="149"/>
+      <c r="F57" s="149"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="137"/>
-      <c r="I57" s="137"/>
+      <c r="H57" s="148"/>
+      <c r="I57" s="148"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="136"/>
-      <c r="F58" s="136"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="149"/>
+      <c r="E58" s="149"/>
+      <c r="F58" s="149"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="137"/>
-      <c r="I58" s="137"/>
+      <c r="H58" s="148"/>
+      <c r="I58" s="148"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="136"/>
-      <c r="F59" s="136"/>
+      <c r="C59" s="149"/>
+      <c r="D59" s="149"/>
+      <c r="E59" s="149"/>
+      <c r="F59" s="149"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="137"/>
-      <c r="I59" s="137"/>
+      <c r="H59" s="148"/>
+      <c r="I59" s="148"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="136"/>
-      <c r="F60" s="136"/>
+      <c r="C60" s="149"/>
+      <c r="D60" s="149"/>
+      <c r="E60" s="149"/>
+      <c r="F60" s="149"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="136"/>
-      <c r="I60" s="136"/>
+      <c r="H60" s="149"/>
+      <c r="I60" s="149"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="136"/>
-      <c r="F61" s="136"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="149"/>
+      <c r="E61" s="149"/>
+      <c r="F61" s="149"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="136"/>
-      <c r="I61" s="136"/>
+      <c r="H61" s="149"/>
+      <c r="I61" s="149"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="136"/>
-      <c r="F62" s="136"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="149"/>
+      <c r="E62" s="149"/>
+      <c r="F62" s="149"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="136"/>
-      <c r="I62" s="136"/>
+      <c r="H62" s="149"/>
+      <c r="I62" s="149"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="136"/>
-      <c r="F63" s="136"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="149"/>
+      <c r="E63" s="149"/>
+      <c r="F63" s="149"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="136"/>
-      <c r="I63" s="136"/>
+      <c r="H63" s="149"/>
+      <c r="I63" s="149"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="136"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="136"/>
-      <c r="F64" s="136"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="149"/>
+      <c r="E64" s="149"/>
+      <c r="F64" s="149"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="136"/>
-      <c r="I64" s="136"/>
+      <c r="H64" s="149"/>
+      <c r="I64" s="149"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="136"/>
-      <c r="D65" s="136"/>
-      <c r="E65" s="136"/>
-      <c r="F65" s="136"/>
+      <c r="C65" s="149"/>
+      <c r="D65" s="149"/>
+      <c r="E65" s="149"/>
+      <c r="F65" s="149"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="136"/>
-      <c r="I65" s="136"/>
+      <c r="H65" s="149"/>
+      <c r="I65" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5417,6 +5391,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5702,7 +5775,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="A42" sqref="A42:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6170,12 +6243,32 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
-      <c r="A41" s="45"/>
-      <c r="B41" s="47"/>
+      <c r="A41" s="45">
+        <v>1</v>
+      </c>
+      <c r="B41" s="46">
+        <v>126</v>
+      </c>
+      <c r="C41" s="46">
+        <v>126</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="47"/>
+      <c r="A42" s="45">
+        <v>0</v>
+      </c>
+      <c r="B42" s="47">
+        <v>125</v>
+      </c>
+      <c r="C42">
+        <v>125</v>
+      </c>
+      <c r="D42" s="153" t="s">
+        <v>871</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6185,10 +6278,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Z110"/>
+  <dimension ref="A1:Z112"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8424,6 +8517,28 @@
         <v>870</v>
       </c>
     </row>
+    <row r="111" spans="1:3" ht="16">
+      <c r="A111">
+        <v>194</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" s="158" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>195</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>879</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8434,8 +8549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8719,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>509</v>
+        <v>875</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -8775,7 +8890,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>512</v>
+        <v>876</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -8919,8 +9034,8 @@
       <c r="B38" s="40">
         <v>1</v>
       </c>
-      <c r="C38" s="46" t="s">
-        <v>523</v>
+      <c r="C38" s="157" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1">
@@ -8946,14 +9061,26 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
-      <c r="A41" s="47"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="46"/>
+      <c r="A41" s="151">
+        <v>125</v>
+      </c>
+      <c r="B41" s="152">
+        <v>1</v>
+      </c>
+      <c r="C41" s="156" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
-      <c r="A42" s="47"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="46"/>
+      <c r="A42" s="46">
+        <v>126</v>
+      </c>
+      <c r="B42" s="40">
+        <v>0</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="47"/>
@@ -8968,10 +9095,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11106,6 +11233,40 @@
         <v>397</v>
       </c>
     </row>
+    <row r="111" spans="1:11" ht="16">
+      <c r="A111">
+        <v>194</v>
+      </c>
+      <c r="C111" t="s">
+        <v>393</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" s="67">
+        <v>419</v>
+      </c>
+      <c r="K111" s="158" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>195</v>
+      </c>
+      <c r="C112" t="s">
+        <v>393</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" s="67">
+        <v>420</v>
+      </c>
+      <c r="K112" t="s">
+        <v>879</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11114,10 +11275,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF13EBBF-2D46-4C4B-8786-27077A6A9849}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11437,6 +11598,28 @@
         <v>178</v>
       </c>
       <c r="C34" s="26" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" s="73">
+        <v>194</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="73">
+        <v>195</v>
+      </c>
+      <c r="C36" s="26" t="s">
         <v>838</v>
       </c>
     </row>
@@ -11455,10 +11638,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12509,6 +12692,22 @@
         <v>193</v>
       </c>
       <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>194</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>195</v>
+      </c>
+      <c r="B112">
         <v>1</v>
       </c>
     </row>
@@ -18015,7 +18214,7 @@
   <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -18574,7 +18773,7 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="46" t="s">
-        <v>509</v>
+        <v>875</v>
       </c>
       <c r="J23" s="26"/>
     </row>
@@ -18707,7 +18906,7 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="46" t="s">
-        <v>512</v>
+        <v>876</v>
       </c>
       <c r="J27" s="26"/>
       <c r="K27" s="1"/>
@@ -19008,8 +19207,8 @@
         <v>1</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="46" t="s">
-        <v>523</v>
+      <c r="I38" s="157" t="s">
+        <v>877</v>
       </c>
       <c r="J38" s="26"/>
     </row>
@@ -19058,27 +19257,49 @@
       <c r="J40" s="48"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="47"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="46"/>
+      <c r="A41" s="151">
+        <v>125</v>
+      </c>
+      <c r="B41" s="154">
+        <v>1</v>
+      </c>
+      <c r="C41" s="154"/>
+      <c r="D41" s="154"/>
+      <c r="E41" s="154">
+        <v>0</v>
+      </c>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154">
+        <v>1</v>
+      </c>
+      <c r="H41" s="153" t="s">
+        <v>871</v>
+      </c>
+      <c r="I41" s="153" t="s">
+        <v>871</v>
+      </c>
       <c r="J41" s="48"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="47"/>
-      <c r="B42" s="1"/>
+      <c r="A42" s="46">
+        <v>126</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="46"/>
+      <c r="I42" s="46" t="s">
+        <v>513</v>
+      </c>
       <c r="J42" s="48"/>
     </row>
     <row r="43" spans="1:10">
@@ -19105,7 +19326,7 @@
   <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -20481,10 +20702,18 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="52"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="1"/>
+      <c r="A41" s="52" t="s">
+        <v>874</v>
+      </c>
+      <c r="B41" s="151">
+        <v>125</v>
+      </c>
+      <c r="C41" s="155">
+        <v>1</v>
+      </c>
+      <c r="D41" s="154" t="s">
+        <v>526</v>
+      </c>
       <c r="E41" s="26"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -20509,10 +20738,18 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="52"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="52" t="s">
+        <v>873</v>
+      </c>
+      <c r="B42" s="151">
+        <v>126</v>
+      </c>
+      <c r="C42" s="155">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="E42" s="26"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E873BCA8-4233-F148-8A6D-7B4E5912E09E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30C345B-FD23-AB42-98C4-6A9CBF675E12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="2020" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5480" yWindow="2020" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <sheet name="DateIntervalLimits" sheetId="25" r:id="rId21"/>
     <sheet name="ClientTransactionStatusTypes" sheetId="27" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="883">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2686,6 +2686,15 @@
   </si>
   <si>
     <t>Home Equity First</t>
+  </si>
+  <si>
+    <t>Rewards Checking</t>
+  </si>
+  <si>
+    <t>High Yield Checking</t>
+  </si>
+  <si>
+    <t>122</t>
   </si>
 </sst>
 </file>
@@ -2950,31 +2959,31 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3119,7 +3128,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3416,6 +3425,45 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3434,43 +3482,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4535,22 +4547,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4560,66 +4572,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="138">
+      <c r="H8" s="155">
         <v>2</v>
       </c>
-      <c r="I8" s="138"/>
+      <c r="I8" s="155"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="138" t="s">
+      <c r="C9" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4637,325 +4649,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="142" t="s">
+      <c r="H13" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="142"/>
+      <c r="I13" s="152"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="143" t="s">
+      <c r="C14" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="143" t="s">
+      <c r="H14" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="143"/>
+      <c r="I14" s="150"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="143" t="s">
+      <c r="C15" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="143" t="s">
+      <c r="H15" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="143"/>
+      <c r="I15" s="150"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="143" t="s">
+      <c r="H16" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="143"/>
+      <c r="I16" s="150"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="143" t="s">
+      <c r="C17" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="143" t="s">
+      <c r="H17" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="143"/>
+      <c r="I17" s="150"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="143" t="s">
+      <c r="C18" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="143" t="s">
+      <c r="H18" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="143"/>
+      <c r="I18" s="150"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="143" t="s">
+      <c r="H19" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="143"/>
+      <c r="I19" s="150"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="144" t="s">
+      <c r="C20" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="143" t="s">
+      <c r="H20" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="143"/>
+      <c r="I20" s="150"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="144" t="s">
+      <c r="C21" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="143" t="s">
+      <c r="H21" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="143"/>
+      <c r="I21" s="150"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="143" t="s">
+      <c r="H22" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="143"/>
+      <c r="I22" s="150"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="143" t="s">
+      <c r="C23" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="143" t="s">
+      <c r="H23" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="143"/>
+      <c r="I23" s="150"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="143" t="s">
+      <c r="H24" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="143"/>
+      <c r="I24" s="150"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="145" t="s">
+      <c r="C25" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="145" t="s">
+      <c r="H25" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="145"/>
+      <c r="I25" s="147"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="145" t="s">
+      <c r="C26" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="145" t="s">
+      <c r="H26" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="145"/>
+      <c r="I26" s="147"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="145" t="s">
+      <c r="C27" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="145" t="s">
+      <c r="H27" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="145"/>
+      <c r="I27" s="147"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="145" t="s">
+      <c r="C28" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="145" t="s">
+      <c r="H28" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="145"/>
+      <c r="I28" s="147"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="145" t="s">
+      <c r="C29" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="145" t="s">
+      <c r="H29" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="145"/>
+      <c r="I29" s="147"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="145" t="s">
+      <c r="C30" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4968,413 +4980,512 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="145" t="s">
+      <c r="C31" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="145" t="s">
+      <c r="H31" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="145"/>
+      <c r="I31" s="147"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="146" t="s">
+      <c r="C32" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="145" t="s">
+      <c r="H32" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="145"/>
+      <c r="I32" s="147"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="147" t="s">
+      <c r="C33" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="147" t="s">
+      <c r="H33" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="147"/>
+      <c r="I33" s="148"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="147" t="s">
+      <c r="C34" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="147" t="s">
+      <c r="H34" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="147"/>
+      <c r="I34" s="148"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="148" t="s">
+      <c r="C35" s="145" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="148"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="145" t="s">
+      <c r="H35" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="145"/>
+      <c r="I35" s="147"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="145"/>
-      <c r="I36" s="145"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="148"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="149"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="149"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="145"/>
-      <c r="I40" s="145"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="149"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="145"/>
-      <c r="I43" s="145"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="149"/>
-      <c r="D44" s="149"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="149"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="145"/>
-      <c r="I44" s="145"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="147"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="149"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="149"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="145"/>
-      <c r="I45" s="145"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="147"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="149"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="145"/>
-      <c r="I46" s="145"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="147"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="150"/>
-      <c r="D47" s="150"/>
-      <c r="E47" s="150"/>
-      <c r="F47" s="150"/>
+      <c r="C47" s="146"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="146"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="147"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="150"/>
-      <c r="D48" s="150"/>
-      <c r="E48" s="150"/>
-      <c r="F48" s="150"/>
+      <c r="C48" s="146"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="146"/>
+      <c r="F48" s="146"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="145"/>
-      <c r="I48" s="145"/>
+      <c r="H48" s="147"/>
+      <c r="I48" s="147"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="150"/>
-      <c r="D49" s="150"/>
-      <c r="E49" s="150"/>
-      <c r="F49" s="150"/>
+      <c r="C49" s="146"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="146"/>
+      <c r="F49" s="146"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="145"/>
-      <c r="I49" s="145"/>
+      <c r="H49" s="147"/>
+      <c r="I49" s="147"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="150"/>
-      <c r="D50" s="150"/>
-      <c r="E50" s="150"/>
-      <c r="F50" s="150"/>
+      <c r="C50" s="146"/>
+      <c r="D50" s="146"/>
+      <c r="E50" s="146"/>
+      <c r="F50" s="146"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="145"/>
-      <c r="I50" s="145"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="149"/>
-      <c r="D51" s="149"/>
-      <c r="E51" s="149"/>
-      <c r="F51" s="149"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="148"/>
-      <c r="I51" s="148"/>
+      <c r="H51" s="145"/>
+      <c r="I51" s="145"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="149"/>
-      <c r="D52" s="149"/>
-      <c r="E52" s="149"/>
-      <c r="F52" s="149"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="144"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="148"/>
-      <c r="I52" s="148"/>
+      <c r="H52" s="145"/>
+      <c r="I52" s="145"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="149"/>
-      <c r="D53" s="149"/>
-      <c r="E53" s="149"/>
-      <c r="F53" s="149"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="144"/>
+      <c r="F53" s="144"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="148"/>
-      <c r="I53" s="148"/>
+      <c r="H53" s="145"/>
+      <c r="I53" s="145"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="149"/>
-      <c r="D54" s="149"/>
-      <c r="E54" s="149"/>
-      <c r="F54" s="149"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="144"/>
+      <c r="F54" s="144"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="148"/>
-      <c r="I54" s="148"/>
+      <c r="H54" s="145"/>
+      <c r="I54" s="145"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="149"/>
-      <c r="D55" s="149"/>
-      <c r="E55" s="149"/>
-      <c r="F55" s="149"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="144"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="148"/>
-      <c r="I55" s="148"/>
+      <c r="H55" s="145"/>
+      <c r="I55" s="145"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="149"/>
-      <c r="D56" s="149"/>
-      <c r="E56" s="149"/>
-      <c r="F56" s="149"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="144"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="148"/>
-      <c r="I56" s="148"/>
+      <c r="H56" s="145"/>
+      <c r="I56" s="145"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="149"/>
-      <c r="D57" s="149"/>
-      <c r="E57" s="149"/>
-      <c r="F57" s="149"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="148"/>
-      <c r="I57" s="148"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="145"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="149"/>
-      <c r="D58" s="149"/>
-      <c r="E58" s="149"/>
-      <c r="F58" s="149"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="144"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="148"/>
-      <c r="I58" s="148"/>
+      <c r="H58" s="145"/>
+      <c r="I58" s="145"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="149"/>
-      <c r="D59" s="149"/>
-      <c r="E59" s="149"/>
-      <c r="F59" s="149"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="144"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="148"/>
-      <c r="I59" s="148"/>
+      <c r="H59" s="145"/>
+      <c r="I59" s="145"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="149"/>
-      <c r="D60" s="149"/>
-      <c r="E60" s="149"/>
-      <c r="F60" s="149"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="149"/>
-      <c r="I60" s="149"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="149"/>
-      <c r="D61" s="149"/>
-      <c r="E61" s="149"/>
-      <c r="F61" s="149"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="144"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="149"/>
-      <c r="I61" s="149"/>
+      <c r="H61" s="144"/>
+      <c r="I61" s="144"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="149"/>
-      <c r="E62" s="149"/>
-      <c r="F62" s="149"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="144"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="149"/>
-      <c r="I62" s="149"/>
+      <c r="H62" s="144"/>
+      <c r="I62" s="144"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="149"/>
-      <c r="D63" s="149"/>
-      <c r="E63" s="149"/>
-      <c r="F63" s="149"/>
+      <c r="C63" s="144"/>
+      <c r="D63" s="144"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="144"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="149"/>
-      <c r="I63" s="149"/>
+      <c r="H63" s="144"/>
+      <c r="I63" s="144"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="149"/>
-      <c r="D64" s="149"/>
-      <c r="E64" s="149"/>
-      <c r="F64" s="149"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="144"/>
+      <c r="E64" s="144"/>
+      <c r="F64" s="144"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="149"/>
-      <c r="I64" s="149"/>
+      <c r="H64" s="144"/>
+      <c r="I64" s="144"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="149"/>
-      <c r="D65" s="149"/>
-      <c r="E65" s="149"/>
-      <c r="F65" s="149"/>
+      <c r="C65" s="144"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="144"/>
+      <c r="F65" s="144"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="149"/>
-      <c r="I65" s="149"/>
+      <c r="H65" s="144"/>
+      <c r="I65" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5391,105 +5502,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6266,7 +6278,7 @@
       <c r="C42">
         <v>125</v>
       </c>
-      <c r="D42" s="153" t="s">
+      <c r="D42" s="138" t="s">
         <v>871</v>
       </c>
     </row>
@@ -8524,7 +8536,7 @@
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111" s="158" t="s">
+      <c r="C111" s="143" t="s">
         <v>878</v>
       </c>
     </row>
@@ -8547,10 +8559,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9034,7 +9046,7 @@
       <c r="B38" s="40">
         <v>1</v>
       </c>
-      <c r="C38" s="157" t="s">
+      <c r="C38" s="142" t="s">
         <v>877</v>
       </c>
     </row>
@@ -9061,13 +9073,13 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
-      <c r="A41" s="151">
+      <c r="A41" s="136">
         <v>125</v>
       </c>
-      <c r="B41" s="152">
-        <v>1</v>
-      </c>
-      <c r="C41" s="156" t="s">
+      <c r="B41" s="137">
+        <v>1</v>
+      </c>
+      <c r="C41" s="141" t="s">
         <v>871</v>
       </c>
     </row>
@@ -9083,9 +9095,26 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
-      <c r="A43" s="47"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="46"/>
+      <c r="A43" s="46">
+        <v>127</v>
+      </c>
+      <c r="B43" s="40">
+        <v>1</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="46">
+        <v>128</v>
+      </c>
+      <c r="B44" s="159">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>881</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -11246,7 +11275,7 @@
       <c r="F111" s="67">
         <v>419</v>
       </c>
-      <c r="K111" s="158" t="s">
+      <c r="K111" s="143" t="s">
         <v>878</v>
       </c>
     </row>
@@ -18211,10 +18240,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -19207,7 +19236,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="157" t="s">
+      <c r="I38" s="142" t="s">
         <v>877</v>
       </c>
       <c r="J38" s="26"/>
@@ -19257,25 +19286,25 @@
       <c r="J40" s="48"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="151">
+      <c r="A41" s="136">
         <v>125</v>
       </c>
-      <c r="B41" s="154">
-        <v>1</v>
-      </c>
-      <c r="C41" s="154"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="154">
+      <c r="B41" s="139">
+        <v>1</v>
+      </c>
+      <c r="C41" s="139"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="139">
         <v>0</v>
       </c>
-      <c r="F41" s="154"/>
-      <c r="G41" s="154">
-        <v>1</v>
-      </c>
-      <c r="H41" s="153" t="s">
+      <c r="F41" s="139"/>
+      <c r="G41" s="139">
+        <v>1</v>
+      </c>
+      <c r="H41" s="138" t="s">
         <v>871</v>
       </c>
-      <c r="I41" s="153" t="s">
+      <c r="I41" s="138" t="s">
         <v>871</v>
       </c>
       <c r="J41" s="48"/>
@@ -19303,16 +19332,43 @@
       <c r="J42" s="48"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="47"/>
-      <c r="B43" s="1"/>
+      <c r="A43" s="47">
+        <v>127</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="46"/>
+      <c r="I43" s="46" t="s">
+        <v>880</v>
+      </c>
       <c r="J43" s="48"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="47">
+        <v>128</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>881</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -19323,10 +19379,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -20705,13 +20761,13 @@
       <c r="A41" s="52" t="s">
         <v>874</v>
       </c>
-      <c r="B41" s="151">
+      <c r="B41" s="136">
         <v>125</v>
       </c>
-      <c r="C41" s="155">
-        <v>1</v>
-      </c>
-      <c r="D41" s="154" t="s">
+      <c r="C41" s="140">
+        <v>1</v>
+      </c>
+      <c r="D41" s="139" t="s">
         <v>526</v>
       </c>
       <c r="E41" s="26"/>
@@ -20741,10 +20797,10 @@
       <c r="A42" s="52" t="s">
         <v>873</v>
       </c>
-      <c r="B42" s="151">
+      <c r="B42" s="136">
         <v>126</v>
       </c>
-      <c r="C42" s="155">
+      <c r="C42" s="140">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -20774,10 +20830,18 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="52"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="1"/>
+      <c r="A43" s="52" t="s">
+        <v>882</v>
+      </c>
+      <c r="B43" s="46">
+        <v>127</v>
+      </c>
+      <c r="C43" s="45">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>526</v>
+      </c>
       <c r="E43" s="26"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -20801,6 +20865,20 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
+    <row r="44" spans="1:26">
+      <c r="A44">
+        <v>123</v>
+      </c>
+      <c r="B44" s="46">
+        <v>128</v>
+      </c>
+      <c r="C44" s="45">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30C345B-FD23-AB42-98C4-6A9CBF675E12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0551DB-0B91-254E-B985-8961B6FBEF0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="2020" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24060" yWindow="460" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="883">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -3441,28 +3441,8 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3482,8 +3462,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4547,22 +4547,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4572,66 +4572,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="155">
+      <c r="H8" s="147">
         <v>2</v>
       </c>
-      <c r="I8" s="155"/>
+      <c r="I8" s="147"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="157" t="s">
+      <c r="C11" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4649,325 +4649,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="152" t="s">
+      <c r="H13" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="152"/>
+      <c r="I13" s="151"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="150" t="s">
+      <c r="C14" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="150" t="s">
+      <c r="H14" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="150"/>
+      <c r="I14" s="152"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="150" t="s">
+      <c r="H15" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="150"/>
+      <c r="I15" s="152"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="150" t="s">
+      <c r="H16" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="150"/>
+      <c r="I16" s="152"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="150" t="s">
+      <c r="C17" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="150" t="s">
+      <c r="H17" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="150"/>
+      <c r="I17" s="152"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="150" t="s">
+      <c r="C18" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="150" t="s">
+      <c r="H18" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="150"/>
+      <c r="I18" s="152"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="151" t="s">
+      <c r="C19" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="150" t="s">
+      <c r="H19" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="150"/>
+      <c r="I19" s="152"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="151" t="s">
+      <c r="C20" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="150" t="s">
+      <c r="H20" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="150"/>
+      <c r="I20" s="152"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="151" t="s">
+      <c r="C21" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="150" t="s">
+      <c r="H21" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="150"/>
+      <c r="I21" s="152"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="150" t="s">
+      <c r="C22" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="150" t="s">
+      <c r="H22" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="150"/>
+      <c r="I22" s="152"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="150" t="s">
+      <c r="C23" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="150" t="s">
+      <c r="H23" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="150"/>
+      <c r="I23" s="152"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="150" t="s">
+      <c r="C24" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="150" t="s">
+      <c r="H24" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="150"/>
+      <c r="I24" s="152"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="147" t="s">
+      <c r="C25" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="147" t="s">
+      <c r="H25" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="147"/>
+      <c r="I25" s="154"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="147" t="s">
+      <c r="C26" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="147" t="s">
+      <c r="H26" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="147"/>
+      <c r="I26" s="154"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="147" t="s">
+      <c r="C27" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="147" t="s">
+      <c r="H27" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="147"/>
+      <c r="I27" s="154"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="147" t="s">
+      <c r="C28" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="147" t="s">
+      <c r="H28" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="147"/>
+      <c r="I28" s="154"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="147" t="s">
+      <c r="C29" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="147" t="s">
+      <c r="H29" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="147"/>
+      <c r="I29" s="154"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="147" t="s">
+      <c r="C30" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4980,512 +4980,413 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="147" t="s">
+      <c r="C31" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="147" t="s">
+      <c r="H31" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="147"/>
+      <c r="I31" s="154"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="149" t="s">
+      <c r="C32" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="147" t="s">
+      <c r="H32" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="147"/>
+      <c r="I32" s="154"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="148" t="s">
+      <c r="C33" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="148" t="s">
+      <c r="H33" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="148"/>
+      <c r="I33" s="156"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="148" t="s">
+      <c r="C34" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="148"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="148" t="s">
+      <c r="H34" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="148"/>
+      <c r="I34" s="156"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="145" t="s">
+      <c r="C35" s="157" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="145"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="147" t="s">
+      <c r="H35" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="147"/>
+      <c r="I35" s="154"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="145"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="145"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="145"/>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="144"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="158"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="158"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="144"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="144"/>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="144"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="158"/>
+      <c r="E43" s="158"/>
+      <c r="F43" s="158"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="144"/>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144"/>
-      <c r="F44" s="144"/>
+      <c r="C44" s="158"/>
+      <c r="D44" s="158"/>
+      <c r="E44" s="158"/>
+      <c r="F44" s="158"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="147"/>
-      <c r="I44" s="147"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="154"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="144"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="158"/>
+      <c r="F45" s="158"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="147"/>
-      <c r="I45" s="147"/>
+      <c r="H45" s="154"/>
+      <c r="I45" s="154"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="144"/>
-      <c r="D46" s="144"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="144"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="158"/>
+      <c r="E46" s="158"/>
+      <c r="F46" s="158"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="147"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="154"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="146"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
+      <c r="C47" s="159"/>
+      <c r="D47" s="159"/>
+      <c r="E47" s="159"/>
+      <c r="F47" s="159"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
+      <c r="H47" s="154"/>
+      <c r="I47" s="154"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="146"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="146"/>
+      <c r="C48" s="159"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="159"/>
+      <c r="F48" s="159"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="147"/>
-      <c r="I48" s="147"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
+      <c r="C49" s="159"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="159"/>
+      <c r="F49" s="159"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="147"/>
-      <c r="I49" s="147"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="154"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="146"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="146"/>
-      <c r="F50" s="146"/>
+      <c r="C50" s="159"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="159"/>
+      <c r="F50" s="159"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="154"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="144"/>
-      <c r="E51" s="144"/>
-      <c r="F51" s="144"/>
+      <c r="C51" s="158"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="158"/>
+      <c r="F51" s="158"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="145"/>
-      <c r="I51" s="145"/>
+      <c r="H51" s="157"/>
+      <c r="I51" s="157"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="144"/>
-      <c r="D52" s="144"/>
-      <c r="E52" s="144"/>
-      <c r="F52" s="144"/>
+      <c r="C52" s="158"/>
+      <c r="D52" s="158"/>
+      <c r="E52" s="158"/>
+      <c r="F52" s="158"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="145"/>
-      <c r="I52" s="145"/>
+      <c r="H52" s="157"/>
+      <c r="I52" s="157"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="144"/>
-      <c r="D53" s="144"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
+      <c r="C53" s="158"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="158"/>
+      <c r="F53" s="158"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="145"/>
-      <c r="I53" s="145"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="144"/>
-      <c r="D54" s="144"/>
-      <c r="E54" s="144"/>
-      <c r="F54" s="144"/>
+      <c r="C54" s="158"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="158"/>
+      <c r="F54" s="158"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="145"/>
-      <c r="I54" s="145"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="144"/>
-      <c r="D55" s="144"/>
-      <c r="E55" s="144"/>
-      <c r="F55" s="144"/>
+      <c r="C55" s="158"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="158"/>
+      <c r="F55" s="158"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="145"/>
-      <c r="I55" s="145"/>
+      <c r="H55" s="157"/>
+      <c r="I55" s="157"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="144"/>
-      <c r="D56" s="144"/>
-      <c r="E56" s="144"/>
-      <c r="F56" s="144"/>
+      <c r="C56" s="158"/>
+      <c r="D56" s="158"/>
+      <c r="E56" s="158"/>
+      <c r="F56" s="158"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="145"/>
-      <c r="I56" s="145"/>
+      <c r="H56" s="157"/>
+      <c r="I56" s="157"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="144"/>
-      <c r="D57" s="144"/>
-      <c r="E57" s="144"/>
-      <c r="F57" s="144"/>
+      <c r="C57" s="158"/>
+      <c r="D57" s="158"/>
+      <c r="E57" s="158"/>
+      <c r="F57" s="158"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="145"/>
-      <c r="I57" s="145"/>
+      <c r="H57" s="157"/>
+      <c r="I57" s="157"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="144"/>
-      <c r="D58" s="144"/>
-      <c r="E58" s="144"/>
-      <c r="F58" s="144"/>
+      <c r="C58" s="158"/>
+      <c r="D58" s="158"/>
+      <c r="E58" s="158"/>
+      <c r="F58" s="158"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="145"/>
-      <c r="I58" s="145"/>
+      <c r="H58" s="157"/>
+      <c r="I58" s="157"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="144"/>
-      <c r="D59" s="144"/>
-      <c r="E59" s="144"/>
-      <c r="F59" s="144"/>
+      <c r="C59" s="158"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="158"/>
+      <c r="F59" s="158"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="145"/>
-      <c r="I59" s="145"/>
+      <c r="H59" s="157"/>
+      <c r="I59" s="157"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="144"/>
-      <c r="D60" s="144"/>
-      <c r="E60" s="144"/>
-      <c r="F60" s="144"/>
+      <c r="C60" s="158"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="158"/>
+      <c r="F60" s="158"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="144"/>
-      <c r="I60" s="144"/>
+      <c r="H60" s="158"/>
+      <c r="I60" s="158"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="144"/>
-      <c r="D61" s="144"/>
-      <c r="E61" s="144"/>
-      <c r="F61" s="144"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="158"/>
+      <c r="F61" s="158"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="144"/>
-      <c r="I61" s="144"/>
+      <c r="H61" s="158"/>
+      <c r="I61" s="158"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="144"/>
-      <c r="D62" s="144"/>
-      <c r="E62" s="144"/>
-      <c r="F62" s="144"/>
+      <c r="C62" s="158"/>
+      <c r="D62" s="158"/>
+      <c r="E62" s="158"/>
+      <c r="F62" s="158"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="144"/>
-      <c r="I62" s="144"/>
+      <c r="H62" s="158"/>
+      <c r="I62" s="158"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="144"/>
-      <c r="D63" s="144"/>
-      <c r="E63" s="144"/>
-      <c r="F63" s="144"/>
+      <c r="C63" s="158"/>
+      <c r="D63" s="158"/>
+      <c r="E63" s="158"/>
+      <c r="F63" s="158"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="144"/>
-      <c r="I63" s="144"/>
+      <c r="H63" s="158"/>
+      <c r="I63" s="158"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="144"/>
-      <c r="D64" s="144"/>
-      <c r="E64" s="144"/>
-      <c r="F64" s="144"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="158"/>
+      <c r="E64" s="158"/>
+      <c r="F64" s="158"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="144"/>
-      <c r="I64" s="144"/>
+      <c r="H64" s="158"/>
+      <c r="I64" s="158"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="144"/>
-      <c r="D65" s="144"/>
-      <c r="E65" s="144"/>
-      <c r="F65" s="144"/>
+      <c r="C65" s="158"/>
+      <c r="D65" s="158"/>
+      <c r="E65" s="158"/>
+      <c r="F65" s="158"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="144"/>
-      <c r="I65" s="144"/>
+      <c r="H65" s="158"/>
+      <c r="I65" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5502,6 +5403,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5784,10 +5784,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:D42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6280,6 +6280,34 @@
       </c>
       <c r="D42" s="138" t="s">
         <v>871</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="45">
+        <v>0</v>
+      </c>
+      <c r="B43" s="47">
+        <v>126</v>
+      </c>
+      <c r="C43">
+        <v>126</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="45">
+        <v>0</v>
+      </c>
+      <c r="B44" s="47">
+        <v>127</v>
+      </c>
+      <c r="C44">
+        <v>127</v>
+      </c>
+      <c r="D44" t="s">
+        <v>881</v>
       </c>
     </row>
   </sheetData>
@@ -9109,7 +9137,7 @@
       <c r="A44" s="46">
         <v>128</v>
       </c>
-      <c r="B44" s="159">
+      <c r="B44" s="144">
         <v>1</v>
       </c>
       <c r="C44" t="s">
@@ -18242,8 +18270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -19382,7 +19410,7 @@
   <dimension ref="A1:Z44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0551DB-0B91-254E-B985-8961B6FBEF0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FE0E67-D647-C341-9229-AD6480798187}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24060" yWindow="460" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5480" yWindow="500" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -3444,6 +3444,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3461,29 +3484,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4547,22 +4547,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4572,66 +4572,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="147" t="s">
+      <c r="C8" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="147">
+      <c r="H8" s="156">
         <v>2</v>
       </c>
-      <c r="I8" s="147"/>
+      <c r="I8" s="156"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="149" t="s">
+      <c r="C11" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4649,325 +4649,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="151" t="s">
+      <c r="H13" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="151"/>
+      <c r="I13" s="153"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="152" t="s">
+      <c r="C14" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="152" t="s">
+      <c r="H14" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="152"/>
+      <c r="I14" s="151"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="152" t="s">
+      <c r="H15" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="152"/>
+      <c r="I15" s="151"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="152" t="s">
+      <c r="H16" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="152"/>
+      <c r="I16" s="151"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="152" t="s">
+      <c r="C17" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="152" t="s">
+      <c r="H17" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="152"/>
+      <c r="I17" s="151"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="152" t="s">
+      <c r="C18" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="152" t="s">
+      <c r="H18" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="152"/>
+      <c r="I18" s="151"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="153" t="s">
+      <c r="C19" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="152" t="s">
+      <c r="H19" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="152"/>
+      <c r="I19" s="151"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="153" t="s">
+      <c r="C20" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="152" t="s">
+      <c r="H20" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="152"/>
+      <c r="I20" s="151"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="153" t="s">
+      <c r="C21" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="152" t="s">
+      <c r="H21" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="152"/>
+      <c r="I21" s="151"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="152" t="s">
+      <c r="C22" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="152" t="s">
+      <c r="H22" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="152"/>
+      <c r="I22" s="151"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="152" t="s">
+      <c r="C23" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="152" t="s">
+      <c r="H23" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="152"/>
+      <c r="I23" s="151"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="152" t="s">
+      <c r="C24" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="152" t="s">
+      <c r="H24" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="152"/>
+      <c r="I24" s="151"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="154" t="s">
+      <c r="C25" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="154" t="s">
+      <c r="H25" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="154"/>
+      <c r="I25" s="148"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="154" t="s">
+      <c r="C26" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="154" t="s">
+      <c r="H26" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="154"/>
+      <c r="I26" s="148"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="154" t="s">
+      <c r="C27" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="154" t="s">
+      <c r="H27" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="154"/>
+      <c r="I27" s="148"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="154" t="s">
+      <c r="C28" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="154" t="s">
+      <c r="H28" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="154"/>
+      <c r="I28" s="148"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="154" t="s">
+      <c r="C29" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="154" t="s">
+      <c r="H29" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="154"/>
+      <c r="I29" s="148"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="154" t="s">
+      <c r="C30" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4980,413 +4980,512 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="154" t="s">
+      <c r="C31" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="154" t="s">
+      <c r="H31" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="154"/>
+      <c r="I31" s="148"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="155" t="s">
+      <c r="C32" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="154" t="s">
+      <c r="H32" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="154"/>
+      <c r="I32" s="148"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="156" t="s">
+      <c r="C33" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="156" t="s">
+      <c r="H33" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="156"/>
+      <c r="I33" s="149"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="156" t="s">
+      <c r="C34" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="156" t="s">
+      <c r="H34" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="156"/>
+      <c r="I34" s="149"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="157" t="s">
+      <c r="C35" s="146" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="154" t="s">
+      <c r="H35" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="154"/>
+      <c r="I35" s="148"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="154"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="154"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="154"/>
-      <c r="I39" s="154"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="158"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="154"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="154"/>
-      <c r="I42" s="154"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="158"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="158"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="154"/>
-      <c r="I43" s="154"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="158"/>
-      <c r="D44" s="158"/>
-      <c r="E44" s="158"/>
-      <c r="F44" s="158"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="154"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="148"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="158"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="158"/>
-      <c r="F45" s="158"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="154"/>
-      <c r="I45" s="154"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="148"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="158"/>
-      <c r="D46" s="158"/>
-      <c r="E46" s="158"/>
-      <c r="F46" s="158"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="154"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="148"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="159"/>
-      <c r="D47" s="159"/>
-      <c r="E47" s="159"/>
-      <c r="F47" s="159"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="154"/>
-      <c r="I47" s="154"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="148"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="159"/>
-      <c r="F48" s="159"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="147"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="154"/>
-      <c r="I48" s="154"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="159"/>
-      <c r="D49" s="159"/>
-      <c r="E49" s="159"/>
-      <c r="F49" s="159"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="147"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="154"/>
-      <c r="I49" s="154"/>
+      <c r="H49" s="148"/>
+      <c r="I49" s="148"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="159"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="159"/>
-      <c r="F50" s="159"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="147"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="154"/>
-      <c r="I50" s="154"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="148"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="158"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="158"/>
-      <c r="F51" s="158"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="157"/>
-      <c r="I51" s="157"/>
+      <c r="H51" s="146"/>
+      <c r="I51" s="146"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="158"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="158"/>
-      <c r="F52" s="158"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="157"/>
-      <c r="I52" s="157"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="146"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="158"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="158"/>
-      <c r="F53" s="158"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
+      <c r="H53" s="146"/>
+      <c r="I53" s="146"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="158"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="158"/>
-      <c r="F54" s="158"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
+      <c r="H54" s="146"/>
+      <c r="I54" s="146"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="158"/>
-      <c r="D55" s="158"/>
-      <c r="E55" s="158"/>
-      <c r="F55" s="158"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="157"/>
-      <c r="I55" s="157"/>
+      <c r="H55" s="146"/>
+      <c r="I55" s="146"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="158"/>
-      <c r="D56" s="158"/>
-      <c r="E56" s="158"/>
-      <c r="F56" s="158"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="157"/>
-      <c r="I56" s="157"/>
+      <c r="H56" s="146"/>
+      <c r="I56" s="146"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="158"/>
-      <c r="D57" s="158"/>
-      <c r="E57" s="158"/>
-      <c r="F57" s="158"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
+      <c r="H57" s="146"/>
+      <c r="I57" s="146"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="158"/>
-      <c r="D58" s="158"/>
-      <c r="E58" s="158"/>
-      <c r="F58" s="158"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="157"/>
-      <c r="I58" s="157"/>
+      <c r="H58" s="146"/>
+      <c r="I58" s="146"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="158"/>
-      <c r="D59" s="158"/>
-      <c r="E59" s="158"/>
-      <c r="F59" s="158"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="157"/>
-      <c r="I59" s="157"/>
+      <c r="H59" s="146"/>
+      <c r="I59" s="146"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="158"/>
-      <c r="D60" s="158"/>
-      <c r="E60" s="158"/>
-      <c r="F60" s="158"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="158"/>
-      <c r="I60" s="158"/>
+      <c r="H60" s="145"/>
+      <c r="I60" s="145"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="158"/>
-      <c r="D61" s="158"/>
-      <c r="E61" s="158"/>
-      <c r="F61" s="158"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="158"/>
-      <c r="I61" s="158"/>
+      <c r="H61" s="145"/>
+      <c r="I61" s="145"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="158"/>
-      <c r="D62" s="158"/>
-      <c r="E62" s="158"/>
-      <c r="F62" s="158"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="158"/>
-      <c r="I62" s="158"/>
+      <c r="H62" s="145"/>
+      <c r="I62" s="145"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="158"/>
-      <c r="D63" s="158"/>
-      <c r="E63" s="158"/>
-      <c r="F63" s="158"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="145"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="145"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="158"/>
-      <c r="I63" s="158"/>
+      <c r="H63" s="145"/>
+      <c r="I63" s="145"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="158"/>
-      <c r="D64" s="158"/>
-      <c r="E64" s="158"/>
-      <c r="F64" s="158"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="158"/>
-      <c r="I64" s="158"/>
+      <c r="H64" s="145"/>
+      <c r="I64" s="145"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="158"/>
-      <c r="D65" s="158"/>
-      <c r="E65" s="158"/>
-      <c r="F65" s="158"/>
+      <c r="C65" s="145"/>
+      <c r="D65" s="145"/>
+      <c r="E65" s="145"/>
+      <c r="F65" s="145"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="158"/>
-      <c r="I65" s="158"/>
+      <c r="H65" s="145"/>
+      <c r="I65" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5403,105 +5502,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5787,7 +5787,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:D44"/>
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6287,10 +6287,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="47">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C43">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="46" t="s">
         <v>880</v>
@@ -6301,10 +6301,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="47">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C44">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
         <v>881</v>
@@ -17544,7 +17544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -19409,7 +19409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>

--- a/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
+++ b/banks/inspire/catalog/catalogs_MCH_inspire_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FE0E67-D647-C341-9229-AD6480798187}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1539A892-96B5-D547-BD1B-F95CEB3862B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="500" windowWidth="32920" windowHeight="18240" tabRatio="991" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13180" yWindow="500" windowWidth="46300" windowHeight="24740" tabRatio="991" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,17 @@
     <sheet name="DateIntervalLimits" sheetId="25" r:id="rId21"/>
     <sheet name="ClientTransactionStatusTypes" sheetId="27" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -46,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="899">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2695,6 +2704,54 @@
   </si>
   <si>
     <t>122</t>
+  </si>
+  <si>
+    <t>MORTGAGE - 10 YR</t>
+  </si>
+  <si>
+    <t>MORTGAGE - 15 YR</t>
+  </si>
+  <si>
+    <t>MORTGAGE - 20 YR</t>
+  </si>
+  <si>
+    <t>MORTGAGE - 25 YR</t>
+  </si>
+  <si>
+    <t>MORTGAGE - 30 YR</t>
+  </si>
+  <si>
+    <t>MORTGAGE - ARM 5 YR</t>
+  </si>
+  <si>
+    <t>Personal Loan - Indirect</t>
+  </si>
+  <si>
+    <t>Personal - Quick Cash</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>428</t>
   </si>
 </sst>
 </file>
@@ -3128,7 +3185,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3444,29 +3501,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3484,6 +3518,32 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4547,22 +4607,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -4572,66 +4632,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="156" t="s">
+      <c r="C8" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="156">
+      <c r="H8" s="147">
         <v>2</v>
       </c>
-      <c r="I8" s="156"/>
+      <c r="I8" s="147"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="156" t="s">
+      <c r="C10" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -4649,325 +4709,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="153" t="s">
+      <c r="C13" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="153" t="s">
+      <c r="H13" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="153"/>
+      <c r="I13" s="151"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="151" t="s">
+      <c r="C14" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="151" t="s">
+      <c r="H14" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="151"/>
+      <c r="I14" s="152"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="151" t="s">
+      <c r="C15" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="151" t="s">
+      <c r="H15" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="151"/>
+      <c r="I15" s="152"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="151" t="s">
+      <c r="H16" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="151"/>
+      <c r="I16" s="152"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="151" t="s">
+      <c r="H17" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="151"/>
+      <c r="I17" s="152"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="151" t="s">
+      <c r="C18" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="151" t="s">
+      <c r="H18" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="151"/>
+      <c r="I18" s="152"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="151" t="s">
+      <c r="H19" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="151"/>
+      <c r="I19" s="152"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="152" t="s">
+      <c r="C20" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="151" t="s">
+      <c r="H20" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="151"/>
+      <c r="I20" s="152"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="151" t="s">
+      <c r="H21" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="151"/>
+      <c r="I21" s="152"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="151" t="s">
+      <c r="C22" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="151" t="s">
+      <c r="H22" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="151"/>
+      <c r="I22" s="152"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="151" t="s">
+      <c r="C23" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="151" t="s">
+      <c r="H23" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="151"/>
+      <c r="I23" s="152"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="151" t="s">
+      <c r="C24" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="151" t="s">
+      <c r="H24" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="151"/>
+      <c r="I24" s="152"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="148" t="s">
+      <c r="C25" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="148" t="s">
+      <c r="H25" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="148"/>
+      <c r="I25" s="154"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="148" t="s">
+      <c r="C26" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="148" t="s">
+      <c r="H26" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="148"/>
+      <c r="I26" s="154"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="148" t="s">
+      <c r="C27" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="148" t="s">
+      <c r="H27" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="148"/>
+      <c r="I27" s="154"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="148" t="s">
+      <c r="C28" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="148" t="s">
+      <c r="H28" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="148"/>
+      <c r="I28" s="154"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="148" t="s">
+      <c r="C29" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="148" t="s">
+      <c r="H29" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="148"/>
+      <c r="I29" s="154"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="148" t="s">
+      <c r="C30" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4980,512 +5040,413 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="148" t="s">
+      <c r="C31" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="148" t="s">
+      <c r="H31" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="148"/>
+      <c r="I31" s="154"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="150" t="s">
+      <c r="C32" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="148" t="s">
+      <c r="H32" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="148"/>
+      <c r="I32" s="154"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="149" t="s">
+      <c r="C33" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="149" t="s">
+      <c r="H33" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="149"/>
+      <c r="I33" s="156"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="149" t="s">
+      <c r="C34" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="149" t="s">
+      <c r="H34" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="149"/>
+      <c r="I34" s="156"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12">
         <v>22</v>
       </c>
-      <c r="C35" s="146" t="s">
+      <c r="C35" s="157" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
       <c r="G35" s="19">
         <v>43411</v>
       </c>
-      <c r="H35" s="148" t="s">
+      <c r="H35" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="148"/>
+      <c r="I35" s="154"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="145"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="146"/>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="145"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="148"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="145"/>
-      <c r="D40" s="145"/>
-      <c r="E40" s="145"/>
-      <c r="F40" s="145"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="158"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="145"/>
-      <c r="E41" s="145"/>
-      <c r="F41" s="145"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="158"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="145"/>
-      <c r="E42" s="145"/>
-      <c r="F42" s="145"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
-      <c r="E43" s="145"/>
-      <c r="F43" s="145"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="158"/>
+      <c r="E43" s="158"/>
+      <c r="F43" s="158"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="148"/>
-      <c r="I43" s="148"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="145"/>
-      <c r="E44" s="145"/>
-      <c r="F44" s="145"/>
+      <c r="C44" s="158"/>
+      <c r="D44" s="158"/>
+      <c r="E44" s="158"/>
+      <c r="F44" s="158"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="154"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="145"/>
-      <c r="E45" s="145"/>
-      <c r="F45" s="145"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="158"/>
+      <c r="F45" s="158"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
+      <c r="H45" s="154"/>
+      <c r="I45" s="154"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="145"/>
-      <c r="E46" s="145"/>
-      <c r="F46" s="145"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="158"/>
+      <c r="E46" s="158"/>
+      <c r="F46" s="158"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="148"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="154"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="147"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="147"/>
+      <c r="C47" s="159"/>
+      <c r="D47" s="159"/>
+      <c r="E47" s="159"/>
+      <c r="F47" s="159"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="148"/>
+      <c r="H47" s="154"/>
+      <c r="I47" s="154"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="147"/>
-      <c r="D48" s="147"/>
-      <c r="E48" s="147"/>
-      <c r="F48" s="147"/>
+      <c r="C48" s="159"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="159"/>
+      <c r="F48" s="159"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="148"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="147"/>
-      <c r="D49" s="147"/>
-      <c r="E49" s="147"/>
-      <c r="F49" s="147"/>
+      <c r="C49" s="159"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="159"/>
+      <c r="F49" s="159"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="148"/>
-      <c r="I49" s="148"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="154"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="147"/>
+      <c r="C50" s="159"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="159"/>
+      <c r="F50" s="159"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="148"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="154"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="145"/>
-      <c r="E51" s="145"/>
-      <c r="F51" s="145"/>
+      <c r="C51" s="158"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="158"/>
+      <c r="F51" s="158"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="146"/>
-      <c r="I51" s="146"/>
+      <c r="H51" s="157"/>
+      <c r="I51" s="157"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="145"/>
-      <c r="D52" s="145"/>
-      <c r="E52" s="145"/>
-      <c r="F52" s="145"/>
+      <c r="C52" s="158"/>
+      <c r="D52" s="158"/>
+      <c r="E52" s="158"/>
+      <c r="F52" s="158"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="146"/>
-      <c r="I52" s="146"/>
+      <c r="H52" s="157"/>
+      <c r="I52" s="157"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="145"/>
-      <c r="E53" s="145"/>
-      <c r="F53" s="145"/>
+      <c r="C53" s="158"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="158"/>
+      <c r="F53" s="158"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="146"/>
-      <c r="I53" s="146"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="145"/>
-      <c r="D54" s="145"/>
-      <c r="E54" s="145"/>
-      <c r="F54" s="145"/>
+      <c r="C54" s="158"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="158"/>
+      <c r="F54" s="158"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="146"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
-      <c r="E55" s="145"/>
-      <c r="F55" s="145"/>
+      <c r="C55" s="158"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="158"/>
+      <c r="F55" s="158"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="146"/>
-      <c r="I55" s="146"/>
+      <c r="H55" s="157"/>
+      <c r="I55" s="157"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="145"/>
-      <c r="E56" s="145"/>
-      <c r="F56" s="145"/>
+      <c r="C56" s="158"/>
+      <c r="D56" s="158"/>
+      <c r="E56" s="158"/>
+      <c r="F56" s="158"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="146"/>
-      <c r="I56" s="146"/>
+      <c r="H56" s="157"/>
+      <c r="I56" s="157"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
-      <c r="E57" s="145"/>
-      <c r="F57" s="145"/>
+      <c r="C57" s="158"/>
+      <c r="D57" s="158"/>
+      <c r="E57" s="158"/>
+      <c r="F57" s="158"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="146"/>
-      <c r="I57" s="146"/>
+      <c r="H57" s="157"/>
+      <c r="I57" s="157"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="145"/>
-      <c r="D58" s="145"/>
-      <c r="E58" s="145"/>
-      <c r="F58" s="145"/>
+      <c r="C58" s="158"/>
+      <c r="D58" s="158"/>
+      <c r="E58" s="158"/>
+      <c r="F58" s="158"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="146"/>
-      <c r="I58" s="146"/>
+      <c r="H58" s="157"/>
+      <c r="I58" s="157"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="145"/>
-      <c r="D59" s="145"/>
-      <c r="E59" s="145"/>
-      <c r="F59" s="145"/>
+      <c r="C59" s="158"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="158"/>
+      <c r="F59" s="158"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="146"/>
-      <c r="I59" s="146"/>
+      <c r="H59" s="157"/>
+      <c r="I59" s="157"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="145"/>
-      <c r="E60" s="145"/>
-      <c r="F60" s="145"/>
+      <c r="C60" s="158"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="158"/>
+      <c r="F60" s="158"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="145"/>
-      <c r="I60" s="145"/>
+      <c r="H60" s="158"/>
+      <c r="I60" s="158"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
-      <c r="E61" s="145"/>
-      <c r="F61" s="145"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="158"/>
+      <c r="F61" s="158"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="145"/>
-      <c r="I61" s="145"/>
+      <c r="H61" s="158"/>
+      <c r="I61" s="158"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="145"/>
-      <c r="E62" s="145"/>
-      <c r="F62" s="145"/>
+      <c r="C62" s="158"/>
+      <c r="D62" s="158"/>
+      <c r="E62" s="158"/>
+      <c r="F62" s="158"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="145"/>
-      <c r="I62" s="145"/>
+      <c r="H62" s="158"/>
+      <c r="I62" s="158"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="145"/>
-      <c r="D63" s="145"/>
-      <c r="E63" s="145"/>
-      <c r="F63" s="145"/>
+      <c r="C63" s="158"/>
+      <c r="D63" s="158"/>
+      <c r="E63" s="158"/>
+      <c r="F63" s="158"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="145"/>
-      <c r="I63" s="145"/>
+      <c r="H63" s="158"/>
+      <c r="I63" s="158"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="145"/>
-      <c r="E64" s="145"/>
-      <c r="F64" s="145"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="158"/>
+      <c r="E64" s="158"/>
+      <c r="F64" s="158"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="145"/>
-      <c r="I64" s="145"/>
+      <c r="H64" s="158"/>
+      <c r="I64" s="158"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="145"/>
-      <c r="D65" s="145"/>
-      <c r="E65" s="145"/>
-      <c r="F65" s="145"/>
+      <c r="C65" s="158"/>
+      <c r="D65" s="158"/>
+      <c r="E65" s="158"/>
+      <c r="F65" s="158"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="145"/>
-      <c r="I65" s="145"/>
+      <c r="H65" s="158"/>
+      <c r="I65" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -5502,6 +5463,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5786,7 +5846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
@@ -6318,10 +6378,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Z112"/>
+  <dimension ref="A1:Z120"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113:C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8564,7 +8624,7 @@
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111" s="143" t="s">
+      <c r="C111" s="160" t="s">
         <v>878</v>
       </c>
     </row>
@@ -8577,6 +8637,94 @@
       </c>
       <c r="C112" t="s">
         <v>879</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>196</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>197</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>198</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>199</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>200</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>201</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>202</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>203</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -9152,10 +9300,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
     <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11324,6 +11472,142 @@
         <v>879</v>
       </c>
     </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>196</v>
+      </c>
+      <c r="C113" t="s">
+        <v>393</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>891</v>
+      </c>
+      <c r="K113" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>197</v>
+      </c>
+      <c r="C114" t="s">
+        <v>393</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>892</v>
+      </c>
+      <c r="K114" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>198</v>
+      </c>
+      <c r="C115" t="s">
+        <v>393</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>893</v>
+      </c>
+      <c r="K115" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>199</v>
+      </c>
+      <c r="C116" t="s">
+        <v>393</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>894</v>
+      </c>
+      <c r="K116" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>200</v>
+      </c>
+      <c r="C117" t="s">
+        <v>393</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>895</v>
+      </c>
+      <c r="K117" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>201</v>
+      </c>
+      <c r="C118" t="s">
+        <v>393</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>896</v>
+      </c>
+      <c r="K118" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>202</v>
+      </c>
+      <c r="C119" t="s">
+        <v>393</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>897</v>
+      </c>
+      <c r="K119" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>203</v>
+      </c>
+      <c r="C120" t="s">
+        <v>393</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>898</v>
+      </c>
+      <c r="K120" t="s">
+        <v>890</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11332,10 +11616,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF13EBBF-2D46-4C4B-8786-27077A6A9849}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11677,6 +11961,94 @@
         <v>195</v>
       </c>
       <c r="C36" s="26" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" s="73">
+        <v>196</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="73">
+        <v>197</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" s="73">
+        <v>198</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="73">
+        <v>199</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="73">
+        <v>200</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="73">
+        <v>201</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="73">
+        <v>202</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="73">
+        <v>203</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>838</v>
       </c>
     </row>
@@ -11695,10 +12067,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112:B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12765,6 +13137,70 @@
         <v>195</v>
       </c>
       <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>196</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>197</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>198</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>199</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>200</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>201</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>202</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>203</v>
+      </c>
+      <c r="B120">
         <v>1</v>
       </c>
     </row>
